--- a/BEM_LCA_Hypothesis.xlsx
+++ b/BEM_LCA_Hypothesis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\05_LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CD32F6-257C-4C8B-993A-E058C033D453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0F7505-E499-4585-8AC0-24006C173D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="690" windowWidth="20535" windowHeight="13155" tabRatio="822" firstSheet="5" activeTab="14" xr2:uid="{65AFDB44-F0B5-471D-BCAC-A3541777CAD5}"/>
+    <workbookView xWindow="30" yWindow="930" windowWidth="28770" windowHeight="15270" tabRatio="822" firstSheet="9" activeTab="14" xr2:uid="{65AFDB44-F0B5-471D-BCAC-A3541777CAD5}"/>
   </bookViews>
   <sheets>
     <sheet name="INTRO" sheetId="25" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3320" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3348" uniqueCount="1046">
   <si>
     <t>closed cavity facade</t>
   </si>
@@ -3233,6 +3233,63 @@
   </si>
   <si>
     <t>DK</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>n-o</t>
+  </si>
+  <si>
+    <t>p-q</t>
+  </si>
+  <si>
+    <t>r-s</t>
   </si>
 </sst>
 </file>
@@ -3462,7 +3519,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4067,6 +4124,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14196,8 +14256,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A2:Q208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -14267,9 +14327,15 @@
       <c r="B6" s="213" t="s">
         <v>589</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
+      <c r="C6" s="143" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D6" s="143" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E6" s="143" t="s">
+        <v>1029</v>
+      </c>
       <c r="F6" s="148"/>
       <c r="H6" s="139"/>
       <c r="I6" s="139"/>
@@ -14703,10 +14769,18 @@
       <c r="B34" s="216" t="s">
         <v>1019</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="148"/>
+      <c r="C34" s="26" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E34" s="143" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F34" s="147" t="s">
+        <v>1033</v>
+      </c>
       <c r="G34" s="139"/>
       <c r="I34" s="139"/>
     </row>
@@ -15112,7 +15186,9 @@
       <c r="B61" s="213" t="s">
         <v>640</v>
       </c>
-      <c r="C61" s="139"/>
+      <c r="C61" s="143" t="s">
+        <v>1034</v>
+      </c>
       <c r="D61" s="139"/>
       <c r="E61" s="139"/>
       <c r="F61" s="148"/>
@@ -15494,12 +15570,27 @@
       <c r="B87" s="213" t="s">
         <v>936</v>
       </c>
-      <c r="C87" s="139"/>
-      <c r="D87" s="139"/>
-      <c r="E87" s="139"/>
-      <c r="F87" s="148"/>
-      <c r="H87" s="139"/>
-      <c r="I87" s="139"/>
+      <c r="C87" s="143" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D87" s="143" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E87" s="143" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F87" s="147" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G87" s="143" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H87" s="143" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I87" s="143" t="s">
+        <v>1035</v>
+      </c>
       <c r="L87" s="139"/>
       <c r="M87" s="139"/>
     </row>
@@ -15845,8 +15936,12 @@
       <c r="B108" s="217" t="s">
         <v>594</v>
       </c>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
+      <c r="C108" s="26" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>1037</v>
+      </c>
       <c r="E108" s="139"/>
       <c r="F108" s="148"/>
       <c r="G108" s="139"/>
@@ -16150,8 +16245,12 @@
       <c r="B133" s="217" t="s">
         <v>594</v>
       </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
+      <c r="C133" s="26" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>152</v>
+      </c>
       <c r="E133" s="139"/>
       <c r="F133" s="148"/>
       <c r="G133" s="139"/>
@@ -16469,9 +16568,15 @@
       <c r="B158" s="217" t="s">
         <v>940</v>
       </c>
-      <c r="C158" s="164"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="139"/>
+      <c r="C158" s="164" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D158" s="26" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E158" s="143" t="s">
+        <v>1045</v>
+      </c>
       <c r="F158" s="148"/>
       <c r="G158" s="139"/>
     </row>
@@ -16834,11 +16939,24 @@
       <c r="B183" s="217" t="s">
         <v>628</v>
       </c>
-      <c r="C183" s="11"/>
-      <c r="D183" s="11"/>
-      <c r="E183" s="139"/>
-      <c r="F183" s="148"/>
-      <c r="G183" s="139"/>
+      <c r="C183" s="26" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D183" s="26" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E183" s="143" t="s">
+        <v>384</v>
+      </c>
+      <c r="F183" s="147" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G183" s="143" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H183" s="253" t="s">
+        <v>536</v>
+      </c>
       <c r="J183" s="146"/>
       <c r="K183" s="145"/>
     </row>
@@ -17192,13 +17310,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B198:B202"/>
-    <mergeCell ref="B173:B177"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="A105:I105"/>
-    <mergeCell ref="A130:I130"/>
-    <mergeCell ref="A155:I155"/>
-    <mergeCell ref="A180:I180"/>
     <mergeCell ref="B77:B81"/>
     <mergeCell ref="B22:B28"/>
     <mergeCell ref="B123:B127"/>
@@ -17207,6 +17318,13 @@
     <mergeCell ref="A84:I84"/>
     <mergeCell ref="B49:B55"/>
     <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B198:B202"/>
+    <mergeCell ref="B173:B177"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="A105:I105"/>
+    <mergeCell ref="A130:I130"/>
+    <mergeCell ref="A155:I155"/>
+    <mergeCell ref="A180:I180"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BEM_LCA_Hypothesis.xlsx
+++ b/BEM_LCA_Hypothesis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\05_LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0F7505-E499-4585-8AC0-24006C173D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D56118-A6C7-40D2-8FCC-B45AA4A62F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="930" windowWidth="28770" windowHeight="15270" tabRatio="822" firstSheet="9" activeTab="14" xr2:uid="{65AFDB44-F0B5-471D-BCAC-A3541777CAD5}"/>
+    <workbookView xWindow="30" yWindow="390" windowWidth="28770" windowHeight="15270" tabRatio="822" firstSheet="9" activeTab="11" xr2:uid="{65AFDB44-F0B5-471D-BCAC-A3541777CAD5}"/>
   </bookViews>
   <sheets>
     <sheet name="INTRO" sheetId="25" r:id="rId1"/>
@@ -4089,6 +4089,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4124,9 +4127,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5269,10 +5269,10 @@
       <c r="D4" s="11"/>
     </row>
     <row r="6" spans="2:23">
-      <c r="B6" s="241" t="s">
+      <c r="B6" s="242" t="s">
         <v>968</v>
       </c>
-      <c r="C6" s="241"/>
+      <c r="C6" s="242"/>
       <c r="D6" s="35"/>
       <c r="E6" s="28"/>
       <c r="F6" s="20"/>
@@ -5285,10 +5285,10 @@
       <c r="I6" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="S6" s="241" t="s">
+      <c r="S6" s="242" t="s">
         <v>523</v>
       </c>
-      <c r="T6" s="241"/>
+      <c r="T6" s="242"/>
       <c r="U6" s="35"/>
       <c r="V6" s="28"/>
       <c r="W6" s="99"/>
@@ -6919,10 +6919,10 @@
       <c r="B140" s="39"/>
     </row>
     <row r="141" spans="2:9">
-      <c r="B141" s="241" t="s">
+      <c r="B141" s="242" t="s">
         <v>387</v>
       </c>
-      <c r="C141" s="241"/>
+      <c r="C141" s="242"/>
       <c r="D141" s="35"/>
       <c r="E141" s="28"/>
       <c r="F141" s="20"/>
@@ -7324,10 +7324,10 @@
       </c>
     </row>
     <row r="179" spans="2:9">
-      <c r="B179" s="241" t="s">
+      <c r="B179" s="242" t="s">
         <v>388</v>
       </c>
-      <c r="C179" s="241"/>
+      <c r="C179" s="242"/>
       <c r="D179" s="35"/>
       <c r="E179" s="28"/>
       <c r="F179" s="20"/>
@@ -7614,10 +7614,10 @@
       </c>
     </row>
     <row r="206" spans="2:9">
-      <c r="B206" s="241" t="s">
+      <c r="B206" s="242" t="s">
         <v>981</v>
       </c>
-      <c r="C206" s="241"/>
+      <c r="C206" s="242"/>
       <c r="D206" s="35"/>
       <c r="E206" s="28"/>
       <c r="F206" s="237"/>
@@ -7885,7 +7885,7 @@
   <dimension ref="B1:W227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7928,10 +7928,10 @@
       <c r="D4" s="11"/>
     </row>
     <row r="6" spans="2:23">
-      <c r="B6" s="241" t="s">
+      <c r="B6" s="242" t="s">
         <v>1012</v>
       </c>
-      <c r="C6" s="241"/>
+      <c r="C6" s="242"/>
       <c r="D6" s="35"/>
       <c r="E6" s="28"/>
       <c r="F6" s="220"/>
@@ -7944,10 +7944,10 @@
       <c r="I6" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="S6" s="241" t="s">
+      <c r="S6" s="242" t="s">
         <v>523</v>
       </c>
-      <c r="T6" s="241"/>
+      <c r="T6" s="242"/>
       <c r="U6" s="35"/>
       <c r="V6" s="28"/>
       <c r="W6" s="220"/>
@@ -11045,10 +11045,10 @@
       <c r="B153" s="39"/>
     </row>
     <row r="154" spans="2:23">
-      <c r="B154" s="241" t="s">
+      <c r="B154" s="242" t="s">
         <v>387</v>
       </c>
-      <c r="C154" s="241"/>
+      <c r="C154" s="242"/>
       <c r="D154" s="35"/>
       <c r="E154" s="28"/>
       <c r="F154" s="220"/>
@@ -11355,10 +11355,10 @@
       </c>
     </row>
     <row r="181" spans="2:9">
-      <c r="B181" s="241" t="s">
+      <c r="B181" s="242" t="s">
         <v>388</v>
       </c>
-      <c r="C181" s="241"/>
+      <c r="C181" s="242"/>
       <c r="D181" s="35"/>
       <c r="E181" s="28"/>
       <c r="F181" s="220"/>
@@ -11645,10 +11645,10 @@
       </c>
     </row>
     <row r="207" spans="2:9">
-      <c r="B207" s="241" t="s">
+      <c r="B207" s="242" t="s">
         <v>981</v>
       </c>
-      <c r="C207" s="241"/>
+      <c r="C207" s="242"/>
       <c r="D207" s="35"/>
       <c r="E207" s="28"/>
       <c r="F207" s="237"/>
@@ -11915,8 +11915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CC6CCE-31D8-423C-980F-A2F1E6B19115}">
   <dimension ref="B1:W114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11959,10 +11959,10 @@
       <c r="D4" s="11"/>
     </row>
     <row r="6" spans="2:23">
-      <c r="B6" s="241" t="s">
+      <c r="B6" s="242" t="s">
         <v>642</v>
       </c>
-      <c r="C6" s="241"/>
+      <c r="C6" s="242"/>
       <c r="D6" s="35"/>
       <c r="E6" s="28"/>
       <c r="F6" s="128"/>
@@ -11975,10 +11975,10 @@
       <c r="I6" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="S6" s="241" t="s">
+      <c r="S6" s="242" t="s">
         <v>523</v>
       </c>
-      <c r="T6" s="241"/>
+      <c r="T6" s="242"/>
       <c r="U6" s="35"/>
       <c r="V6" s="28"/>
       <c r="W6" s="128"/>
@@ -13863,10 +13863,10 @@
       <c r="F3" s="41"/>
     </row>
     <row r="4" spans="2:6" s="11" customFormat="1">
-      <c r="B4" s="249" t="s">
+      <c r="B4" s="250" t="s">
         <v>390</v>
       </c>
-      <c r="C4" s="249"/>
+      <c r="C4" s="250"/>
       <c r="D4" s="35"/>
       <c r="E4" s="28"/>
       <c r="F4" s="20"/>
@@ -13956,10 +13956,10 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="249" t="s">
+      <c r="B15" s="250" t="s">
         <v>399</v>
       </c>
-      <c r="C15" s="249"/>
+      <c r="C15" s="250"/>
       <c r="D15" s="35"/>
       <c r="E15" s="28"/>
       <c r="F15" s="20"/>
@@ -14256,7 +14256,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A2:Q208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
@@ -14281,17 +14281,17 @@
       <c r="F2" s="144"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1">
-      <c r="A3" s="252" t="s">
+      <c r="A3" s="253" t="s">
         <v>612</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="253"/>
+      <c r="H3" s="253"/>
+      <c r="I3" s="253"/>
       <c r="L3" s="139"/>
       <c r="M3" s="139"/>
     </row>
@@ -14603,7 +14603,7 @@
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="147"/>
-      <c r="B22" s="250" t="s">
+      <c r="B22" s="251" t="s">
         <v>601</v>
       </c>
       <c r="C22" s="138" t="s">
@@ -14621,7 +14621,7 @@
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="A23" s="147"/>
-      <c r="B23" s="250"/>
+      <c r="B23" s="251"/>
       <c r="C23" s="136" t="s">
         <v>700</v>
       </c>
@@ -14637,7 +14637,7 @@
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1">
       <c r="A24" s="147"/>
-      <c r="B24" s="250"/>
+      <c r="B24" s="251"/>
       <c r="C24" s="136" t="s">
         <v>701</v>
       </c>
@@ -14655,7 +14655,7 @@
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1">
       <c r="A25" s="147"/>
-      <c r="B25" s="250"/>
+      <c r="B25" s="251"/>
       <c r="C25" s="136" t="s">
         <v>702</v>
       </c>
@@ -14671,7 +14671,7 @@
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="147"/>
-      <c r="B26" s="250"/>
+      <c r="B26" s="251"/>
       <c r="C26" s="136" t="s">
         <v>703</v>
       </c>
@@ -14687,7 +14687,7 @@
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1">
       <c r="A27" s="147"/>
-      <c r="B27" s="250"/>
+      <c r="B27" s="251"/>
       <c r="C27" s="136" t="s">
         <v>704</v>
       </c>
@@ -14701,7 +14701,7 @@
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1">
       <c r="A28" s="147"/>
-      <c r="B28" s="251"/>
+      <c r="B28" s="252"/>
       <c r="C28" s="137" t="s">
         <v>705</v>
       </c>
@@ -14729,17 +14729,17 @@
       <c r="K30" s="144"/>
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1">
-      <c r="A31" s="252" t="s">
+      <c r="A31" s="253" t="s">
         <v>595</v>
       </c>
-      <c r="B31" s="252"/>
-      <c r="C31" s="252"/>
-      <c r="D31" s="252"/>
-      <c r="E31" s="252"/>
-      <c r="F31" s="252"/>
-      <c r="G31" s="252"/>
-      <c r="H31" s="252"/>
-      <c r="I31" s="252"/>
+      <c r="B31" s="253"/>
+      <c r="C31" s="253"/>
+      <c r="D31" s="253"/>
+      <c r="E31" s="253"/>
+      <c r="F31" s="253"/>
+      <c r="G31" s="253"/>
+      <c r="H31" s="253"/>
+      <c r="I31" s="253"/>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1">
       <c r="A32" s="139"/>
@@ -15014,7 +15014,7 @@
     </row>
     <row r="49" spans="1:15" ht="15" customHeight="1">
       <c r="A49" s="147"/>
-      <c r="B49" s="250" t="s">
+      <c r="B49" s="251" t="s">
         <v>601</v>
       </c>
       <c r="C49" s="138" t="s">
@@ -15032,7 +15032,7 @@
     </row>
     <row r="50" spans="1:15" ht="15" customHeight="1">
       <c r="A50" s="147"/>
-      <c r="B50" s="250"/>
+      <c r="B50" s="251"/>
       <c r="C50" s="136" t="s">
         <v>700</v>
       </c>
@@ -15048,7 +15048,7 @@
     </row>
     <row r="51" spans="1:15" ht="15" customHeight="1">
       <c r="A51" s="147"/>
-      <c r="B51" s="250"/>
+      <c r="B51" s="251"/>
       <c r="C51" s="136" t="s">
         <v>701</v>
       </c>
@@ -15066,7 +15066,7 @@
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1">
       <c r="A52" s="147"/>
-      <c r="B52" s="250"/>
+      <c r="B52" s="251"/>
       <c r="C52" s="136" t="s">
         <v>702</v>
       </c>
@@ -15082,7 +15082,7 @@
     </row>
     <row r="53" spans="1:15" ht="15" customHeight="1">
       <c r="A53" s="147"/>
-      <c r="B53" s="250"/>
+      <c r="B53" s="251"/>
       <c r="C53" s="136" t="s">
         <v>703</v>
       </c>
@@ -15098,7 +15098,7 @@
     </row>
     <row r="54" spans="1:15" ht="15" customHeight="1">
       <c r="A54" s="147"/>
-      <c r="B54" s="250"/>
+      <c r="B54" s="251"/>
       <c r="C54" s="136" t="s">
         <v>704</v>
       </c>
@@ -15112,7 +15112,7 @@
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1">
       <c r="A55" s="147"/>
-      <c r="B55" s="251"/>
+      <c r="B55" s="252"/>
       <c r="C55" s="137" t="s">
         <v>705</v>
       </c>
@@ -15141,17 +15141,17 @@
       <c r="I57" s="139"/>
     </row>
     <row r="58" spans="1:15" ht="15" customHeight="1">
-      <c r="A58" s="252" t="s">
+      <c r="A58" s="253" t="s">
         <v>638</v>
       </c>
-      <c r="B58" s="252"/>
-      <c r="C58" s="252"/>
-      <c r="D58" s="252"/>
-      <c r="E58" s="252"/>
-      <c r="F58" s="252"/>
-      <c r="G58" s="252"/>
-      <c r="H58" s="252"/>
-      <c r="I58" s="252"/>
+      <c r="B58" s="253"/>
+      <c r="C58" s="253"/>
+      <c r="D58" s="253"/>
+      <c r="E58" s="253"/>
+      <c r="F58" s="253"/>
+      <c r="G58" s="253"/>
+      <c r="H58" s="253"/>
+      <c r="I58" s="253"/>
       <c r="L58" s="139"/>
       <c r="M58" s="139"/>
     </row>
@@ -15423,7 +15423,7 @@
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1">
       <c r="A77" s="147"/>
-      <c r="B77" s="250" t="s">
+      <c r="B77" s="251" t="s">
         <v>601</v>
       </c>
       <c r="C77" s="140" t="s">
@@ -15441,7 +15441,7 @@
     </row>
     <row r="78" spans="1:15" ht="15" customHeight="1">
       <c r="A78" s="147"/>
-      <c r="B78" s="250"/>
+      <c r="B78" s="251"/>
       <c r="C78" s="170" t="s">
         <v>700</v>
       </c>
@@ -15457,7 +15457,7 @@
     </row>
     <row r="79" spans="1:15" ht="15" customHeight="1">
       <c r="A79" s="147"/>
-      <c r="B79" s="250"/>
+      <c r="B79" s="251"/>
       <c r="C79" s="170" t="s">
         <v>701</v>
       </c>
@@ -15475,7 +15475,7 @@
     </row>
     <row r="80" spans="1:15" ht="15" customHeight="1">
       <c r="A80" s="147"/>
-      <c r="B80" s="250"/>
+      <c r="B80" s="251"/>
       <c r="C80" s="170" t="s">
         <v>706</v>
       </c>
@@ -15491,7 +15491,7 @@
     </row>
     <row r="81" spans="1:15" ht="15" customHeight="1">
       <c r="A81" s="147"/>
-      <c r="B81" s="251"/>
+      <c r="B81" s="252"/>
       <c r="C81" s="171" t="s">
         <v>707</v>
       </c>
@@ -15525,17 +15525,17 @@
       <c r="K83" s="144"/>
     </row>
     <row r="84" spans="1:15" ht="15" customHeight="1">
-      <c r="A84" s="252" t="s">
+      <c r="A84" s="253" t="s">
         <v>613</v>
       </c>
-      <c r="B84" s="252"/>
-      <c r="C84" s="252"/>
-      <c r="D84" s="252"/>
-      <c r="E84" s="252"/>
-      <c r="F84" s="252"/>
-      <c r="G84" s="252"/>
-      <c r="H84" s="252"/>
-      <c r="I84" s="252"/>
+      <c r="B84" s="253"/>
+      <c r="C84" s="253"/>
+      <c r="D84" s="253"/>
+      <c r="E84" s="253"/>
+      <c r="F84" s="253"/>
+      <c r="G84" s="253"/>
+      <c r="H84" s="253"/>
+      <c r="I84" s="253"/>
       <c r="L84" s="139"/>
       <c r="M84" s="139"/>
     </row>
@@ -15899,17 +15899,17 @@
       <c r="K104" s="144"/>
     </row>
     <row r="105" spans="1:15" ht="15" customHeight="1">
-      <c r="A105" s="252" t="s">
+      <c r="A105" s="253" t="s">
         <v>593</v>
       </c>
-      <c r="B105" s="252"/>
-      <c r="C105" s="252"/>
-      <c r="D105" s="252"/>
-      <c r="E105" s="252"/>
-      <c r="F105" s="252"/>
-      <c r="G105" s="252"/>
-      <c r="H105" s="252"/>
-      <c r="I105" s="252"/>
+      <c r="B105" s="253"/>
+      <c r="C105" s="253"/>
+      <c r="D105" s="253"/>
+      <c r="E105" s="253"/>
+      <c r="F105" s="253"/>
+      <c r="G105" s="253"/>
+      <c r="H105" s="253"/>
+      <c r="I105" s="253"/>
     </row>
     <row r="106" spans="1:15" ht="15" customHeight="1">
       <c r="A106" s="147"/>
@@ -16133,7 +16133,7 @@
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1">
       <c r="A123" s="147"/>
-      <c r="B123" s="250" t="s">
+      <c r="B123" s="251" t="s">
         <v>601</v>
       </c>
       <c r="C123" s="144" t="s">
@@ -16146,7 +16146,7 @@
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1">
       <c r="A124" s="147"/>
-      <c r="B124" s="250"/>
+      <c r="B124" s="251"/>
       <c r="C124" s="170" t="s">
         <v>700</v>
       </c>
@@ -16157,7 +16157,7 @@
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1">
       <c r="A125" s="147"/>
-      <c r="B125" s="250"/>
+      <c r="B125" s="251"/>
       <c r="C125" s="170" t="s">
         <v>701</v>
       </c>
@@ -16168,7 +16168,7 @@
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1">
       <c r="A126" s="147"/>
-      <c r="B126" s="250"/>
+      <c r="B126" s="251"/>
       <c r="C126" s="170" t="s">
         <v>706</v>
       </c>
@@ -16179,7 +16179,7 @@
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1">
       <c r="A127" s="147"/>
-      <c r="B127" s="251"/>
+      <c r="B127" s="252"/>
       <c r="C127" s="171" t="s">
         <v>707</v>
       </c>
@@ -16205,17 +16205,17 @@
       <c r="G129" s="139"/>
     </row>
     <row r="130" spans="1:15" ht="15" customHeight="1">
-      <c r="A130" s="252" t="s">
+      <c r="A130" s="253" t="s">
         <v>604</v>
       </c>
-      <c r="B130" s="252"/>
-      <c r="C130" s="252"/>
-      <c r="D130" s="252"/>
-      <c r="E130" s="252"/>
-      <c r="F130" s="252"/>
-      <c r="G130" s="252"/>
-      <c r="H130" s="252"/>
-      <c r="I130" s="252"/>
+      <c r="B130" s="253"/>
+      <c r="C130" s="253"/>
+      <c r="D130" s="253"/>
+      <c r="E130" s="253"/>
+      <c r="F130" s="253"/>
+      <c r="G130" s="253"/>
+      <c r="H130" s="253"/>
+      <c r="I130" s="253"/>
     </row>
     <row r="131" spans="1:15" ht="15" customHeight="1">
       <c r="A131" s="139"/>
@@ -16448,7 +16448,7 @@
     </row>
     <row r="148" spans="1:9" ht="15" customHeight="1">
       <c r="A148" s="139"/>
-      <c r="B148" s="250" t="s">
+      <c r="B148" s="251" t="s">
         <v>601</v>
       </c>
       <c r="C148" s="144" t="s">
@@ -16460,7 +16460,7 @@
     </row>
     <row r="149" spans="1:9" ht="15" customHeight="1">
       <c r="A149" s="139"/>
-      <c r="B149" s="250"/>
+      <c r="B149" s="251"/>
       <c r="C149" s="170" t="s">
         <v>700</v>
       </c>
@@ -16470,7 +16470,7 @@
     </row>
     <row r="150" spans="1:9" ht="15" customHeight="1">
       <c r="A150" s="139"/>
-      <c r="B150" s="250"/>
+      <c r="B150" s="251"/>
       <c r="C150" s="170" t="s">
         <v>701</v>
       </c>
@@ -16483,7 +16483,7 @@
     </row>
     <row r="151" spans="1:9" ht="15" customHeight="1">
       <c r="A151" s="139"/>
-      <c r="B151" s="250"/>
+      <c r="B151" s="251"/>
       <c r="C151" s="170" t="s">
         <v>706</v>
       </c>
@@ -16496,7 +16496,7 @@
     </row>
     <row r="152" spans="1:9" ht="15" customHeight="1">
       <c r="A152" s="139"/>
-      <c r="B152" s="251"/>
+      <c r="B152" s="252"/>
       <c r="C152" s="171" t="s">
         <v>707</v>
       </c>
@@ -16528,17 +16528,17 @@
       <c r="I154" s="139"/>
     </row>
     <row r="155" spans="1:9" ht="15" customHeight="1">
-      <c r="A155" s="252" t="s">
+      <c r="A155" s="253" t="s">
         <v>635</v>
       </c>
-      <c r="B155" s="252"/>
-      <c r="C155" s="252"/>
-      <c r="D155" s="252"/>
-      <c r="E155" s="252"/>
-      <c r="F155" s="252"/>
-      <c r="G155" s="252"/>
-      <c r="H155" s="252"/>
-      <c r="I155" s="252"/>
+      <c r="B155" s="253"/>
+      <c r="C155" s="253"/>
+      <c r="D155" s="253"/>
+      <c r="E155" s="253"/>
+      <c r="F155" s="253"/>
+      <c r="G155" s="253"/>
+      <c r="H155" s="253"/>
+      <c r="I155" s="253"/>
     </row>
     <row r="156" spans="1:9" ht="15" customHeight="1">
       <c r="A156" s="139"/>
@@ -16814,7 +16814,7 @@
     </row>
     <row r="173" spans="1:15" ht="15" customHeight="1">
       <c r="A173" s="139"/>
-      <c r="B173" s="250" t="s">
+      <c r="B173" s="251" t="s">
         <v>601</v>
       </c>
       <c r="C173" s="144" t="s">
@@ -16826,7 +16826,7 @@
     </row>
     <row r="174" spans="1:15" ht="15" customHeight="1">
       <c r="A174" s="139"/>
-      <c r="B174" s="250"/>
+      <c r="B174" s="251"/>
       <c r="C174" s="170" t="s">
         <v>700</v>
       </c>
@@ -16836,7 +16836,7 @@
     </row>
     <row r="175" spans="1:15" ht="15" customHeight="1">
       <c r="A175" s="139"/>
-      <c r="B175" s="250"/>
+      <c r="B175" s="251"/>
       <c r="C175" s="170" t="s">
         <v>701</v>
       </c>
@@ -16849,7 +16849,7 @@
     </row>
     <row r="176" spans="1:15" ht="15" customHeight="1">
       <c r="A176" s="139"/>
-      <c r="B176" s="250"/>
+      <c r="B176" s="251"/>
       <c r="C176" s="170" t="s">
         <v>706</v>
       </c>
@@ -16862,7 +16862,7 @@
     </row>
     <row r="177" spans="1:17" ht="15" customHeight="1">
       <c r="A177" s="139"/>
-      <c r="B177" s="251"/>
+      <c r="B177" s="252"/>
       <c r="C177" s="171" t="s">
         <v>707</v>
       </c>
@@ -16894,17 +16894,17 @@
       <c r="I179" s="139"/>
     </row>
     <row r="180" spans="1:17" ht="15" customHeight="1">
-      <c r="A180" s="252" t="s">
+      <c r="A180" s="253" t="s">
         <v>611</v>
       </c>
-      <c r="B180" s="252"/>
-      <c r="C180" s="252"/>
-      <c r="D180" s="252"/>
-      <c r="E180" s="252"/>
-      <c r="F180" s="252"/>
-      <c r="G180" s="252"/>
-      <c r="H180" s="252"/>
-      <c r="I180" s="252"/>
+      <c r="B180" s="253"/>
+      <c r="C180" s="253"/>
+      <c r="D180" s="253"/>
+      <c r="E180" s="253"/>
+      <c r="F180" s="253"/>
+      <c r="G180" s="253"/>
+      <c r="H180" s="253"/>
+      <c r="I180" s="253"/>
     </row>
     <row r="181" spans="1:17" ht="15" customHeight="1">
       <c r="A181" s="176" t="s">
@@ -16954,7 +16954,7 @@
       <c r="G183" s="143" t="s">
         <v>1042</v>
       </c>
-      <c r="H183" s="253" t="s">
+      <c r="H183" s="241" t="s">
         <v>536</v>
       </c>
       <c r="J183" s="146"/>
@@ -17205,7 +17205,7 @@
     </row>
     <row r="198" spans="1:15" ht="15" customHeight="1">
       <c r="A198" s="139"/>
-      <c r="B198" s="250" t="s">
+      <c r="B198" s="251" t="s">
         <v>601</v>
       </c>
       <c r="C198" s="144" t="s">
@@ -17220,7 +17220,7 @@
     </row>
     <row r="199" spans="1:15" ht="15" customHeight="1">
       <c r="A199" s="139"/>
-      <c r="B199" s="250"/>
+      <c r="B199" s="251"/>
       <c r="C199" s="170" t="s">
         <v>700</v>
       </c>
@@ -17233,7 +17233,7 @@
     </row>
     <row r="200" spans="1:15" ht="15" customHeight="1">
       <c r="A200" s="139"/>
-      <c r="B200" s="250"/>
+      <c r="B200" s="251"/>
       <c r="C200" s="170" t="s">
         <v>701</v>
       </c>
@@ -17246,7 +17246,7 @@
     </row>
     <row r="201" spans="1:15" ht="15" customHeight="1">
       <c r="A201" s="139"/>
-      <c r="B201" s="250"/>
+      <c r="B201" s="251"/>
       <c r="C201" s="170" t="s">
         <v>706</v>
       </c>
@@ -17259,7 +17259,7 @@
     </row>
     <row r="202" spans="1:15" ht="15" customHeight="1">
       <c r="A202" s="139"/>
-      <c r="B202" s="251"/>
+      <c r="B202" s="252"/>
       <c r="C202" s="171" t="s">
         <v>707</v>
       </c>
@@ -17310,6 +17310,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B198:B202"/>
+    <mergeCell ref="B173:B177"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="A105:I105"/>
+    <mergeCell ref="A130:I130"/>
+    <mergeCell ref="A155:I155"/>
+    <mergeCell ref="A180:I180"/>
     <mergeCell ref="B77:B81"/>
     <mergeCell ref="B22:B28"/>
     <mergeCell ref="B123:B127"/>
@@ -17318,13 +17325,6 @@
     <mergeCell ref="A84:I84"/>
     <mergeCell ref="B49:B55"/>
     <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B198:B202"/>
-    <mergeCell ref="B173:B177"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="A105:I105"/>
-    <mergeCell ref="A130:I130"/>
-    <mergeCell ref="A155:I155"/>
-    <mergeCell ref="A180:I180"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19083,10 +19083,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="242" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="241"/>
+      <c r="C4" s="242"/>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="11" t="s">
@@ -19097,10 +19097,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="241" t="s">
+      <c r="B8" s="242" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="241"/>
+      <c r="C8" s="242"/>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="11" t="s">
@@ -19125,10 +19125,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="17"/>
-      <c r="B16" s="242" t="s">
+      <c r="B16" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="242"/>
+      <c r="C16" s="243"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="11" t="s">
@@ -19136,10 +19136,10 @@
       </c>
     </row>
     <row r="20" spans="2:3" ht="138" customHeight="1">
-      <c r="B20" s="243" t="s">
+      <c r="B20" s="244" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="243"/>
+      <c r="C20" s="244"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="18" t="s">
@@ -19215,10 +19215,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="17"/>
-      <c r="B33" s="242" t="s">
+      <c r="B33" s="243" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="242"/>
+      <c r="C33" s="243"/>
     </row>
     <row r="34" spans="1:3">
       <c r="C34" s="16" t="s">
@@ -28516,10 +28516,10 @@
     </row>
     <row r="2" spans="2:6" s="11" customFormat="1"/>
     <row r="3" spans="2:6" s="11" customFormat="1">
-      <c r="B3" s="241" t="s">
+      <c r="B3" s="242" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="241"/>
+      <c r="C3" s="242"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
@@ -28540,10 +28540,10 @@
     </row>
     <row r="5" spans="2:6" s="11" customFormat="1"/>
     <row r="6" spans="2:6" s="11" customFormat="1">
-      <c r="B6" s="241" t="s">
+      <c r="B6" s="242" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="241"/>
+      <c r="C6" s="242"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
@@ -28567,10 +28567,10 @@
     </row>
     <row r="8" spans="2:6" s="11" customFormat="1"/>
     <row r="9" spans="2:6" s="11" customFormat="1">
-      <c r="B9" s="241" t="s">
+      <c r="B9" s="242" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="241"/>
+      <c r="C9" s="242"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
@@ -29446,7 +29446,7 @@
       </c>
     </row>
     <row r="89" spans="2:5">
-      <c r="B89" s="243" t="s">
+      <c r="B89" s="244" t="s">
         <v>159</v>
       </c>
       <c r="C89" t="s">
@@ -29460,7 +29460,7 @@
       </c>
     </row>
     <row r="90" spans="2:5">
-      <c r="B90" s="243"/>
+      <c r="B90" s="244"/>
       <c r="C90" t="s">
         <v>147</v>
       </c>
@@ -29472,7 +29472,7 @@
       </c>
     </row>
     <row r="91" spans="2:5">
-      <c r="B91" s="243"/>
+      <c r="B91" s="244"/>
       <c r="C91" t="s">
         <v>148</v>
       </c>
@@ -29484,7 +29484,7 @@
       </c>
     </row>
     <row r="92" spans="2:5">
-      <c r="B92" s="243"/>
+      <c r="B92" s="244"/>
       <c r="C92" t="s">
         <v>149</v>
       </c>
@@ -31791,13 +31791,13 @@
       </c>
     </row>
     <row r="4" spans="1:32">
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="247" t="s">
         <v>498</v>
       </c>
-      <c r="C4" s="246" t="s">
+      <c r="C4" s="247" t="s">
         <v>848</v>
       </c>
-      <c r="D4" s="246"/>
+      <c r="D4" s="247"/>
       <c r="E4" s="103" t="s">
         <v>449</v>
       </c>
@@ -31807,10 +31807,10 @@
       <c r="G4" s="103" t="s">
         <v>481</v>
       </c>
-      <c r="H4" s="244" t="s">
+      <c r="H4" s="245" t="s">
         <v>499</v>
       </c>
-      <c r="I4" s="244" t="s">
+      <c r="I4" s="245" t="s">
         <v>500</v>
       </c>
       <c r="J4"/>
@@ -31842,7 +31842,7 @@
       <c r="A5" s="134" t="s">
         <v>554</v>
       </c>
-      <c r="B5" s="247"/>
+      <c r="B5" s="248"/>
       <c r="C5" s="177" t="s">
         <v>419</v>
       </c>
@@ -31858,8 +31858,8 @@
       <c r="G5" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="245"/>
-      <c r="I5" s="245"/>
+      <c r="H5" s="246"/>
+      <c r="I5" s="246"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -36463,10 +36463,10 @@
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="2:12" s="11" customFormat="1">
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="242" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="241"/>
+      <c r="C4" s="242"/>
       <c r="D4" s="27"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -36566,10 +36566,10 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="241" t="s">
+      <c r="B15" s="242" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="241"/>
+      <c r="C15" s="242"/>
       <c r="D15" s="27"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -36592,7 +36592,7 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="248" t="s">
+      <c r="B17" s="249" t="s">
         <v>34</v>
       </c>
       <c r="C17" t="s">
@@ -36609,7 +36609,7 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="248"/>
+      <c r="B18" s="249"/>
       <c r="C18" t="s">
         <v>211</v>
       </c>
@@ -36621,7 +36621,7 @@
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="248"/>
+      <c r="B19" s="249"/>
       <c r="C19" t="s">
         <v>212</v>
       </c>
@@ -36783,10 +36783,10 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="241" t="s">
+      <c r="B36" s="242" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="241"/>
+      <c r="C36" s="242"/>
       <c r="D36" s="27"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -37033,10 +37033,10 @@
       </c>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="241" t="s">
+      <c r="B62" s="242" t="s">
         <v>224</v>
       </c>
-      <c r="C62" s="241"/>
+      <c r="C62" s="242"/>
       <c r="D62" s="27"/>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
@@ -37136,10 +37136,10 @@
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="2:6" s="11" customFormat="1">
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="242" t="s">
         <v>231</v>
       </c>
-      <c r="C4" s="241"/>
+      <c r="C4" s="242"/>
       <c r="D4" s="27"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -37209,10 +37209,10 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="241" t="s">
+      <c r="B14" s="242" t="s">
         <v>942</v>
       </c>
-      <c r="C14" s="241"/>
+      <c r="C14" s="242"/>
       <c r="D14" s="27"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -37276,10 +37276,10 @@
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="2:6" s="11" customFormat="1">
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="242" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="241"/>
+      <c r="C4" s="242"/>
       <c r="D4" s="27"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -37355,10 +37355,10 @@
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:6" s="11" customFormat="1">
-      <c r="B3" s="241" t="s">
+      <c r="B3" s="242" t="s">
         <v>427</v>
       </c>
-      <c r="C3" s="241"/>
+      <c r="C3" s="242"/>
       <c r="D3" s="35"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
@@ -37497,10 +37497,10 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="241" t="s">
+      <c r="B20" s="242" t="s">
         <v>429</v>
       </c>
-      <c r="C20" s="241"/>
+      <c r="C20" s="242"/>
       <c r="D20" s="35" t="s">
         <v>419</v>
       </c>

--- a/BEM_LCA_Hypothesis.xlsx
+++ b/BEM_LCA_Hypothesis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\05_LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E29AEE5-52A6-4F42-BB23-CF4C821C618B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318E5571-0104-4B1F-A405-EB19B2452E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="930" windowWidth="28770" windowHeight="15270" tabRatio="822" firstSheet="9" activeTab="14" xr2:uid="{65AFDB44-F0B5-471D-BCAC-A3541777CAD5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="822" firstSheet="9" activeTab="14" xr2:uid="{65AFDB44-F0B5-471D-BCAC-A3541777CAD5}"/>
   </bookViews>
   <sheets>
     <sheet name="INTRO" sheetId="25" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3344" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3343" uniqueCount="1044">
   <si>
     <t>closed cavity facade</t>
   </si>
@@ -2072,9 +2072,6 @@
   </si>
   <si>
     <t>1 steps, 8 runs</t>
-  </si>
-  <si>
-    <t>LCA ONLY</t>
   </si>
   <si>
     <t>VRF, variable refrigerant flow system with multiple indoor units and an outdoor unit</t>
@@ -3516,7 +3513,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3934,9 +3931,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5014,44 +5008,44 @@
   <sheetData>
     <row r="1" spans="2:5" s="10" customFormat="1">
       <c r="B1" s="9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="13" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>578</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="192">
+      <c r="B6" s="191">
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>70</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="192">
+      <c r="B7" s="191">
         <v>2</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -5059,26 +5053,26 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="192">
+      <c r="B8" s="191">
         <v>3</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>127</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="192">
+      <c r="B9" s="191">
         <v>4</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="192">
+      <c r="B10" s="191">
         <v>5</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -5086,7 +5080,7 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="192">
+      <c r="B11" s="191">
         <v>6</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -5094,7 +5088,7 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="192">
+      <c r="B12" s="191">
         <v>7</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -5102,112 +5096,112 @@
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="192">
+      <c r="B13" s="191">
         <v>8</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="192">
+      <c r="B14" s="191">
         <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="191">
+        <v>10</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="192">
-        <v>10</v>
-      </c>
-      <c r="D15" s="11" t="s">
+    <row r="16" spans="2:5">
+      <c r="B16" s="191">
+        <v>11</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="192">
-        <v>11</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>826</v>
-      </c>
-    </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="192">
+      <c r="B17" s="191">
         <v>12</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>389</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="192">
+      <c r="B18" s="191">
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
       <c r="E20" s="47"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="192">
+      <c r="B21" s="191">
         <v>14</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>830</v>
-      </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="192"/>
+      <c r="B22" s="191"/>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="192">
+      <c r="B24" s="191">
         <v>15</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="192">
+      <c r="B25" s="191">
         <v>16</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>838</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -5244,7 +5238,7 @@
   <sheetData>
     <row r="1" spans="2:23" s="10" customFormat="1">
       <c r="B1" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="25"/>
@@ -5252,24 +5246,24 @@
     </row>
     <row r="3" spans="2:23">
       <c r="B3" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>974</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>975</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="2:23">
       <c r="C4" s="11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="6" spans="2:23">
-      <c r="B6" s="242" t="s">
-        <v>964</v>
-      </c>
-      <c r="C6" s="242"/>
+      <c r="B6" s="241" t="s">
+        <v>963</v>
+      </c>
+      <c r="C6" s="241"/>
       <c r="D6" s="35"/>
       <c r="E6" s="28"/>
       <c r="F6" s="20"/>
@@ -5282,10 +5276,10 @@
       <c r="I6" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="S6" s="242" t="s">
+      <c r="S6" s="241" t="s">
         <v>522</v>
       </c>
-      <c r="T6" s="242"/>
+      <c r="T6" s="241"/>
       <c r="U6" s="35"/>
       <c r="V6" s="28"/>
       <c r="W6" s="99"/>
@@ -5293,20 +5287,20 @@
     <row r="7" spans="2:23" s="39" customFormat="1">
       <c r="B7" s="36"/>
       <c r="C7" s="11" t="s">
+        <v>955</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>956</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>957</v>
       </c>
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="2:23" s="39" customFormat="1">
       <c r="B8" s="36"/>
       <c r="C8" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>958</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="F8" s="36"/>
     </row>
@@ -5373,7 +5367,7 @@
         <v>365</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F13" s="36"/>
     </row>
@@ -5420,7 +5414,7 @@
         <v>371</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="36"/>
@@ -5528,10 +5522,10 @@
     </row>
     <row r="24" spans="2:23">
       <c r="B24" s="39" t="s">
+        <v>657</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>658</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>659</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>272</v>
@@ -5543,7 +5537,7 @@
     <row r="25" spans="2:23">
       <c r="B25" s="39"/>
       <c r="C25" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D25" s="33">
         <v>1</v>
@@ -5554,19 +5548,19 @@
     </row>
     <row r="27" spans="2:23">
       <c r="B27" s="39" t="s">
+        <v>660</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>662</v>
-      </c>
       <c r="D27" s="33" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="28" spans="2:23">
       <c r="B28" s="39"/>
       <c r="C28" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>272</v>
@@ -5575,7 +5569,7 @@
     <row r="29" spans="2:23">
       <c r="B29" s="39"/>
       <c r="C29" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D29" s="33">
         <v>1</v>
@@ -5583,7 +5577,7 @@
     </row>
     <row r="30" spans="2:23">
       <c r="C30" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D30" s="33">
         <v>7</v>
@@ -5594,7 +5588,7 @@
     </row>
     <row r="31" spans="2:23">
       <c r="C31" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D31" s="33">
         <v>8.0000000000000002E-3</v>
@@ -5605,7 +5599,7 @@
     </row>
     <row r="32" spans="2:23">
       <c r="C32" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D32" s="33">
         <v>12.8</v>
@@ -5616,7 +5610,7 @@
     </row>
     <row r="33" spans="2:23">
       <c r="C33" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D33" s="33">
         <v>8.0000000000000002E-3</v>
@@ -5627,7 +5621,7 @@
     </row>
     <row r="34" spans="2:23">
       <c r="C34" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D34" s="33">
         <v>15.5</v>
@@ -5638,7 +5632,7 @@
     </row>
     <row r="35" spans="2:23">
       <c r="C35" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D35" s="33">
         <v>21</v>
@@ -5649,15 +5643,15 @@
     </row>
     <row r="36" spans="2:23">
       <c r="C36" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="37" spans="2:23">
       <c r="C37" s="11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D37" s="33" t="s">
         <v>585</v>
@@ -5665,7 +5659,7 @@
     </row>
     <row r="38" spans="2:23">
       <c r="C38" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>585</v>
@@ -5673,7 +5667,7 @@
     </row>
     <row r="39" spans="2:23">
       <c r="C39" s="11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D39" s="33">
         <v>8.5000000000000006E-3</v>
@@ -5684,7 +5678,7 @@
     </row>
     <row r="40" spans="2:23">
       <c r="C40" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D40" s="33">
         <v>8.0000000000000002E-3</v>
@@ -5698,7 +5692,7 @@
         <v>256</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="42" spans="2:23">
@@ -5717,7 +5711,7 @@
         <v>262</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="44" spans="2:23">
@@ -5733,15 +5727,15 @@
     </row>
     <row r="45" spans="2:23">
       <c r="C45" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="46" spans="2:23">
       <c r="C46" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D46" s="33">
         <v>1</v>
@@ -5773,7 +5767,7 @@
     <row r="48" spans="2:23" s="41" customFormat="1">
       <c r="B48" s="11"/>
       <c r="C48" s="11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D48" s="33">
         <v>0.01</v>
@@ -5802,7 +5796,7 @@
     <row r="49" spans="2:23" s="41" customFormat="1">
       <c r="B49" s="11"/>
       <c r="C49" s="11" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D49" s="33">
         <v>1</v>
@@ -5829,13 +5823,13 @@
     <row r="50" spans="2:23" s="41" customFormat="1">
       <c r="B50" s="11"/>
       <c r="C50" s="11" t="s">
+        <v>913</v>
+      </c>
+      <c r="D50" s="222">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="E50" s="26" t="s">
         <v>914</v>
-      </c>
-      <c r="D50" s="223">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>915</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
@@ -5881,7 +5875,7 @@
     <row r="52" spans="2:23" s="41" customFormat="1">
       <c r="B52" s="11"/>
       <c r="C52" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D52" s="33">
         <v>0.01</v>
@@ -5910,7 +5904,7 @@
     <row r="53" spans="2:23" s="41" customFormat="1">
       <c r="B53" s="11"/>
       <c r="C53" s="11" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D53" s="33">
         <v>1</v>
@@ -5937,7 +5931,7 @@
     <row r="54" spans="2:23" s="41" customFormat="1">
       <c r="B54" s="11"/>
       <c r="C54" s="11" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D54" s="33">
         <v>1</v>
@@ -5963,13 +5957,13 @@
     <row r="55" spans="2:23" s="41" customFormat="1">
       <c r="B55" s="11"/>
       <c r="C55" s="11" t="s">
-        <v>918</v>
-      </c>
-      <c r="D55" s="223">
+        <v>917</v>
+      </c>
+      <c r="D55" s="222">
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
@@ -6015,10 +6009,10 @@
     <row r="57" spans="2:23" s="41" customFormat="1">
       <c r="B57" s="11"/>
       <c r="C57" s="11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E57" s="26"/>
       <c r="G57" s="11"/>
@@ -6042,10 +6036,10 @@
     <row r="58" spans="2:23" s="41" customFormat="1">
       <c r="B58" s="11"/>
       <c r="C58" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E58" s="26"/>
       <c r="G58" s="11"/>
@@ -6069,7 +6063,7 @@
     <row r="59" spans="2:23" s="41" customFormat="1">
       <c r="B59" s="11"/>
       <c r="C59" s="11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D59" s="33">
         <v>234.7</v>
@@ -6098,7 +6092,7 @@
     <row r="60" spans="2:23" s="41" customFormat="1">
       <c r="B60" s="11"/>
       <c r="C60" s="11" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D60" s="33">
         <v>1</v>
@@ -6148,10 +6142,10 @@
     <row r="62" spans="2:23" s="41" customFormat="1">
       <c r="B62" s="11"/>
       <c r="C62" s="11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E62" s="26"/>
       <c r="G62" s="11"/>
@@ -6175,10 +6169,10 @@
     <row r="63" spans="2:23" s="41" customFormat="1">
       <c r="B63" s="11"/>
       <c r="C63" s="11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E63" s="26"/>
       <c r="G63" s="11"/>
@@ -6202,7 +6196,7 @@
     <row r="64" spans="2:23" s="41" customFormat="1">
       <c r="B64" s="11"/>
       <c r="C64" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D64" s="33">
         <v>157</v>
@@ -6230,7 +6224,7 @@
     </row>
     <row r="65" spans="2:5">
       <c r="C65" s="11" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D65" s="33">
         <v>1</v>
@@ -6238,10 +6232,10 @@
     </row>
     <row r="67" spans="2:5">
       <c r="C67" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="D67" s="33" t="s">
         <v>930</v>
-      </c>
-      <c r="D67" s="33" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="69" spans="2:5">
@@ -6470,7 +6464,7 @@
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="39" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>306</v>
@@ -6527,13 +6521,13 @@
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="C96" s="15" t="s">
         <v>967</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="D96" s="33" t="s">
         <v>968</v>
-      </c>
-      <c r="D96" s="33" t="s">
-        <v>969</v>
       </c>
       <c r="E96" s="26" t="s">
         <v>2</v>
@@ -6541,7 +6535,7 @@
     </row>
     <row r="97" spans="2:5">
       <c r="C97" s="11" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D97" s="33">
         <v>21</v>
@@ -6552,7 +6546,7 @@
     </row>
     <row r="98" spans="2:5">
       <c r="C98" s="11" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D98" s="33">
         <v>13</v>
@@ -6563,7 +6557,7 @@
     </row>
     <row r="99" spans="2:5">
       <c r="C99" s="11" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D99" s="33">
         <v>15.5</v>
@@ -6574,7 +6568,7 @@
     </row>
     <row r="100" spans="2:5">
       <c r="C100" s="11" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D100" s="33">
         <v>21</v>
@@ -6585,7 +6579,7 @@
     </row>
     <row r="102" spans="2:5">
       <c r="B102" s="11" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="103" spans="2:5">
@@ -6916,10 +6910,10 @@
       <c r="B140" s="39"/>
     </row>
     <row r="141" spans="2:9">
-      <c r="B141" s="242" t="s">
+      <c r="B141" s="241" t="s">
         <v>387</v>
       </c>
-      <c r="C141" s="242"/>
+      <c r="C141" s="241"/>
       <c r="D141" s="35"/>
       <c r="E141" s="28"/>
       <c r="F141" s="20"/>
@@ -6935,13 +6929,13 @@
     </row>
     <row r="142" spans="2:9" s="39" customFormat="1">
       <c r="B142" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="C142" s="36" t="s">
         <v>682</v>
       </c>
-      <c r="C142" s="36" t="s">
+      <c r="D142" s="37" t="s">
         <v>683</v>
-      </c>
-      <c r="D142" s="37" t="s">
-        <v>684</v>
       </c>
       <c r="E142" s="38"/>
       <c r="F142" s="36"/>
@@ -6949,7 +6943,7 @@
     <row r="143" spans="2:9" s="39" customFormat="1">
       <c r="B143" s="36"/>
       <c r="C143" s="36" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D143" s="37">
         <v>40</v>
@@ -6962,7 +6956,7 @@
     <row r="144" spans="2:9" s="39" customFormat="1">
       <c r="B144" s="36"/>
       <c r="C144" s="36" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D144" s="37">
         <v>1</v>
@@ -6975,7 +6969,7 @@
     <row r="145" spans="2:6" s="39" customFormat="1">
       <c r="B145" s="36"/>
       <c r="C145" s="36" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D145" s="37" t="s">
         <v>272</v>
@@ -6988,10 +6982,10 @@
     <row r="146" spans="2:6" s="39" customFormat="1">
       <c r="B146" s="36"/>
       <c r="C146" s="36" t="s">
+        <v>687</v>
+      </c>
+      <c r="D146" s="37" t="s">
         <v>688</v>
-      </c>
-      <c r="D146" s="37" t="s">
-        <v>689</v>
       </c>
       <c r="E146" s="38" t="s">
         <v>238</v>
@@ -7001,10 +6995,10 @@
     <row r="147" spans="2:6" s="39" customFormat="1">
       <c r="B147" s="36"/>
       <c r="C147" s="36" t="s">
+        <v>689</v>
+      </c>
+      <c r="D147" s="37" t="s">
         <v>690</v>
-      </c>
-      <c r="D147" s="37" t="s">
-        <v>691</v>
       </c>
       <c r="E147" s="38"/>
       <c r="F147" s="36"/>
@@ -7018,10 +7012,10 @@
     </row>
     <row r="149" spans="2:6" s="39" customFormat="1">
       <c r="B149" s="36" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C149" s="36" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D149" s="37">
         <v>6.7</v>
@@ -7034,7 +7028,7 @@
     <row r="150" spans="2:6" s="39" customFormat="1">
       <c r="B150" s="36"/>
       <c r="C150" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D150" s="37">
         <v>5.6</v>
@@ -7047,10 +7041,10 @@
     <row r="151" spans="2:6" s="39" customFormat="1">
       <c r="B151" s="36"/>
       <c r="C151" s="36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D151" s="37" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E151" s="38"/>
       <c r="F151" s="36"/>
@@ -7058,7 +7052,7 @@
     <row r="152" spans="2:6" s="39" customFormat="1">
       <c r="B152" s="36"/>
       <c r="C152" s="36" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D152" s="37">
         <v>1</v>
@@ -7221,7 +7215,7 @@
     </row>
     <row r="167" spans="2:5">
       <c r="C167" s="11" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D167" s="33" t="s">
         <v>355</v>
@@ -7229,10 +7223,10 @@
     </row>
     <row r="169" spans="2:5">
       <c r="B169" s="11" t="s">
+        <v>978</v>
+      </c>
+      <c r="C169" s="11" t="s">
         <v>979</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>980</v>
       </c>
       <c r="D169" s="33" t="s">
         <v>272</v>
@@ -7243,7 +7237,7 @@
     </row>
     <row r="170" spans="2:5">
       <c r="C170" s="11" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D170" s="33" t="s">
         <v>272</v>
@@ -7254,15 +7248,15 @@
     </row>
     <row r="171" spans="2:5">
       <c r="C171" s="11" t="s">
+        <v>981</v>
+      </c>
+      <c r="D171" s="33" t="s">
         <v>982</v>
-      </c>
-      <c r="D171" s="33" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="172" spans="2:5">
       <c r="C172" s="11" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D172" s="33" t="s">
         <v>272</v>
@@ -7276,12 +7270,12 @@
         <v>378</v>
       </c>
       <c r="D173" s="33" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="174" spans="2:5">
       <c r="C174" s="11" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D174" s="33">
         <v>0</v>
@@ -7292,15 +7286,15 @@
     </row>
     <row r="175" spans="2:5">
       <c r="C175" s="11" t="s">
+        <v>986</v>
+      </c>
+      <c r="D175" s="33" t="s">
         <v>987</v>
-      </c>
-      <c r="D175" s="33" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="176" spans="2:5">
       <c r="C176" s="11" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D176" s="33">
         <v>1.7</v>
@@ -7311,7 +7305,7 @@
     </row>
     <row r="177" spans="2:9">
       <c r="C177" s="11" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D177" s="33">
         <v>22</v>
@@ -7321,10 +7315,10 @@
       </c>
     </row>
     <row r="179" spans="2:9">
-      <c r="B179" s="242" t="s">
+      <c r="B179" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="C179" s="242"/>
+      <c r="C179" s="241"/>
       <c r="D179" s="35"/>
       <c r="E179" s="28"/>
       <c r="F179" s="20"/>
@@ -7340,13 +7334,13 @@
     </row>
     <row r="180" spans="2:9" s="39" customFormat="1">
       <c r="B180" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="C180" s="36" t="s">
         <v>682</v>
       </c>
-      <c r="C180" s="36" t="s">
+      <c r="D180" s="37" t="s">
         <v>683</v>
-      </c>
-      <c r="D180" s="37" t="s">
-        <v>684</v>
       </c>
       <c r="E180" s="38"/>
       <c r="F180" s="36"/>
@@ -7354,7 +7348,7 @@
     <row r="181" spans="2:9" s="39" customFormat="1">
       <c r="B181" s="36"/>
       <c r="C181" s="36" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D181" s="37">
         <v>100</v>
@@ -7367,7 +7361,7 @@
     <row r="182" spans="2:9" s="39" customFormat="1">
       <c r="B182" s="36"/>
       <c r="C182" s="36" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D182" s="37">
         <v>10</v>
@@ -7380,7 +7374,7 @@
     <row r="183" spans="2:9" s="39" customFormat="1">
       <c r="B183" s="36"/>
       <c r="C183" s="36" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D183" s="37" t="s">
         <v>272</v>
@@ -7393,10 +7387,10 @@
     <row r="184" spans="2:9" s="39" customFormat="1">
       <c r="B184" s="36"/>
       <c r="C184" s="36" t="s">
+        <v>687</v>
+      </c>
+      <c r="D184" s="37" t="s">
         <v>688</v>
-      </c>
-      <c r="D184" s="37" t="s">
-        <v>689</v>
       </c>
       <c r="E184" s="38" t="s">
         <v>238</v>
@@ -7406,10 +7400,10 @@
     <row r="185" spans="2:9" s="39" customFormat="1">
       <c r="B185" s="36"/>
       <c r="C185" s="36" t="s">
+        <v>689</v>
+      </c>
+      <c r="D185" s="37" t="s">
         <v>690</v>
-      </c>
-      <c r="D185" s="37" t="s">
-        <v>691</v>
       </c>
       <c r="E185" s="38"/>
       <c r="F185" s="36"/>
@@ -7423,10 +7417,10 @@
     </row>
     <row r="187" spans="2:9" s="39" customFormat="1">
       <c r="B187" s="36" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C187" s="36" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D187" s="37">
         <v>49</v>
@@ -7439,7 +7433,7 @@
     <row r="188" spans="2:9" s="39" customFormat="1">
       <c r="B188" s="36"/>
       <c r="C188" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D188" s="37">
         <v>11</v>
@@ -7452,10 +7446,10 @@
     <row r="189" spans="2:9" s="39" customFormat="1">
       <c r="B189" s="36"/>
       <c r="C189" s="36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D189" s="37" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E189" s="38"/>
       <c r="F189" s="36"/>
@@ -7463,7 +7457,7 @@
     <row r="190" spans="2:9" s="39" customFormat="1">
       <c r="B190" s="36"/>
       <c r="C190" s="36" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D190" s="37">
         <v>1</v>
@@ -7585,7 +7579,7 @@
         <v>354</v>
       </c>
       <c r="D201" s="33" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E201" s="26" t="s">
         <v>2</v>
@@ -7611,13 +7605,13 @@
       </c>
     </row>
     <row r="206" spans="2:9">
-      <c r="B206" s="242" t="s">
-        <v>977</v>
-      </c>
-      <c r="C206" s="242"/>
+      <c r="B206" s="241" t="s">
+        <v>976</v>
+      </c>
+      <c r="C206" s="241"/>
       <c r="D206" s="35"/>
       <c r="E206" s="28"/>
-      <c r="F206" s="237"/>
+      <c r="F206" s="236"/>
       <c r="G206" s="11" t="s">
         <v>407</v>
       </c>
@@ -7630,13 +7624,13 @@
     </row>
     <row r="207" spans="2:9">
       <c r="B207" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="C207" s="36" t="s">
         <v>682</v>
       </c>
-      <c r="C207" s="36" t="s">
+      <c r="D207" s="37" t="s">
         <v>683</v>
-      </c>
-      <c r="D207" s="37" t="s">
-        <v>684</v>
       </c>
       <c r="E207" s="38"/>
       <c r="F207" s="36"/>
@@ -7647,7 +7641,7 @@
     <row r="208" spans="2:9">
       <c r="B208" s="36"/>
       <c r="C208" s="36" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D208" s="37">
         <v>80</v>
@@ -7663,7 +7657,7 @@
     <row r="209" spans="2:9">
       <c r="B209" s="36"/>
       <c r="C209" s="36" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D209" s="37">
         <v>5</v>
@@ -7679,7 +7673,7 @@
     <row r="210" spans="2:9">
       <c r="B210" s="36"/>
       <c r="C210" s="36" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D210" s="37" t="s">
         <v>272</v>
@@ -7695,10 +7689,10 @@
     <row r="211" spans="2:9">
       <c r="B211" s="36"/>
       <c r="C211" s="36" t="s">
+        <v>687</v>
+      </c>
+      <c r="D211" s="37" t="s">
         <v>688</v>
-      </c>
-      <c r="D211" s="37" t="s">
-        <v>689</v>
       </c>
       <c r="E211" s="38" t="s">
         <v>238</v>
@@ -7707,10 +7701,10 @@
     <row r="212" spans="2:9">
       <c r="B212" s="36"/>
       <c r="C212" s="36" t="s">
+        <v>689</v>
+      </c>
+      <c r="D212" s="37" t="s">
         <v>690</v>
-      </c>
-      <c r="D212" s="37" t="s">
-        <v>691</v>
       </c>
       <c r="E212" s="38"/>
     </row>
@@ -7722,10 +7716,10 @@
     </row>
     <row r="214" spans="2:9">
       <c r="B214" s="36" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C214" s="36" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D214" s="37">
         <v>29.5</v>
@@ -7737,7 +7731,7 @@
     <row r="215" spans="2:9">
       <c r="B215" s="36"/>
       <c r="C215" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D215" s="37">
         <v>5.5</v>
@@ -7749,17 +7743,17 @@
     <row r="216" spans="2:9">
       <c r="B216" s="36"/>
       <c r="C216" s="36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D216" s="37" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E216" s="38"/>
     </row>
     <row r="217" spans="2:9">
       <c r="B217" s="36"/>
       <c r="C217" s="36" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D217" s="37">
         <v>1</v>
@@ -7774,10 +7768,10 @@
     </row>
     <row r="219" spans="2:9">
       <c r="B219" s="11" t="s">
+        <v>990</v>
+      </c>
+      <c r="C219" s="11" t="s">
         <v>991</v>
-      </c>
-      <c r="C219" s="11" t="s">
-        <v>992</v>
       </c>
       <c r="D219" s="33">
         <v>25.5</v>
@@ -7788,7 +7782,7 @@
     </row>
     <row r="220" spans="2:9">
       <c r="C220" s="11" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D220" s="33">
         <v>4</v>
@@ -7799,7 +7793,7 @@
     </row>
     <row r="221" spans="2:9">
       <c r="C221" s="11" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D221" s="33">
         <v>5.5</v>
@@ -7821,7 +7815,7 @@
     </row>
     <row r="223" spans="2:9">
       <c r="C223" s="11" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D223" s="33" t="s">
         <v>272</v>
@@ -7832,7 +7826,7 @@
     </row>
     <row r="224" spans="2:9">
       <c r="C224" s="11" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D224" s="33">
         <v>45735</v>
@@ -7843,7 +7837,7 @@
     </row>
     <row r="225" spans="3:5">
       <c r="C225" s="11" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D225" s="33">
         <v>0.2</v>
@@ -7854,7 +7848,7 @@
     </row>
     <row r="226" spans="3:5">
       <c r="C226" s="11" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D226" s="33">
         <v>0.125</v>
@@ -7903,7 +7897,7 @@
   <sheetData>
     <row r="1" spans="2:23" s="10" customFormat="1">
       <c r="B1" s="9" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="25"/>
@@ -7911,27 +7905,27 @@
     </row>
     <row r="3" spans="2:23">
       <c r="B3" s="11" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="2:23">
       <c r="C4" s="11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="6" spans="2:23">
-      <c r="B6" s="242" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C6" s="242"/>
+      <c r="B6" s="241" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C6" s="241"/>
       <c r="D6" s="35"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="220"/>
+      <c r="F6" s="219"/>
       <c r="G6" s="11" t="s">
         <v>407</v>
       </c>
@@ -7941,31 +7935,31 @@
       <c r="I6" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="S6" s="242" t="s">
+      <c r="S6" s="241" t="s">
         <v>522</v>
       </c>
-      <c r="T6" s="242"/>
+      <c r="T6" s="241"/>
       <c r="U6" s="35"/>
       <c r="V6" s="28"/>
-      <c r="W6" s="220"/>
+      <c r="W6" s="219"/>
     </row>
     <row r="7" spans="2:23" s="39" customFormat="1">
       <c r="B7" s="36"/>
       <c r="C7" s="11" t="s">
+        <v>955</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>956</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>957</v>
       </c>
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="2:23" s="39" customFormat="1">
       <c r="B8" s="36"/>
       <c r="C8" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>958</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="F8" s="36"/>
     </row>
@@ -7988,8 +7982,8 @@
       <c r="F10" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="G10" s="225" t="s">
-        <v>932</v>
+      <c r="G10" s="224" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="11" spans="2:23" s="39" customFormat="1">
@@ -8209,10 +8203,10 @@
     </row>
     <row r="25" spans="2:23">
       <c r="B25" s="39" t="s">
+        <v>657</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>658</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>659</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>272</v>
@@ -8224,7 +8218,7 @@
     <row r="26" spans="2:23">
       <c r="B26" s="39"/>
       <c r="C26" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D26" s="33">
         <v>1</v>
@@ -8235,19 +8229,19 @@
     </row>
     <row r="28" spans="2:23">
       <c r="B28" s="39" t="s">
+        <v>660</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="33" t="s">
         <v>662</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="29" spans="2:23">
       <c r="B29" s="39"/>
       <c r="C29" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>272</v>
@@ -8256,7 +8250,7 @@
     <row r="30" spans="2:23">
       <c r="B30" s="39"/>
       <c r="C30" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D30" s="33">
         <v>0.3</v>
@@ -8265,7 +8259,7 @@
     <row r="31" spans="2:23">
       <c r="B31" s="39"/>
       <c r="C31" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D31" s="33">
         <v>7</v>
@@ -8277,7 +8271,7 @@
     <row r="32" spans="2:23">
       <c r="B32" s="39"/>
       <c r="C32" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D32" s="33">
         <v>8.0000000000000002E-3</v>
@@ -8289,7 +8283,7 @@
     <row r="33" spans="2:23">
       <c r="B33" s="39"/>
       <c r="C33" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D33" s="33">
         <v>12.8</v>
@@ -8301,7 +8295,7 @@
     <row r="34" spans="2:23">
       <c r="B34" s="39"/>
       <c r="C34" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D34" s="33">
         <v>8.0000000000000002E-3</v>
@@ -8313,7 +8307,7 @@
     <row r="35" spans="2:23">
       <c r="B35" s="39"/>
       <c r="C35" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D35" s="33">
         <v>12.8</v>
@@ -8325,7 +8319,7 @@
     <row r="36" spans="2:23">
       <c r="B36" s="39"/>
       <c r="C36" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D36" s="33">
         <v>12.8</v>
@@ -8337,16 +8331,16 @@
     <row r="37" spans="2:23">
       <c r="B37" s="39"/>
       <c r="C37" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="38" spans="2:23">
       <c r="B38" s="39"/>
       <c r="C38" s="11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>268</v>
@@ -8355,7 +8349,7 @@
     <row r="39" spans="2:23">
       <c r="B39" s="39"/>
       <c r="C39" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D39" s="33" t="s">
         <v>268</v>
@@ -8364,7 +8358,7 @@
     <row r="40" spans="2:23">
       <c r="B40" s="39"/>
       <c r="C40" s="11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D40" s="33">
         <v>8.5000000000000006E-3</v>
@@ -8376,7 +8370,7 @@
     <row r="41" spans="2:23">
       <c r="B41" s="39"/>
       <c r="C41" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D41" s="33">
         <v>8.0000000000000002E-3</v>
@@ -8391,7 +8385,7 @@
         <v>256</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="43" spans="2:23">
@@ -8410,7 +8404,7 @@
         <v>262</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="45" spans="2:23">
@@ -8426,16 +8420,16 @@
     </row>
     <row r="46" spans="2:23">
       <c r="C46" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="47" spans="2:23" s="41" customFormat="1">
       <c r="B47" s="11"/>
       <c r="C47" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D47" s="33">
         <v>1</v>
@@ -8485,7 +8479,7 @@
     <row r="49" spans="2:23" s="41" customFormat="1">
       <c r="B49" s="11"/>
       <c r="C49" s="11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D49" s="33">
         <v>0.01</v>
@@ -8514,7 +8508,7 @@
     <row r="50" spans="2:23" s="41" customFormat="1">
       <c r="B50" s="11"/>
       <c r="C50" s="11" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D50" s="33">
         <v>1</v>
@@ -8541,13 +8535,13 @@
     <row r="51" spans="2:23" s="41" customFormat="1">
       <c r="B51" s="11"/>
       <c r="C51" s="11" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D51" s="223">
+        <v>1000</v>
+      </c>
+      <c r="D51" s="222">
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
@@ -8593,7 +8587,7 @@
     <row r="53" spans="2:23" s="41" customFormat="1">
       <c r="B53" s="11"/>
       <c r="C53" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D53" s="33">
         <v>0.01</v>
@@ -8622,7 +8616,7 @@
     <row r="54" spans="2:23" s="41" customFormat="1">
       <c r="B54" s="11"/>
       <c r="C54" s="11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D54" s="33">
         <v>1</v>
@@ -8649,7 +8643,7 @@
     <row r="55" spans="2:23" s="41" customFormat="1">
       <c r="B55" s="11"/>
       <c r="C55" s="11" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D55" s="33">
         <v>1</v>
@@ -8675,13 +8669,13 @@
     <row r="56" spans="2:23" s="41" customFormat="1">
       <c r="B56" s="11"/>
       <c r="C56" s="11" t="s">
-        <v>918</v>
-      </c>
-      <c r="D56" s="223">
+        <v>917</v>
+      </c>
+      <c r="D56" s="222">
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
@@ -8727,10 +8721,10 @@
     <row r="58" spans="2:23" s="41" customFormat="1">
       <c r="B58" s="11"/>
       <c r="C58" s="11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E58" s="26"/>
       <c r="G58" s="11"/>
@@ -8754,10 +8748,10 @@
     <row r="59" spans="2:23" s="41" customFormat="1">
       <c r="B59" s="11"/>
       <c r="C59" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E59" s="26"/>
       <c r="G59" s="11"/>
@@ -8781,7 +8775,7 @@
     <row r="60" spans="2:23" s="41" customFormat="1">
       <c r="B60" s="11"/>
       <c r="C60" s="11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D60" s="33">
         <v>234.7</v>
@@ -8810,7 +8804,7 @@
     <row r="61" spans="2:23" s="41" customFormat="1">
       <c r="B61" s="11"/>
       <c r="C61" s="11" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D61" s="33">
         <v>1</v>
@@ -8860,10 +8854,10 @@
     <row r="63" spans="2:23" s="41" customFormat="1">
       <c r="B63" s="11"/>
       <c r="C63" s="11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E63" s="26"/>
       <c r="G63" s="11"/>
@@ -8887,10 +8881,10 @@
     <row r="64" spans="2:23" s="41" customFormat="1">
       <c r="B64" s="11"/>
       <c r="C64" s="11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E64" s="26"/>
       <c r="G64" s="11"/>
@@ -8914,7 +8908,7 @@
     <row r="65" spans="2:23" s="41" customFormat="1">
       <c r="B65" s="39"/>
       <c r="C65" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D65" s="33">
         <v>157</v>
@@ -8943,7 +8937,7 @@
     <row r="66" spans="2:23">
       <c r="B66" s="39"/>
       <c r="C66" s="11" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D66" s="33">
         <v>1</v>
@@ -8955,10 +8949,10 @@
     <row r="68" spans="2:23">
       <c r="B68" s="39"/>
       <c r="C68" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="D68" s="33" t="s">
         <v>930</v>
-      </c>
-      <c r="D68" s="33" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="69" spans="2:23">
@@ -9614,7 +9608,7 @@
         <v>310</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E94" s="26"/>
       <c r="G94" s="11"/>
@@ -9859,13 +9853,13 @@
     </row>
     <row r="104" spans="2:23">
       <c r="B104" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="C104" s="15" t="s">
         <v>967</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="D104" s="33" t="s">
         <v>968</v>
-      </c>
-      <c r="D104" s="33" t="s">
-        <v>969</v>
       </c>
       <c r="E104" s="26" t="s">
         <v>2</v>
@@ -10027,7 +10021,7 @@
         <v>289</v>
       </c>
       <c r="D111" s="33" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E111" s="26" t="s">
         <v>2</v>
@@ -10160,13 +10154,13 @@
     </row>
     <row r="116" spans="2:23" s="41" customFormat="1">
       <c r="B116" s="39" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C116" s="11" t="s">
         <v>1004</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="D116" s="33" t="s">
         <v>1005</v>
-      </c>
-      <c r="D116" s="33" t="s">
-        <v>1006</v>
       </c>
       <c r="E116" s="26" t="s">
         <v>2</v>
@@ -10195,7 +10189,7 @@
         <v>295</v>
       </c>
       <c r="D117" s="41" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E117" s="41" t="s">
         <v>2</v>
@@ -10229,7 +10223,7 @@
       <c r="E118" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F118" s="224">
+      <c r="F118" s="223">
         <v>0.5</v>
       </c>
       <c r="G118" s="11"/>
@@ -10252,7 +10246,7 @@
     </row>
     <row r="119" spans="2:23" s="41" customFormat="1">
       <c r="B119" s="39"/>
-      <c r="F119" s="224">
+      <c r="F119" s="223">
         <v>40</v>
       </c>
       <c r="G119" s="11"/>
@@ -11042,13 +11036,13 @@
       <c r="B153" s="39"/>
     </row>
     <row r="154" spans="2:23">
-      <c r="B154" s="242" t="s">
+      <c r="B154" s="241" t="s">
         <v>387</v>
       </c>
-      <c r="C154" s="242"/>
+      <c r="C154" s="241"/>
       <c r="D154" s="35"/>
       <c r="E154" s="28"/>
-      <c r="F154" s="220"/>
+      <c r="F154" s="219"/>
       <c r="G154" s="11" t="s">
         <v>408</v>
       </c>
@@ -11061,13 +11055,13 @@
     </row>
     <row r="155" spans="2:23" s="39" customFormat="1">
       <c r="B155" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="C155" s="36" t="s">
         <v>682</v>
       </c>
-      <c r="C155" s="36" t="s">
+      <c r="D155" s="37" t="s">
         <v>683</v>
-      </c>
-      <c r="D155" s="37" t="s">
-        <v>684</v>
       </c>
       <c r="E155" s="38"/>
       <c r="F155" s="36"/>
@@ -11075,7 +11069,7 @@
     <row r="156" spans="2:23" s="39" customFormat="1">
       <c r="B156" s="36"/>
       <c r="C156" s="36" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D156" s="37">
         <v>40</v>
@@ -11088,7 +11082,7 @@
     <row r="157" spans="2:23" s="39" customFormat="1">
       <c r="B157" s="36"/>
       <c r="C157" s="36" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D157" s="37">
         <v>1</v>
@@ -11101,7 +11095,7 @@
     <row r="158" spans="2:23" s="39" customFormat="1">
       <c r="B158" s="36"/>
       <c r="C158" s="36" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D158" s="37" t="s">
         <v>272</v>
@@ -11114,10 +11108,10 @@
     <row r="159" spans="2:23" s="39" customFormat="1">
       <c r="B159" s="36"/>
       <c r="C159" s="36" t="s">
+        <v>687</v>
+      </c>
+      <c r="D159" s="37" t="s">
         <v>688</v>
-      </c>
-      <c r="D159" s="37" t="s">
-        <v>689</v>
       </c>
       <c r="E159" s="38" t="s">
         <v>238</v>
@@ -11127,10 +11121,10 @@
     <row r="160" spans="2:23" s="39" customFormat="1">
       <c r="B160" s="36"/>
       <c r="C160" s="36" t="s">
+        <v>689</v>
+      </c>
+      <c r="D160" s="37" t="s">
         <v>690</v>
-      </c>
-      <c r="D160" s="37" t="s">
-        <v>691</v>
       </c>
       <c r="E160" s="38"/>
       <c r="F160" s="36"/>
@@ -11144,10 +11138,10 @@
     </row>
     <row r="162" spans="2:6" s="39" customFormat="1">
       <c r="B162" s="36" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C162" s="36" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D162" s="37">
         <v>6.67</v>
@@ -11160,7 +11154,7 @@
     <row r="163" spans="2:6" s="39" customFormat="1">
       <c r="B163" s="36"/>
       <c r="C163" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D163" s="37">
         <v>5.6</v>
@@ -11173,10 +11167,10 @@
     <row r="164" spans="2:6" s="39" customFormat="1">
       <c r="B164" s="36"/>
       <c r="C164" s="36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D164" s="37" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E164" s="38"/>
       <c r="F164" s="36"/>
@@ -11184,7 +11178,7 @@
     <row r="165" spans="2:6" s="39" customFormat="1">
       <c r="B165" s="36"/>
       <c r="C165" s="36" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D165" s="37">
         <v>1</v>
@@ -11352,13 +11346,13 @@
       </c>
     </row>
     <row r="181" spans="2:9">
-      <c r="B181" s="242" t="s">
+      <c r="B181" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="C181" s="242"/>
+      <c r="C181" s="241"/>
       <c r="D181" s="35"/>
       <c r="E181" s="28"/>
-      <c r="F181" s="220"/>
+      <c r="F181" s="219"/>
       <c r="G181" s="11" t="s">
         <v>407</v>
       </c>
@@ -11371,13 +11365,13 @@
     </row>
     <row r="182" spans="2:9" s="39" customFormat="1">
       <c r="B182" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="C182" s="36" t="s">
         <v>682</v>
       </c>
-      <c r="C182" s="36" t="s">
+      <c r="D182" s="37" t="s">
         <v>683</v>
-      </c>
-      <c r="D182" s="37" t="s">
-        <v>684</v>
       </c>
       <c r="E182" s="38"/>
       <c r="F182" s="36"/>
@@ -11385,7 +11379,7 @@
     <row r="183" spans="2:9" s="39" customFormat="1">
       <c r="B183" s="36"/>
       <c r="C183" s="36" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D183" s="37">
         <v>100</v>
@@ -11398,7 +11392,7 @@
     <row r="184" spans="2:9" s="39" customFormat="1">
       <c r="B184" s="36"/>
       <c r="C184" s="36" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D184" s="37">
         <v>10</v>
@@ -11411,7 +11405,7 @@
     <row r="185" spans="2:9" s="39" customFormat="1">
       <c r="B185" s="36"/>
       <c r="C185" s="36" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D185" s="37" t="s">
         <v>272</v>
@@ -11424,10 +11418,10 @@
     <row r="186" spans="2:9" s="39" customFormat="1">
       <c r="B186" s="36"/>
       <c r="C186" s="36" t="s">
+        <v>687</v>
+      </c>
+      <c r="D186" s="37" t="s">
         <v>688</v>
-      </c>
-      <c r="D186" s="37" t="s">
-        <v>689</v>
       </c>
       <c r="E186" s="38" t="s">
         <v>238</v>
@@ -11437,10 +11431,10 @@
     <row r="187" spans="2:9" s="39" customFormat="1">
       <c r="B187" s="36"/>
       <c r="C187" s="36" t="s">
+        <v>689</v>
+      </c>
+      <c r="D187" s="37" t="s">
         <v>690</v>
-      </c>
-      <c r="D187" s="37" t="s">
-        <v>691</v>
       </c>
       <c r="E187" s="38"/>
       <c r="F187" s="36"/>
@@ -11454,10 +11448,10 @@
     </row>
     <row r="189" spans="2:9" s="39" customFormat="1">
       <c r="B189" s="36" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C189" s="36" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D189" s="37">
         <v>50</v>
@@ -11470,7 +11464,7 @@
     <row r="190" spans="2:9" s="39" customFormat="1">
       <c r="B190" s="36"/>
       <c r="C190" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D190" s="37">
         <v>11</v>
@@ -11483,10 +11477,10 @@
     <row r="191" spans="2:9" s="39" customFormat="1">
       <c r="B191" s="36"/>
       <c r="C191" s="36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D191" s="37" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E191" s="38"/>
       <c r="F191" s="36"/>
@@ -11494,7 +11488,7 @@
     <row r="192" spans="2:9" s="39" customFormat="1">
       <c r="B192" s="36"/>
       <c r="C192" s="36" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D192" s="37">
         <v>1</v>
@@ -11616,7 +11610,7 @@
         <v>354</v>
       </c>
       <c r="D203" s="33" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E203" s="26" t="s">
         <v>2</v>
@@ -11642,13 +11636,13 @@
       </c>
     </row>
     <row r="207" spans="2:9">
-      <c r="B207" s="242" t="s">
-        <v>977</v>
-      </c>
-      <c r="C207" s="242"/>
+      <c r="B207" s="241" t="s">
+        <v>976</v>
+      </c>
+      <c r="C207" s="241"/>
       <c r="D207" s="35"/>
       <c r="E207" s="28"/>
-      <c r="F207" s="237"/>
+      <c r="F207" s="236"/>
       <c r="G207" s="11" t="s">
         <v>407</v>
       </c>
@@ -11661,13 +11655,13 @@
     </row>
     <row r="208" spans="2:9">
       <c r="B208" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="C208" s="36" t="s">
         <v>682</v>
       </c>
-      <c r="C208" s="36" t="s">
+      <c r="D208" s="37" t="s">
         <v>683</v>
-      </c>
-      <c r="D208" s="37" t="s">
-        <v>684</v>
       </c>
       <c r="E208" s="38"/>
       <c r="F208" s="36"/>
@@ -11678,7 +11672,7 @@
     <row r="209" spans="2:9">
       <c r="B209" s="36"/>
       <c r="C209" s="36" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D209" s="37">
         <v>80</v>
@@ -11694,7 +11688,7 @@
     <row r="210" spans="2:9">
       <c r="B210" s="36"/>
       <c r="C210" s="36" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D210" s="37">
         <v>5</v>
@@ -11710,7 +11704,7 @@
     <row r="211" spans="2:9">
       <c r="B211" s="36"/>
       <c r="C211" s="36" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D211" s="37" t="s">
         <v>272</v>
@@ -11726,10 +11720,10 @@
     <row r="212" spans="2:9">
       <c r="B212" s="36"/>
       <c r="C212" s="36" t="s">
+        <v>687</v>
+      </c>
+      <c r="D212" s="37" t="s">
         <v>688</v>
-      </c>
-      <c r="D212" s="37" t="s">
-        <v>689</v>
       </c>
       <c r="E212" s="38" t="s">
         <v>238</v>
@@ -11738,10 +11732,10 @@
     <row r="213" spans="2:9">
       <c r="B213" s="36"/>
       <c r="C213" s="36" t="s">
+        <v>689</v>
+      </c>
+      <c r="D213" s="37" t="s">
         <v>690</v>
-      </c>
-      <c r="D213" s="37" t="s">
-        <v>691</v>
       </c>
       <c r="E213" s="38"/>
     </row>
@@ -11753,10 +11747,10 @@
     </row>
     <row r="215" spans="2:9">
       <c r="B215" s="36" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C215" s="36" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D215" s="37">
         <v>29.5</v>
@@ -11768,7 +11762,7 @@
     <row r="216" spans="2:9">
       <c r="B216" s="36"/>
       <c r="C216" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D216" s="37">
         <v>5.5</v>
@@ -11780,17 +11774,17 @@
     <row r="217" spans="2:9">
       <c r="B217" s="36"/>
       <c r="C217" s="36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D217" s="37" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E217" s="38"/>
     </row>
     <row r="218" spans="2:9">
       <c r="B218" s="36"/>
       <c r="C218" s="36" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D218" s="37">
         <v>6</v>
@@ -11805,10 +11799,10 @@
     </row>
     <row r="220" spans="2:9">
       <c r="B220" s="11" t="s">
+        <v>990</v>
+      </c>
+      <c r="C220" s="11" t="s">
         <v>991</v>
-      </c>
-      <c r="C220" s="11" t="s">
-        <v>992</v>
       </c>
       <c r="D220" s="33">
         <v>25.5</v>
@@ -11819,7 +11813,7 @@
     </row>
     <row r="221" spans="2:9">
       <c r="C221" s="11" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D221" s="33">
         <v>4</v>
@@ -11830,7 +11824,7 @@
     </row>
     <row r="222" spans="2:9">
       <c r="C222" s="11" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D222" s="33">
         <v>5.5</v>
@@ -11852,7 +11846,7 @@
     </row>
     <row r="224" spans="2:9">
       <c r="C224" s="11" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D224" s="33" t="s">
         <v>272</v>
@@ -11863,7 +11857,7 @@
     </row>
     <row r="225" spans="3:5">
       <c r="C225" s="11" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D225" s="33">
         <v>63782</v>
@@ -11874,7 +11868,7 @@
     </row>
     <row r="226" spans="3:5">
       <c r="C226" s="11" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D226" s="33">
         <v>0.2</v>
@@ -11885,7 +11879,7 @@
     </row>
     <row r="227" spans="3:5">
       <c r="C227" s="11" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D227" s="33">
         <v>0.125</v>
@@ -11934,7 +11928,7 @@
   <sheetData>
     <row r="1" spans="2:23" s="10" customFormat="1">
       <c r="B1" s="9" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="25"/>
@@ -11942,24 +11936,24 @@
     </row>
     <row r="3" spans="2:23">
       <c r="B3" s="11" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="2:23">
       <c r="C4" s="11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="6" spans="2:23">
-      <c r="B6" s="242" t="s">
-        <v>641</v>
-      </c>
-      <c r="C6" s="242"/>
+      <c r="B6" s="241" t="s">
+        <v>640</v>
+      </c>
+      <c r="C6" s="241"/>
       <c r="D6" s="35"/>
       <c r="E6" s="28"/>
       <c r="F6" s="128"/>
@@ -11972,10 +11966,10 @@
       <c r="I6" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="S6" s="242" t="s">
+      <c r="S6" s="241" t="s">
         <v>522</v>
       </c>
-      <c r="T6" s="242"/>
+      <c r="T6" s="241"/>
       <c r="U6" s="35"/>
       <c r="V6" s="28"/>
       <c r="W6" s="128"/>
@@ -11983,20 +11977,20 @@
     <row r="7" spans="2:23" s="39" customFormat="1">
       <c r="B7" s="36"/>
       <c r="C7" s="11" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="2:23" s="39" customFormat="1">
       <c r="B8" s="36"/>
       <c r="C8" s="11" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F8" s="36"/>
     </row>
@@ -12026,7 +12020,7 @@
         <v>362</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="36"/>
@@ -12063,7 +12057,7 @@
         <v>365</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>367</v>
@@ -12112,7 +12106,7 @@
         <v>371</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="36"/>
@@ -12220,19 +12214,19 @@
     </row>
     <row r="24" spans="2:23">
       <c r="B24" s="39" t="s">
+        <v>660</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>662</v>
-      </c>
       <c r="D24" s="33" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="25" spans="2:23">
       <c r="B25" s="39"/>
       <c r="C25" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>272</v>
@@ -12241,7 +12235,7 @@
     <row r="26" spans="2:23">
       <c r="B26" s="39"/>
       <c r="C26" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D26" s="33">
         <v>1</v>
@@ -12250,7 +12244,7 @@
     <row r="27" spans="2:23">
       <c r="B27" s="39"/>
       <c r="C27" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D27" s="33">
         <v>7</v>
@@ -12262,7 +12256,7 @@
     <row r="28" spans="2:23">
       <c r="B28" s="39"/>
       <c r="C28" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D28" s="33">
         <v>8.0000000000000002E-3</v>
@@ -12274,7 +12268,7 @@
     <row r="29" spans="2:23">
       <c r="B29" s="39"/>
       <c r="C29" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D29" s="33">
         <v>12.8</v>
@@ -12286,7 +12280,7 @@
     <row r="30" spans="2:23">
       <c r="B30" s="39"/>
       <c r="C30" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D30" s="33">
         <v>8.0000000000000002E-3</v>
@@ -12298,7 +12292,7 @@
     <row r="31" spans="2:23">
       <c r="B31" s="39"/>
       <c r="C31" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D31" s="33">
         <v>12.5</v>
@@ -12310,7 +12304,7 @@
     <row r="32" spans="2:23">
       <c r="B32" s="39"/>
       <c r="C32" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D32" s="33">
         <v>21</v>
@@ -12322,16 +12316,16 @@
     <row r="33" spans="2:23">
       <c r="B33" s="39"/>
       <c r="C33" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="34" spans="2:23">
       <c r="B34" s="39"/>
       <c r="C34" s="11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D34" s="33" t="s">
         <v>585</v>
@@ -12340,7 +12334,7 @@
     <row r="35" spans="2:23">
       <c r="B35" s="39"/>
       <c r="C35" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D35" s="33" t="s">
         <v>585</v>
@@ -12349,7 +12343,7 @@
     <row r="36" spans="2:23">
       <c r="B36" s="39"/>
       <c r="C36" s="11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D36" s="33">
         <v>8.5000000000000006E-3</v>
@@ -12361,7 +12355,7 @@
     <row r="37" spans="2:23">
       <c r="B37" s="39"/>
       <c r="C37" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D37" s="33">
         <v>8.0000000000000002E-3</v>
@@ -12376,7 +12370,7 @@
         <v>256</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="39" spans="2:23">
@@ -12397,7 +12391,7 @@
         <v>262</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="41" spans="2:23">
@@ -12415,16 +12409,16 @@
     <row r="42" spans="2:23">
       <c r="B42" s="39"/>
       <c r="C42" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="43" spans="2:23">
       <c r="B43" s="39"/>
       <c r="C43" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D43" s="33">
         <v>1</v>
@@ -12435,10 +12429,10 @@
     </row>
     <row r="45" spans="2:23" s="41" customFormat="1">
       <c r="B45" s="39" t="s">
+        <v>642</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>643</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>644</v>
       </c>
       <c r="D45" s="33" t="s">
         <v>272</v>
@@ -12467,7 +12461,7 @@
     <row r="46" spans="2:23" s="41" customFormat="1">
       <c r="B46" s="39"/>
       <c r="C46" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D46" s="33" t="s">
         <v>272</v>
@@ -12494,7 +12488,7 @@
     <row r="47" spans="2:23" s="41" customFormat="1">
       <c r="B47" s="39"/>
       <c r="C47" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D47" s="33">
         <v>3</v>
@@ -12521,7 +12515,7 @@
     <row r="48" spans="2:23" s="41" customFormat="1">
       <c r="B48" s="39"/>
       <c r="C48" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D48" s="33" t="s">
         <v>272</v>
@@ -12550,7 +12544,7 @@
     <row r="49" spans="2:23" s="41" customFormat="1">
       <c r="B49" s="39"/>
       <c r="C49" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D49" s="33">
         <v>773.3</v>
@@ -12579,7 +12573,7 @@
     <row r="50" spans="2:23" s="41" customFormat="1">
       <c r="B50" s="39"/>
       <c r="C50" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D50" s="33" t="s">
         <v>272</v>
@@ -12608,7 +12602,7 @@
     <row r="51" spans="2:23" s="41" customFormat="1">
       <c r="B51" s="39"/>
       <c r="C51" s="11" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D51" s="33">
         <v>0.69</v>
@@ -12635,7 +12629,7 @@
     <row r="52" spans="2:23" s="41" customFormat="1">
       <c r="B52" s="39"/>
       <c r="C52" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D52" s="33">
         <v>3</v>
@@ -12662,7 +12656,7 @@
     <row r="53" spans="2:23" s="41" customFormat="1">
       <c r="B53" s="39"/>
       <c r="C53" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D53" s="33" t="s">
         <v>272</v>
@@ -12691,7 +12685,7 @@
     <row r="54" spans="2:23" s="41" customFormat="1">
       <c r="B54" s="39"/>
       <c r="C54" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D54" s="33">
         <v>-25</v>
@@ -12722,10 +12716,10 @@
     </row>
     <row r="56" spans="2:23" s="41" customFormat="1">
       <c r="B56" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>652</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>653</v>
       </c>
       <c r="D56" s="33" t="s">
         <v>272</v>
@@ -12754,7 +12748,7 @@
     <row r="57" spans="2:23" s="41" customFormat="1">
       <c r="B57" s="39"/>
       <c r="C57" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D57" s="33">
         <v>3.6</v>
@@ -12781,7 +12775,7 @@
     <row r="58" spans="2:23" s="41" customFormat="1">
       <c r="B58" s="39"/>
       <c r="C58" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D58" s="33" t="s">
         <v>272</v>
@@ -12810,7 +12804,7 @@
     <row r="59" spans="2:23" s="41" customFormat="1">
       <c r="B59" s="39"/>
       <c r="C59" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D59" s="33">
         <v>773.3</v>
@@ -12839,7 +12833,7 @@
     <row r="60" spans="2:23" s="41" customFormat="1">
       <c r="B60" s="39"/>
       <c r="C60" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D60" s="33">
         <v>-8</v>
@@ -12868,7 +12862,7 @@
     <row r="61" spans="2:23" s="41" customFormat="1">
       <c r="B61" s="39"/>
       <c r="C61" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D61" s="33">
         <v>5</v>
@@ -12919,7 +12913,7 @@
     </row>
     <row r="63" spans="2:23" s="41" customFormat="1">
       <c r="B63" s="39" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>279</v>
@@ -12951,7 +12945,7 @@
     <row r="64" spans="2:23" s="41" customFormat="1">
       <c r="B64" s="39"/>
       <c r="C64" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D64" s="33">
         <v>1</v>
@@ -13011,7 +13005,7 @@
     </row>
     <row r="67" spans="2:23">
       <c r="B67" s="39" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>306</v>
@@ -13064,13 +13058,13 @@
     </row>
     <row r="72" spans="2:23">
       <c r="B72" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="C72" s="15" t="s">
         <v>967</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="D72" s="33" t="s">
         <v>968</v>
-      </c>
-      <c r="D72" s="33" t="s">
-        <v>969</v>
       </c>
       <c r="E72" s="26" t="s">
         <v>2</v>
@@ -13078,7 +13072,7 @@
     </row>
     <row r="73" spans="2:23">
       <c r="C73" s="11" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D73" s="33">
         <v>21</v>
@@ -13089,7 +13083,7 @@
     </row>
     <row r="74" spans="2:23">
       <c r="C74" s="11" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D74" s="33">
         <v>13</v>
@@ -13100,7 +13094,7 @@
     </row>
     <row r="75" spans="2:23">
       <c r="C75" s="11" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D75" s="33">
         <v>15.5</v>
@@ -13111,7 +13105,7 @@
     </row>
     <row r="76" spans="2:23">
       <c r="C76" s="11" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D76" s="33">
         <v>21</v>
@@ -13122,7 +13116,7 @@
     </row>
     <row r="78" spans="2:23" s="41" customFormat="1">
       <c r="B78" s="39" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>281</v>
@@ -13860,10 +13854,10 @@
       <c r="F3" s="41"/>
     </row>
     <row r="4" spans="2:6" s="11" customFormat="1">
-      <c r="B4" s="250" t="s">
+      <c r="B4" s="249" t="s">
         <v>390</v>
       </c>
-      <c r="C4" s="250"/>
+      <c r="C4" s="249"/>
       <c r="D4" s="35"/>
       <c r="E4" s="28"/>
       <c r="F4" s="20"/>
@@ -13953,10 +13947,10 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="250" t="s">
+      <c r="B15" s="249" t="s">
         <v>399</v>
       </c>
-      <c r="C15" s="250"/>
+      <c r="C15" s="249"/>
       <c r="D15" s="35"/>
       <c r="E15" s="28"/>
       <c r="F15" s="20"/>
@@ -14184,7 +14178,7 @@
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -14251,10 +14245,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8068AA-70EE-4706-9949-0A2EC7DD63FE}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A2:Q208"/>
+  <dimension ref="A2:Q207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F158" sqref="F158"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -14278,17 +14272,17 @@
       <c r="F2" s="144"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="252" t="s">
         <v>611</v>
       </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
       <c r="L3" s="139"/>
       <c r="M3" s="139"/>
     </row>
@@ -14321,17 +14315,17 @@
         <f>3*16</f>
         <v>48</v>
       </c>
-      <c r="B6" s="213" t="s">
+      <c r="B6" s="212" t="s">
         <v>588</v>
       </c>
       <c r="C6" s="143" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D6" s="143" t="s">
         <v>1023</v>
       </c>
-      <c r="D6" s="143" t="s">
+      <c r="E6" s="143" t="s">
         <v>1024</v>
-      </c>
-      <c r="E6" s="143" t="s">
-        <v>1025</v>
       </c>
       <c r="F6" s="148"/>
       <c r="H6" s="139"/>
@@ -14341,16 +14335,16 @@
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="147"/>
-      <c r="B7" s="214" t="s">
-        <v>938</v>
-      </c>
-      <c r="C7" s="215">
+      <c r="B7" s="213" t="s">
+        <v>937</v>
+      </c>
+      <c r="C7" s="214">
         <v>1</v>
       </c>
-      <c r="D7" s="215">
-        <v>2</v>
-      </c>
-      <c r="E7" s="215">
+      <c r="D7" s="214">
+        <v>2</v>
+      </c>
+      <c r="E7" s="214">
         <v>3</v>
       </c>
       <c r="F7" s="148"/>
@@ -14368,9 +14362,9 @@
         <v>579</v>
       </c>
       <c r="D8" s="130" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E8" s="239" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E8" s="238" t="s">
         <v>580</v>
       </c>
       <c r="F8" s="148"/>
@@ -14417,7 +14411,7 @@
     <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="A11" s="147"/>
       <c r="B11" s="152" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C11" s="153" t="s">
         <v>584</v>
@@ -14543,7 +14537,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="160" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D18" s="139"/>
       <c r="E18" s="139"/>
@@ -14600,7 +14594,7 @@
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="147"/>
-      <c r="B22" s="251" t="s">
+      <c r="B22" s="250" t="s">
         <v>600</v>
       </c>
       <c r="C22" s="138" t="s">
@@ -14618,9 +14612,9 @@
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="A23" s="147"/>
-      <c r="B23" s="251"/>
+      <c r="B23" s="250"/>
       <c r="C23" s="136" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D23" s="141"/>
       <c r="E23" s="141"/>
@@ -14634,9 +14628,9 @@
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1">
       <c r="A24" s="147"/>
-      <c r="B24" s="251"/>
+      <c r="B24" s="250"/>
       <c r="C24" s="136" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D24" s="141"/>
       <c r="E24" s="141"/>
@@ -14652,9 +14646,9 @@
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1">
       <c r="A25" s="147"/>
-      <c r="B25" s="251"/>
+      <c r="B25" s="250"/>
       <c r="C25" s="136" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D25" s="141"/>
       <c r="E25" s="141"/>
@@ -14668,9 +14662,9 @@
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="147"/>
-      <c r="B26" s="251"/>
+      <c r="B26" s="250"/>
       <c r="C26" s="136" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D26" s="141"/>
       <c r="E26" s="141"/>
@@ -14684,9 +14678,9 @@
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1">
       <c r="A27" s="147"/>
-      <c r="B27" s="251"/>
+      <c r="B27" s="250"/>
       <c r="C27" s="136" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D27" s="141"/>
       <c r="E27" s="141"/>
@@ -14698,9 +14692,9 @@
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1">
       <c r="A28" s="147"/>
-      <c r="B28" s="252"/>
+      <c r="B28" s="251"/>
       <c r="C28" s="137" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D28" s="142"/>
       <c r="E28" s="142"/>
@@ -14726,17 +14720,17 @@
       <c r="K30" s="144"/>
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1">
-      <c r="A31" s="253" t="s">
+      <c r="A31" s="252" t="s">
         <v>594</v>
       </c>
-      <c r="B31" s="253"/>
-      <c r="C31" s="253"/>
-      <c r="D31" s="253"/>
-      <c r="E31" s="253"/>
-      <c r="F31" s="253"/>
-      <c r="G31" s="253"/>
-      <c r="H31" s="253"/>
-      <c r="I31" s="253"/>
+      <c r="B31" s="252"/>
+      <c r="C31" s="252"/>
+      <c r="D31" s="252"/>
+      <c r="E31" s="252"/>
+      <c r="F31" s="252"/>
+      <c r="G31" s="252"/>
+      <c r="H31" s="252"/>
+      <c r="I31" s="252"/>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1">
       <c r="A32" s="139"/>
@@ -14763,41 +14757,41 @@
         <f>4*16</f>
         <v>64</v>
       </c>
-      <c r="B34" s="216" t="s">
-        <v>1015</v>
+      <c r="B34" s="215" t="s">
+        <v>1014</v>
       </c>
       <c r="C34" s="26" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>1026</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="E34" s="143" t="s">
         <v>1027</v>
       </c>
-      <c r="E34" s="143" t="s">
+      <c r="F34" s="147" t="s">
         <v>1028</v>
-      </c>
-      <c r="F34" s="147" t="s">
-        <v>1029</v>
       </c>
       <c r="G34" s="139"/>
       <c r="I34" s="139"/>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
       <c r="A35" s="139"/>
-      <c r="B35" s="214" t="s">
-        <v>938</v>
-      </c>
-      <c r="C35" s="215">
+      <c r="B35" s="213" t="s">
+        <v>937</v>
+      </c>
+      <c r="C35" s="214">
         <v>4</v>
       </c>
-      <c r="D35" s="215">
+      <c r="D35" s="214">
         <f>C35+1</f>
         <v>5</v>
       </c>
-      <c r="E35" s="215">
+      <c r="E35" s="214">
         <f t="shared" ref="E35:F35" si="0">D35+1</f>
         <v>6</v>
       </c>
-      <c r="F35" s="215">
+      <c r="F35" s="214">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -14809,17 +14803,17 @@
       <c r="B36" s="149" t="s">
         <v>578</v>
       </c>
-      <c r="C36" s="238" t="s">
+      <c r="C36" s="237" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D36" s="130" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E36" s="237" t="s">
         <v>1016</v>
       </c>
-      <c r="D36" s="130" t="s">
+      <c r="F36" s="237" t="s">
         <v>1016</v>
-      </c>
-      <c r="E36" s="238" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F36" s="238" t="s">
-        <v>1017</v>
       </c>
       <c r="I36" s="139"/>
     </row>
@@ -14883,7 +14877,7 @@
     <row r="40" spans="1:9" ht="15" customHeight="1">
       <c r="A40" s="139"/>
       <c r="B40" s="161" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C40" s="151" t="s">
         <v>584</v>
@@ -15011,7 +15005,7 @@
     </row>
     <row r="49" spans="1:15" ht="15" customHeight="1">
       <c r="A49" s="147"/>
-      <c r="B49" s="251" t="s">
+      <c r="B49" s="250" t="s">
         <v>600</v>
       </c>
       <c r="C49" s="138" t="s">
@@ -15029,9 +15023,9 @@
     </row>
     <row r="50" spans="1:15" ht="15" customHeight="1">
       <c r="A50" s="147"/>
-      <c r="B50" s="251"/>
+      <c r="B50" s="250"/>
       <c r="C50" s="136" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D50" s="141"/>
       <c r="E50" s="141"/>
@@ -15045,9 +15039,9 @@
     </row>
     <row r="51" spans="1:15" ht="15" customHeight="1">
       <c r="A51" s="147"/>
-      <c r="B51" s="251"/>
+      <c r="B51" s="250"/>
       <c r="C51" s="136" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D51" s="141"/>
       <c r="E51" s="141"/>
@@ -15063,9 +15057,9 @@
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1">
       <c r="A52" s="147"/>
-      <c r="B52" s="251"/>
+      <c r="B52" s="250"/>
       <c r="C52" s="136" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D52" s="141"/>
       <c r="E52" s="141"/>
@@ -15079,9 +15073,9 @@
     </row>
     <row r="53" spans="1:15" ht="15" customHeight="1">
       <c r="A53" s="147"/>
-      <c r="B53" s="251"/>
+      <c r="B53" s="250"/>
       <c r="C53" s="136" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D53" s="141"/>
       <c r="E53" s="141"/>
@@ -15095,9 +15089,9 @@
     </row>
     <row r="54" spans="1:15" ht="15" customHeight="1">
       <c r="A54" s="147"/>
-      <c r="B54" s="251"/>
+      <c r="B54" s="250"/>
       <c r="C54" s="136" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D54" s="141"/>
       <c r="E54" s="141"/>
@@ -15109,9 +15103,9 @@
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1">
       <c r="A55" s="147"/>
-      <c r="B55" s="252"/>
+      <c r="B55" s="251"/>
       <c r="C55" s="137" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D55" s="142"/>
       <c r="E55" s="142"/>
@@ -15138,17 +15132,17 @@
       <c r="I57" s="139"/>
     </row>
     <row r="58" spans="1:15" ht="15" customHeight="1">
-      <c r="A58" s="253" t="s">
+      <c r="A58" s="252" t="s">
         <v>637</v>
       </c>
-      <c r="B58" s="253"/>
-      <c r="C58" s="253"/>
-      <c r="D58" s="253"/>
-      <c r="E58" s="253"/>
-      <c r="F58" s="253"/>
-      <c r="G58" s="253"/>
-      <c r="H58" s="253"/>
-      <c r="I58" s="253"/>
+      <c r="B58" s="252"/>
+      <c r="C58" s="252"/>
+      <c r="D58" s="252"/>
+      <c r="E58" s="252"/>
+      <c r="F58" s="252"/>
+      <c r="G58" s="252"/>
+      <c r="H58" s="252"/>
+      <c r="I58" s="252"/>
       <c r="L58" s="139"/>
       <c r="M58" s="139"/>
     </row>
@@ -15180,11 +15174,11 @@
       <c r="A61" s="147">
         <v>8</v>
       </c>
-      <c r="B61" s="213" t="s">
+      <c r="B61" s="212" t="s">
         <v>639</v>
       </c>
       <c r="C61" s="143" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D61" s="139"/>
       <c r="E61" s="139"/>
@@ -15196,10 +15190,10 @@
     </row>
     <row r="62" spans="1:15" ht="15" customHeight="1">
       <c r="A62" s="147"/>
-      <c r="B62" s="214" t="s">
-        <v>938</v>
-      </c>
-      <c r="C62" s="215">
+      <c r="B62" s="213" t="s">
+        <v>937</v>
+      </c>
+      <c r="C62" s="214">
         <v>8</v>
       </c>
       <c r="D62" s="129"/>
@@ -15244,7 +15238,7 @@
         <v>638</v>
       </c>
       <c r="C65" s="175" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D65" s="157"/>
       <c r="E65" s="158"/>
@@ -15409,7 +15403,7 @@
     <row r="76" spans="1:15" ht="15" customHeight="1">
       <c r="A76" s="139"/>
       <c r="B76" s="161" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C76" s="136" t="s">
         <v>584</v>
@@ -15420,7 +15414,7 @@
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1">
       <c r="A77" s="147"/>
-      <c r="B77" s="251" t="s">
+      <c r="B77" s="250" t="s">
         <v>600</v>
       </c>
       <c r="C77" s="140" t="s">
@@ -15438,9 +15432,9 @@
     </row>
     <row r="78" spans="1:15" ht="15" customHeight="1">
       <c r="A78" s="147"/>
-      <c r="B78" s="251"/>
+      <c r="B78" s="250"/>
       <c r="C78" s="170" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D78" s="141"/>
       <c r="E78" s="141"/>
@@ -15454,9 +15448,9 @@
     </row>
     <row r="79" spans="1:15" ht="15" customHeight="1">
       <c r="A79" s="147"/>
-      <c r="B79" s="251"/>
+      <c r="B79" s="250"/>
       <c r="C79" s="170" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D79" s="141"/>
       <c r="E79" s="141"/>
@@ -15472,9 +15466,9 @@
     </row>
     <row r="80" spans="1:15" ht="15" customHeight="1">
       <c r="A80" s="147"/>
-      <c r="B80" s="251"/>
+      <c r="B80" s="250"/>
       <c r="C80" s="170" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D80" s="141"/>
       <c r="E80" s="141"/>
@@ -15488,9 +15482,9 @@
     </row>
     <row r="81" spans="1:15" ht="15" customHeight="1">
       <c r="A81" s="147"/>
-      <c r="B81" s="252"/>
+      <c r="B81" s="251"/>
       <c r="C81" s="171" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D81" s="142"/>
       <c r="E81" s="142"/>
@@ -15522,17 +15516,17 @@
       <c r="K83" s="144"/>
     </row>
     <row r="84" spans="1:15" ht="15" customHeight="1">
-      <c r="A84" s="253" t="s">
+      <c r="A84" s="252" t="s">
         <v>612</v>
       </c>
-      <c r="B84" s="253"/>
-      <c r="C84" s="253"/>
-      <c r="D84" s="253"/>
-      <c r="E84" s="253"/>
-      <c r="F84" s="253"/>
-      <c r="G84" s="253"/>
-      <c r="H84" s="253"/>
-      <c r="I84" s="253"/>
+      <c r="B84" s="252"/>
+      <c r="C84" s="252"/>
+      <c r="D84" s="252"/>
+      <c r="E84" s="252"/>
+      <c r="F84" s="252"/>
+      <c r="G84" s="252"/>
+      <c r="H84" s="252"/>
+      <c r="I84" s="252"/>
       <c r="L84" s="139"/>
       <c r="M84" s="139"/>
     </row>
@@ -15564,62 +15558,62 @@
       <c r="A87" s="143">
         <v>9</v>
       </c>
-      <c r="B87" s="213" t="s">
-        <v>935</v>
+      <c r="B87" s="212" t="s">
+        <v>934</v>
       </c>
       <c r="C87" s="143" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D87" s="143" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E87" s="143" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F87" s="147" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="G87" s="143" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H87" s="143" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I87" s="143" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="L87" s="139"/>
       <c r="M87" s="139"/>
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1">
       <c r="A88" s="147"/>
-      <c r="B88" s="214" t="s">
-        <v>938</v>
-      </c>
-      <c r="C88" s="215">
+      <c r="B88" s="213" t="s">
+        <v>937</v>
+      </c>
+      <c r="C88" s="214">
         <v>9</v>
       </c>
-      <c r="D88" s="215">
+      <c r="D88" s="214">
         <f>C88</f>
         <v>9</v>
       </c>
-      <c r="E88" s="215">
+      <c r="E88" s="214">
         <f t="shared" ref="E88:I88" si="1">D88</f>
         <v>9</v>
       </c>
-      <c r="F88" s="215">
+      <c r="F88" s="214">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G88" s="215">
+      <c r="G88" s="214">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H88" s="215">
+      <c r="H88" s="214">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I88" s="215">
+      <c r="I88" s="214">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -15649,8 +15643,8 @@
       <c r="H89" s="130" t="s">
         <v>615</v>
       </c>
-      <c r="I89" s="193" t="s">
-        <v>870</v>
+      <c r="I89" s="192" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="15" customHeight="1">
@@ -15703,8 +15697,8 @@
       <c r="H91" s="173" t="s">
         <v>613</v>
       </c>
-      <c r="I91" s="228" t="s">
-        <v>937</v>
+      <c r="I91" s="227" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="15" customHeight="1">
@@ -15729,8 +15723,8 @@
       <c r="F93" s="139"/>
       <c r="G93" s="139"/>
       <c r="H93" s="139"/>
-      <c r="I93" s="213" t="s">
-        <v>936</v>
+      <c r="I93" s="212" t="s">
+        <v>935</v>
       </c>
       <c r="L93" s="139"/>
       <c r="M93" s="139"/>
@@ -15865,13 +15859,13 @@
     <row r="102" spans="1:15" ht="15" customHeight="1">
       <c r="A102" s="139"/>
       <c r="B102" s="166" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C102" s="172" t="s">
         <v>585</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E102" s="157"/>
       <c r="F102" s="148"/>
@@ -15896,17 +15890,17 @@
       <c r="K104" s="144"/>
     </row>
     <row r="105" spans="1:15" ht="15" customHeight="1">
-      <c r="A105" s="253" t="s">
+      <c r="A105" s="252" t="s">
         <v>592</v>
       </c>
-      <c r="B105" s="253"/>
-      <c r="C105" s="253"/>
-      <c r="D105" s="253"/>
-      <c r="E105" s="253"/>
-      <c r="F105" s="253"/>
-      <c r="G105" s="253"/>
-      <c r="H105" s="253"/>
-      <c r="I105" s="253"/>
+      <c r="B105" s="252"/>
+      <c r="C105" s="252"/>
+      <c r="D105" s="252"/>
+      <c r="E105" s="252"/>
+      <c r="F105" s="252"/>
+      <c r="G105" s="252"/>
+      <c r="H105" s="252"/>
+      <c r="I105" s="252"/>
     </row>
     <row r="106" spans="1:15" ht="15" customHeight="1">
       <c r="A106" s="147"/>
@@ -15930,14 +15924,14 @@
         <f>2*8</f>
         <v>16</v>
       </c>
-      <c r="B108" s="217" t="s">
+      <c r="B108" s="216" t="s">
         <v>593</v>
       </c>
       <c r="C108" s="26" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D108" s="26" t="s">
         <v>1032</v>
-      </c>
-      <c r="D108" s="26" t="s">
-        <v>1033</v>
       </c>
       <c r="E108" s="139"/>
       <c r="F108" s="148"/>
@@ -15945,13 +15939,13 @@
     </row>
     <row r="109" spans="1:15" ht="15" customHeight="1">
       <c r="A109" s="147"/>
-      <c r="B109" s="214" t="s">
-        <v>938</v>
-      </c>
-      <c r="C109" s="215">
+      <c r="B109" s="213" t="s">
+        <v>937</v>
+      </c>
+      <c r="C109" s="214">
         <v>10</v>
       </c>
-      <c r="D109" s="215">
+      <c r="D109" s="214">
         <f>C109+1</f>
         <v>11</v>
       </c>
@@ -16037,7 +16031,7 @@
     <row r="115" spans="1:7" ht="15" customHeight="1">
       <c r="A115" s="147"/>
       <c r="B115" s="166" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C115" s="157" t="s">
         <v>584</v>
@@ -16130,7 +16124,7 @@
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1">
       <c r="A123" s="147"/>
-      <c r="B123" s="251" t="s">
+      <c r="B123" s="250" t="s">
         <v>600</v>
       </c>
       <c r="C123" s="144" t="s">
@@ -16143,9 +16137,9 @@
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1">
       <c r="A124" s="147"/>
-      <c r="B124" s="251"/>
+      <c r="B124" s="250"/>
       <c r="C124" s="170" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D124" s="168"/>
       <c r="E124" s="141"/>
@@ -16154,9 +16148,9 @@
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1">
       <c r="A125" s="147"/>
-      <c r="B125" s="251"/>
+      <c r="B125" s="250"/>
       <c r="C125" s="170" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D125" s="168"/>
       <c r="E125" s="141"/>
@@ -16165,9 +16159,9 @@
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1">
       <c r="A126" s="147"/>
-      <c r="B126" s="251"/>
+      <c r="B126" s="250"/>
       <c r="C126" s="170" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D126" s="168"/>
       <c r="E126" s="141"/>
@@ -16176,9 +16170,9 @@
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1">
       <c r="A127" s="147"/>
-      <c r="B127" s="252"/>
+      <c r="B127" s="251"/>
       <c r="C127" s="171" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="142"/>
@@ -16202,17 +16196,17 @@
       <c r="G129" s="139"/>
     </row>
     <row r="130" spans="1:15" ht="15" customHeight="1">
-      <c r="A130" s="253" t="s">
+      <c r="A130" s="252" t="s">
         <v>603</v>
       </c>
-      <c r="B130" s="253"/>
-      <c r="C130" s="253"/>
-      <c r="D130" s="253"/>
-      <c r="E130" s="253"/>
-      <c r="F130" s="253"/>
-      <c r="G130" s="253"/>
-      <c r="H130" s="253"/>
-      <c r="I130" s="253"/>
+      <c r="B130" s="252"/>
+      <c r="C130" s="252"/>
+      <c r="D130" s="252"/>
+      <c r="E130" s="252"/>
+      <c r="F130" s="252"/>
+      <c r="G130" s="252"/>
+      <c r="H130" s="252"/>
+      <c r="I130" s="252"/>
     </row>
     <row r="131" spans="1:15" ht="15" customHeight="1">
       <c r="A131" s="139"/>
@@ -16239,11 +16233,11 @@
         <f>8*2</f>
         <v>16</v>
       </c>
-      <c r="B133" s="217" t="s">
+      <c r="B133" s="216" t="s">
         <v>593</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D133" s="26" t="s">
         <v>152</v>
@@ -16254,13 +16248,13 @@
     </row>
     <row r="134" spans="1:15" ht="15" customHeight="1">
       <c r="A134" s="139"/>
-      <c r="B134" s="214" t="s">
-        <v>938</v>
-      </c>
-      <c r="C134" s="215">
+      <c r="B134" s="213" t="s">
+        <v>937</v>
+      </c>
+      <c r="C134" s="214">
         <v>12</v>
       </c>
-      <c r="D134" s="215">
+      <c r="D134" s="214">
         <f>C134+1</f>
         <v>13</v>
       </c>
@@ -16274,10 +16268,10 @@
         <v>578</v>
       </c>
       <c r="C135" s="130" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D135" s="130" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E135" s="130"/>
       <c r="F135" s="162"/>
@@ -16324,7 +16318,7 @@
         <v>601</v>
       </c>
       <c r="D138" s="158" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E138" s="142"/>
       <c r="F138" s="148"/>
@@ -16434,7 +16428,7 @@
     <row r="147" spans="1:9" ht="15" customHeight="1">
       <c r="A147" s="139"/>
       <c r="B147" s="161" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C147" s="136" t="s">
         <v>585</v>
@@ -16445,7 +16439,7 @@
     </row>
     <row r="148" spans="1:9" ht="15" customHeight="1">
       <c r="A148" s="139"/>
-      <c r="B148" s="251" t="s">
+      <c r="B148" s="250" t="s">
         <v>600</v>
       </c>
       <c r="C148" s="144" t="s">
@@ -16457,9 +16451,9 @@
     </row>
     <row r="149" spans="1:9" ht="15" customHeight="1">
       <c r="A149" s="139"/>
-      <c r="B149" s="251"/>
+      <c r="B149" s="250"/>
       <c r="C149" s="170" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D149" s="168"/>
       <c r="E149" s="141"/>
@@ -16467,9 +16461,9 @@
     </row>
     <row r="150" spans="1:9" ht="15" customHeight="1">
       <c r="A150" s="139"/>
-      <c r="B150" s="251"/>
+      <c r="B150" s="250"/>
       <c r="C150" s="170" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D150" s="168"/>
       <c r="E150" s="141"/>
@@ -16480,9 +16474,9 @@
     </row>
     <row r="151" spans="1:9" ht="15" customHeight="1">
       <c r="A151" s="139"/>
-      <c r="B151" s="251"/>
+      <c r="B151" s="250"/>
       <c r="C151" s="170" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D151" s="168"/>
       <c r="E151" s="141"/>
@@ -16493,9 +16487,9 @@
     </row>
     <row r="152" spans="1:9" ht="15" customHeight="1">
       <c r="A152" s="139"/>
-      <c r="B152" s="252"/>
+      <c r="B152" s="251"/>
       <c r="C152" s="171" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D152" s="13"/>
       <c r="E152" s="142"/>
@@ -16525,17 +16519,17 @@
       <c r="I154" s="139"/>
     </row>
     <row r="155" spans="1:9" ht="15" customHeight="1">
-      <c r="A155" s="253" t="s">
+      <c r="A155" s="252" t="s">
         <v>634</v>
       </c>
-      <c r="B155" s="253"/>
-      <c r="C155" s="253"/>
-      <c r="D155" s="253"/>
-      <c r="E155" s="253"/>
-      <c r="F155" s="253"/>
-      <c r="G155" s="253"/>
-      <c r="H155" s="253"/>
-      <c r="I155" s="253"/>
+      <c r="B155" s="252"/>
+      <c r="C155" s="252"/>
+      <c r="D155" s="252"/>
+      <c r="E155" s="252"/>
+      <c r="F155" s="252"/>
+      <c r="G155" s="252"/>
+      <c r="H155" s="252"/>
+      <c r="I155" s="252"/>
     </row>
     <row r="156" spans="1:9" ht="15" customHeight="1">
       <c r="A156" s="139"/>
@@ -16562,33 +16556,33 @@
         <f>3*2*8</f>
         <v>48</v>
       </c>
-      <c r="B158" s="217" t="s">
-        <v>939</v>
+      <c r="B158" s="216" t="s">
+        <v>938</v>
       </c>
       <c r="C158" s="164" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D158" s="26" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E158" s="143" t="s">
         <v>1043</v>
-      </c>
-      <c r="D158" s="26" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E158" s="143" t="s">
-        <v>1044</v>
       </c>
       <c r="F158" s="148"/>
       <c r="G158" s="139"/>
     </row>
     <row r="159" spans="1:9" ht="15" customHeight="1">
       <c r="A159" s="139"/>
-      <c r="B159" s="214" t="s">
-        <v>938</v>
-      </c>
-      <c r="C159" s="215">
+      <c r="B159" s="213" t="s">
+        <v>937</v>
+      </c>
+      <c r="C159" s="214">
         <v>14</v>
       </c>
-      <c r="D159" s="215">
+      <c r="D159" s="214">
         <v>15</v>
       </c>
-      <c r="E159" s="215">
+      <c r="E159" s="214">
         <v>16</v>
       </c>
       <c r="F159" s="139"/>
@@ -16602,10 +16596,10 @@
       <c r="C160" s="130" t="s">
         <v>636</v>
       </c>
-      <c r="D160" s="226" t="s">
+      <c r="D160" s="225" t="s">
         <v>636</v>
       </c>
-      <c r="E160" s="226" t="s">
+      <c r="E160" s="225" t="s">
         <v>636</v>
       </c>
       <c r="F160" s="162"/>
@@ -16650,7 +16644,7 @@
     <row r="163" spans="1:15" ht="15" customHeight="1">
       <c r="A163" s="139"/>
       <c r="B163" s="161" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C163" s="154" t="s">
         <v>585</v>
@@ -16669,7 +16663,7 @@
     </row>
     <row r="164" spans="1:15" ht="15" customHeight="1">
       <c r="A164" s="139"/>
-      <c r="B164" s="227" t="s">
+      <c r="B164" s="226" t="s">
         <v>609</v>
       </c>
       <c r="C164" s="165">
@@ -16689,7 +16683,7 @@
     </row>
     <row r="165" spans="1:15" ht="15" customHeight="1">
       <c r="A165" s="139"/>
-      <c r="B165" s="227" t="s">
+      <c r="B165" s="226" t="s">
         <v>608</v>
       </c>
       <c r="C165" s="165">
@@ -16713,13 +16707,13 @@
         <v>635</v>
       </c>
       <c r="C166" s="158" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D166" s="158" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E166" s="158" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F166" s="139"/>
       <c r="G166" s="139"/>
@@ -16811,7 +16805,7 @@
     </row>
     <row r="173" spans="1:15" ht="15" customHeight="1">
       <c r="A173" s="139"/>
-      <c r="B173" s="251" t="s">
+      <c r="B173" s="250" t="s">
         <v>600</v>
       </c>
       <c r="C173" s="144" t="s">
@@ -16823,9 +16817,9 @@
     </row>
     <row r="174" spans="1:15" ht="15" customHeight="1">
       <c r="A174" s="139"/>
-      <c r="B174" s="251"/>
+      <c r="B174" s="250"/>
       <c r="C174" s="170" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D174" s="168"/>
       <c r="E174" s="141"/>
@@ -16833,9 +16827,9 @@
     </row>
     <row r="175" spans="1:15" ht="15" customHeight="1">
       <c r="A175" s="139"/>
-      <c r="B175" s="251"/>
+      <c r="B175" s="250"/>
       <c r="C175" s="170" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D175" s="168"/>
       <c r="E175" s="141"/>
@@ -16846,9 +16840,9 @@
     </row>
     <row r="176" spans="1:15" ht="15" customHeight="1">
       <c r="A176" s="139"/>
-      <c r="B176" s="251"/>
+      <c r="B176" s="250"/>
       <c r="C176" s="170" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D176" s="168"/>
       <c r="E176" s="141"/>
@@ -16859,9 +16853,9 @@
     </row>
     <row r="177" spans="1:17" ht="15" customHeight="1">
       <c r="A177" s="139"/>
-      <c r="B177" s="252"/>
+      <c r="B177" s="251"/>
       <c r="C177" s="171" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D177" s="13"/>
       <c r="E177" s="142"/>
@@ -16891,22 +16885,20 @@
       <c r="I179" s="139"/>
     </row>
     <row r="180" spans="1:17" ht="15" customHeight="1">
-      <c r="A180" s="253" t="s">
+      <c r="A180" s="252" t="s">
         <v>610</v>
       </c>
-      <c r="B180" s="253"/>
-      <c r="C180" s="253"/>
-      <c r="D180" s="253"/>
-      <c r="E180" s="253"/>
-      <c r="F180" s="253"/>
-      <c r="G180" s="253"/>
-      <c r="H180" s="253"/>
-      <c r="I180" s="253"/>
+      <c r="B180" s="252"/>
+      <c r="C180" s="252"/>
+      <c r="D180" s="252"/>
+      <c r="E180" s="252"/>
+      <c r="F180" s="252"/>
+      <c r="G180" s="252"/>
+      <c r="H180" s="252"/>
+      <c r="I180" s="252"/>
     </row>
     <row r="181" spans="1:17" ht="15" customHeight="1">
-      <c r="A181" s="176" t="s">
-        <v>640</v>
-      </c>
+      <c r="A181" s="139"/>
       <c r="C181" s="139"/>
       <c r="D181" s="139"/>
       <c r="E181" s="139"/>
@@ -16914,152 +16906,147 @@
       <c r="G181" s="139"/>
       <c r="H181" s="139"/>
       <c r="I181" s="139"/>
+      <c r="J181" s="146"/>
+      <c r="K181" s="145"/>
+      <c r="Q181" s="41"/>
     </row>
     <row r="182" spans="1:17" ht="15" customHeight="1">
-      <c r="A182" s="139"/>
-      <c r="C182" s="139"/>
-      <c r="D182" s="139"/>
-      <c r="E182" s="139"/>
-      <c r="F182" s="139"/>
-      <c r="G182" s="139"/>
-      <c r="H182" s="139"/>
-      <c r="I182" s="139"/>
+      <c r="A182" s="143">
+        <f>5*8</f>
+        <v>40</v>
+      </c>
+      <c r="B182" s="216" t="s">
+        <v>627</v>
+      </c>
+      <c r="C182" s="26" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D182" s="26" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E182" s="143" t="s">
+        <v>384</v>
+      </c>
+      <c r="F182" s="147" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G182" s="143" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H182" s="240" t="s">
+        <v>535</v>
+      </c>
       <c r="J182" s="146"/>
       <c r="K182" s="145"/>
-      <c r="Q182" s="41"/>
     </row>
     <row r="183" spans="1:17" ht="15" customHeight="1">
-      <c r="A183" s="143">
-        <f>5*8</f>
-        <v>40</v>
-      </c>
-      <c r="B183" s="217" t="s">
-        <v>627</v>
-      </c>
-      <c r="C183" s="26" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D183" s="26" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E183" s="143" t="s">
-        <v>384</v>
-      </c>
-      <c r="F183" s="147" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G183" s="143" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H183" s="241" t="s">
-        <v>535</v>
-      </c>
-      <c r="J183" s="146"/>
-      <c r="K183" s="145"/>
+      <c r="A183" s="139"/>
+      <c r="B183" s="213" t="s">
+        <v>577</v>
+      </c>
+      <c r="C183" s="214">
+        <v>17</v>
+      </c>
+      <c r="D183" s="214">
+        <v>17</v>
+      </c>
+      <c r="E183" s="214">
+        <v>17</v>
+      </c>
+      <c r="F183" s="214">
+        <v>17</v>
+      </c>
+      <c r="G183" s="214">
+        <v>17</v>
+      </c>
+      <c r="H183" s="214">
+        <v>17</v>
+      </c>
+      <c r="M183" s="139"/>
     </row>
     <row r="184" spans="1:17" ht="15" customHeight="1">
       <c r="A184" s="139"/>
-      <c r="B184" s="214" t="s">
-        <v>577</v>
-      </c>
-      <c r="C184" s="215">
-        <v>25</v>
-      </c>
-      <c r="D184" s="215">
-        <f t="shared" ref="D184:H184" si="2">C184+1</f>
-        <v>26</v>
-      </c>
-      <c r="E184" s="215">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="F184" s="215">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="G184" s="215">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="H184" s="215">
-        <f t="shared" si="2"/>
-        <v>30</v>
+      <c r="B184" s="149" t="s">
+        <v>578</v>
+      </c>
+      <c r="C184" s="130" t="s">
+        <v>624</v>
+      </c>
+      <c r="D184" s="130" t="s">
+        <v>618</v>
+      </c>
+      <c r="E184" s="130" t="s">
+        <v>625</v>
+      </c>
+      <c r="F184" s="130" t="s">
+        <v>617</v>
+      </c>
+      <c r="G184" s="130" t="s">
+        <v>626</v>
+      </c>
+      <c r="H184" s="239" t="s">
+        <v>1021</v>
       </c>
       <c r="M184" s="139"/>
     </row>
     <row r="185" spans="1:17" ht="15" customHeight="1">
       <c r="A185" s="139"/>
-      <c r="B185" s="149" t="s">
-        <v>578</v>
-      </c>
-      <c r="C185" s="130" t="s">
-        <v>624</v>
-      </c>
-      <c r="D185" s="130" t="s">
-        <v>618</v>
-      </c>
-      <c r="E185" s="130" t="s">
-        <v>625</v>
-      </c>
-      <c r="F185" s="130" t="s">
-        <v>617</v>
-      </c>
-      <c r="G185" s="130" t="s">
-        <v>626</v>
-      </c>
-      <c r="H185" s="240" t="s">
-        <v>1022</v>
+      <c r="B185" s="150" t="s">
+        <v>581</v>
+      </c>
+      <c r="C185" s="151">
+        <v>8</v>
+      </c>
+      <c r="D185" s="151">
+        <v>8</v>
+      </c>
+      <c r="E185" s="151">
+        <v>8</v>
+      </c>
+      <c r="F185" s="151">
+        <v>8</v>
+      </c>
+      <c r="G185" s="151">
+        <v>8</v>
+      </c>
+      <c r="H185" s="151">
+        <v>9</v>
       </c>
       <c r="M185" s="139"/>
     </row>
     <row r="186" spans="1:17" ht="15" customHeight="1">
       <c r="A186" s="139"/>
-      <c r="B186" s="150" t="s">
-        <v>581</v>
-      </c>
-      <c r="C186" s="151">
-        <v>8</v>
-      </c>
-      <c r="D186" s="151">
-        <v>8</v>
-      </c>
-      <c r="E186" s="151">
-        <v>8</v>
-      </c>
-      <c r="F186" s="151">
-        <v>8</v>
-      </c>
-      <c r="G186" s="151">
-        <v>8</v>
-      </c>
-      <c r="H186" s="151">
-        <v>9</v>
+      <c r="B186" s="166" t="s">
+        <v>599</v>
+      </c>
+      <c r="C186" s="174" t="s">
+        <v>619</v>
+      </c>
+      <c r="D186" s="156" t="s">
+        <v>620</v>
+      </c>
+      <c r="E186" s="174" t="s">
+        <v>621</v>
+      </c>
+      <c r="F186" s="174" t="s">
+        <v>622</v>
+      </c>
+      <c r="G186" s="174" t="s">
+        <v>623</v>
+      </c>
+      <c r="H186" s="174" t="s">
+        <v>1020</v>
       </c>
       <c r="M186" s="139"/>
     </row>
     <row r="187" spans="1:17" ht="15" customHeight="1">
       <c r="A187" s="139"/>
-      <c r="B187" s="166" t="s">
-        <v>599</v>
-      </c>
-      <c r="C187" s="174" t="s">
-        <v>619</v>
-      </c>
-      <c r="D187" s="156" t="s">
-        <v>620</v>
-      </c>
-      <c r="E187" s="174" t="s">
-        <v>621</v>
-      </c>
-      <c r="F187" s="174" t="s">
-        <v>622</v>
-      </c>
-      <c r="G187" s="174" t="s">
-        <v>623</v>
-      </c>
-      <c r="H187" s="174" t="s">
-        <v>1021</v>
-      </c>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="135"/>
+      <c r="E187" s="135"/>
+      <c r="F187" s="139"/>
+      <c r="G187" s="139"/>
       <c r="M187" s="139"/>
     </row>
     <row r="188" spans="1:17" ht="15" customHeight="1">
@@ -17074,79 +17061,85 @@
     </row>
     <row r="189" spans="1:17" ht="15" customHeight="1">
       <c r="A189" s="139"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="135"/>
-      <c r="E189" s="135"/>
+      <c r="B189" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="C189" s="130"/>
+      <c r="D189" s="130"/>
+      <c r="E189" s="130"/>
       <c r="F189" s="139"/>
       <c r="G189" s="139"/>
       <c r="M189" s="139"/>
     </row>
     <row r="190" spans="1:17" ht="15" customHeight="1">
       <c r="A190" s="139"/>
-      <c r="B190" s="159" t="s">
-        <v>589</v>
-      </c>
-      <c r="C190" s="130"/>
-      <c r="D190" s="130"/>
-      <c r="E190" s="130"/>
-      <c r="F190" s="139"/>
-      <c r="G190" s="139"/>
+      <c r="B190" s="150" t="s">
+        <v>609</v>
+      </c>
+      <c r="C190" s="160">
+        <v>26</v>
+      </c>
+      <c r="D190" s="11"/>
+      <c r="E190" s="139"/>
+      <c r="F190" s="148"/>
       <c r="M190" s="139"/>
     </row>
     <row r="191" spans="1:17" ht="15" customHeight="1">
       <c r="A191" s="139"/>
       <c r="B191" s="150" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C191" s="160">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D191" s="11"/>
       <c r="E191" s="139"/>
       <c r="F191" s="148"/>
+      <c r="J191" s="146"/>
+      <c r="K191" s="145"/>
+      <c r="L191" s="139"/>
       <c r="M191" s="139"/>
     </row>
     <row r="192" spans="1:17" ht="15" customHeight="1">
       <c r="A192" s="139"/>
-      <c r="B192" s="150" t="s">
-        <v>608</v>
-      </c>
-      <c r="C192" s="160">
-        <v>19</v>
+      <c r="B192" s="161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="160" t="s">
+        <v>583</v>
       </c>
       <c r="D192" s="11"/>
       <c r="E192" s="139"/>
-      <c r="F192" s="148"/>
-      <c r="J192" s="146"/>
-      <c r="K192" s="145"/>
-      <c r="L192" s="139"/>
+      <c r="F192" s="162"/>
+      <c r="G192" s="139"/>
       <c r="M192" s="139"/>
     </row>
     <row r="193" spans="1:15" ht="15" customHeight="1">
       <c r="A193" s="139"/>
-      <c r="B193" s="161" t="s">
-        <v>1</v>
-      </c>
-      <c r="C193" s="160" t="s">
-        <v>583</v>
-      </c>
-      <c r="D193" s="11"/>
-      <c r="E193" s="139"/>
-      <c r="F193" s="162"/>
-      <c r="G193" s="139"/>
+      <c r="B193" s="150" t="s">
+        <v>604</v>
+      </c>
+      <c r="C193" s="135" t="s">
+        <v>607</v>
+      </c>
+      <c r="D193" s="151"/>
+      <c r="E193" s="151"/>
+      <c r="F193" s="148"/>
+      <c r="L193" s="139"/>
       <c r="M193" s="139"/>
+      <c r="N193" s="139"/>
+      <c r="O193" s="139"/>
     </row>
     <row r="194" spans="1:15" ht="15" customHeight="1">
       <c r="A194" s="139"/>
-      <c r="B194" s="150" t="s">
-        <v>604</v>
-      </c>
-      <c r="C194" s="135" t="s">
-        <v>607</v>
-      </c>
-      <c r="D194" s="151"/>
-      <c r="E194" s="151"/>
+      <c r="B194" s="161" t="s">
+        <v>598</v>
+      </c>
+      <c r="C194" s="160" t="s">
+        <v>601</v>
+      </c>
+      <c r="D194" s="11"/>
+      <c r="E194" s="139"/>
       <c r="F194" s="148"/>
       <c r="L194" s="139"/>
       <c r="M194" s="139"/>
@@ -17156,45 +17149,44 @@
     <row r="195" spans="1:15" ht="15" customHeight="1">
       <c r="A195" s="139"/>
       <c r="B195" s="161" t="s">
-        <v>598</v>
-      </c>
-      <c r="C195" s="160" t="s">
-        <v>601</v>
+        <v>586</v>
+      </c>
+      <c r="C195" s="135" t="s">
+        <v>585</v>
       </c>
       <c r="D195" s="11"/>
-      <c r="E195" s="139"/>
+      <c r="E195" s="151"/>
       <c r="F195" s="148"/>
+      <c r="J195" s="146"/>
+      <c r="K195" s="145"/>
       <c r="L195" s="139"/>
       <c r="M195" s="139"/>
-      <c r="N195" s="139"/>
-      <c r="O195" s="139"/>
     </row>
     <row r="196" spans="1:15" ht="15" customHeight="1">
       <c r="A196" s="139"/>
       <c r="B196" s="161" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C196" s="135" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D196" s="11"/>
       <c r="E196" s="151"/>
       <c r="F196" s="148"/>
       <c r="J196" s="146"/>
-      <c r="K196" s="145"/>
       <c r="L196" s="139"/>
       <c r="M196" s="139"/>
     </row>
     <row r="197" spans="1:15" ht="15" customHeight="1">
       <c r="A197" s="139"/>
-      <c r="B197" s="161" t="s">
-        <v>587</v>
-      </c>
-      <c r="C197" s="135" t="s">
-        <v>584</v>
-      </c>
-      <c r="D197" s="11"/>
-      <c r="E197" s="151"/>
+      <c r="B197" s="250" t="s">
+        <v>600</v>
+      </c>
+      <c r="C197" s="144" t="s">
+        <v>597</v>
+      </c>
+      <c r="D197" s="168"/>
+      <c r="E197" s="141"/>
       <c r="F197" s="148"/>
       <c r="J197" s="146"/>
       <c r="L197" s="139"/>
@@ -17202,11 +17194,9 @@
     </row>
     <row r="198" spans="1:15" ht="15" customHeight="1">
       <c r="A198" s="139"/>
-      <c r="B198" s="251" t="s">
-        <v>600</v>
-      </c>
-      <c r="C198" s="144" t="s">
-        <v>597</v>
+      <c r="B198" s="250"/>
+      <c r="C198" s="170" t="s">
+        <v>698</v>
       </c>
       <c r="D198" s="168"/>
       <c r="E198" s="141"/>
@@ -17217,22 +17207,22 @@
     </row>
     <row r="199" spans="1:15" ht="15" customHeight="1">
       <c r="A199" s="139"/>
-      <c r="B199" s="251"/>
+      <c r="B199" s="250"/>
       <c r="C199" s="170" t="s">
         <v>699</v>
       </c>
       <c r="D199" s="168"/>
       <c r="E199" s="141"/>
       <c r="F199" s="148"/>
-      <c r="J199" s="146"/>
-      <c r="L199" s="139"/>
-      <c r="M199" s="139"/>
+      <c r="G199" s="139"/>
+      <c r="H199" s="139"/>
+      <c r="I199" s="139"/>
     </row>
     <row r="200" spans="1:15" ht="15" customHeight="1">
       <c r="A200" s="139"/>
-      <c r="B200" s="251"/>
+      <c r="B200" s="250"/>
       <c r="C200" s="170" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="D200" s="168"/>
       <c r="E200" s="141"/>
@@ -17244,11 +17234,11 @@
     <row r="201" spans="1:15" ht="15" customHeight="1">
       <c r="A201" s="139"/>
       <c r="B201" s="251"/>
-      <c r="C201" s="170" t="s">
+      <c r="C201" s="171" t="s">
         <v>705</v>
       </c>
-      <c r="D201" s="168"/>
-      <c r="E201" s="141"/>
+      <c r="D201" s="13"/>
+      <c r="E201" s="142"/>
       <c r="F201" s="148"/>
       <c r="G201" s="139"/>
       <c r="H201" s="139"/>
@@ -17256,13 +17246,10 @@
     </row>
     <row r="202" spans="1:15" ht="15" customHeight="1">
       <c r="A202" s="139"/>
-      <c r="B202" s="252"/>
-      <c r="C202" s="171" t="s">
-        <v>706</v>
-      </c>
-      <c r="D202" s="13"/>
-      <c r="E202" s="142"/>
-      <c r="F202" s="148"/>
+      <c r="C202" s="139"/>
+      <c r="D202" s="139"/>
+      <c r="E202" s="139"/>
+      <c r="F202" s="139"/>
       <c r="G202" s="139"/>
       <c r="H202" s="139"/>
       <c r="I202" s="139"/>
@@ -17277,15 +17264,11 @@
       <c r="H203" s="139"/>
       <c r="I203" s="139"/>
     </row>
-    <row r="204" spans="1:15" ht="15" customHeight="1">
-      <c r="A204" s="139"/>
-      <c r="C204" s="139"/>
-      <c r="D204" s="139"/>
-      <c r="E204" s="139"/>
-      <c r="F204" s="139"/>
-      <c r="G204" s="139"/>
-      <c r="H204" s="139"/>
-      <c r="I204" s="139"/>
+    <row r="205" spans="1:15" ht="15" customHeight="1">
+      <c r="C205" s="139"/>
+      <c r="D205" s="139"/>
+      <c r="E205" s="139"/>
+      <c r="F205" s="139"/>
     </row>
     <row r="206" spans="1:15" ht="15" customHeight="1">
       <c r="C206" s="139"/>
@@ -17299,21 +17282,8 @@
       <c r="E207" s="139"/>
       <c r="F207" s="139"/>
     </row>
-    <row r="208" spans="1:15" ht="15" customHeight="1">
-      <c r="C208" s="139"/>
-      <c r="D208" s="139"/>
-      <c r="E208" s="139"/>
-      <c r="F208" s="139"/>
-    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B198:B202"/>
-    <mergeCell ref="B173:B177"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="A105:I105"/>
-    <mergeCell ref="A130:I130"/>
-    <mergeCell ref="A155:I155"/>
-    <mergeCell ref="A180:I180"/>
     <mergeCell ref="B77:B81"/>
     <mergeCell ref="B22:B28"/>
     <mergeCell ref="B123:B127"/>
@@ -17322,6 +17292,13 @@
     <mergeCell ref="A84:I84"/>
     <mergeCell ref="B49:B55"/>
     <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B197:B201"/>
+    <mergeCell ref="B173:B177"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="A105:I105"/>
+    <mergeCell ref="A130:I130"/>
+    <mergeCell ref="A155:I155"/>
+    <mergeCell ref="A180:I180"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17346,85 +17323,85 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
+        <v>731</v>
+      </c>
+      <c r="C9" t="s">
         <v>732</v>
-      </c>
-      <c r="C9" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
+        <v>734</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>735</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
+        <v>738</v>
+      </c>
+      <c r="C15" t="s">
         <v>739</v>
-      </c>
-      <c r="C15" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C16" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C17" t="s">
         <v>582</v>
@@ -17432,7 +17409,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C18" t="s">
         <v>582</v>
@@ -17440,7 +17417,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C19" t="s">
         <v>582</v>
@@ -17448,7 +17425,7 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C20" t="s">
         <v>582</v>
@@ -17456,13 +17433,13 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C23" t="s">
         <v>582</v>
@@ -17470,7 +17447,7 @@
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C24" t="s">
         <v>582</v>
@@ -17478,7 +17455,7 @@
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C25" t="s">
         <v>582</v>
@@ -17486,7 +17463,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C26" t="s">
         <v>582</v>
@@ -17494,7 +17471,7 @@
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C27" t="s">
         <v>582</v>
@@ -17502,7 +17479,7 @@
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C28" t="s">
         <v>582</v>
@@ -17535,601 +17512,601 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="45" t="s">
+        <v>752</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="177" t="s">
         <v>753</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="178" t="s">
+      <c r="C3" s="178" t="s">
         <v>754</v>
       </c>
-      <c r="C3" s="179" t="s">
+      <c r="D3" s="178" t="s">
         <v>755</v>
-      </c>
-      <c r="D3" s="179" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C4" s="62" t="s">
         <v>152</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C5" s="62" t="s">
         <v>152</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C6" s="62" t="s">
         <v>152</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C7" s="62" t="s">
         <v>152</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C8" t="s">
         <v>152</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C9" t="s">
         <v>227</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
+        <v>768</v>
+      </c>
+      <c r="C10" s="62" t="s">
         <v>769</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="D10" s="62" t="s">
         <v>770</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
+        <v>771</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>769</v>
+      </c>
+      <c r="D11" s="62" t="s">
         <v>772</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>770</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
+        <v>773</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>769</v>
+      </c>
+      <c r="D12" s="62" t="s">
         <v>774</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>770</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C13" s="62" t="s">
         <v>152</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="D14" s="179"/>
+      <c r="D14" s="178"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="45" t="s">
+        <v>777</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="177" t="s">
+        <v>753</v>
+      </c>
+      <c r="C16" s="179" t="s">
         <v>778</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="178" t="s">
+      <c r="D16" s="178" t="s">
         <v>754</v>
       </c>
-      <c r="C16" s="180" t="s">
-        <v>779</v>
-      </c>
-      <c r="D16" s="179" t="s">
+      <c r="E16" s="177" t="s">
         <v>755</v>
-      </c>
-      <c r="E16" s="178" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C17">
         <v>2.35</v>
       </c>
-      <c r="D17" s="179" t="s">
+      <c r="D17" s="178" t="s">
         <v>152</v>
       </c>
-      <c r="E17" s="178"/>
+      <c r="E17" s="177"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C18">
         <v>1.5</v>
       </c>
-      <c r="D18" s="179" t="s">
+      <c r="D18" s="178" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="178"/>
+      <c r="E18" s="177"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C19">
         <v>0.05</v>
       </c>
-      <c r="D19" s="179" t="s">
+      <c r="D19" s="178" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="179"/>
+      <c r="E19" s="178"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C20">
         <f>C18*C17</f>
         <v>3.5250000000000004</v>
       </c>
-      <c r="D20" s="179" t="s">
+      <c r="D20" s="178" t="s">
         <v>227</v>
       </c>
-      <c r="E20" s="179"/>
+      <c r="E20" s="178"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C21">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D21" s="179" t="s">
+      <c r="D21" s="178" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="179"/>
+      <c r="E21" s="178"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C22">
         <v>1.45</v>
       </c>
-      <c r="D22" s="179" t="s">
+      <c r="D22" s="178" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="179"/>
+      <c r="E22" s="178"/>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="54" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C23" s="54">
         <f>C22*C21</f>
         <v>3.3349999999999995</v>
       </c>
-      <c r="D23" s="181" t="s">
+      <c r="D23" s="180" t="s">
         <v>227</v>
       </c>
-      <c r="E23" s="179"/>
+      <c r="E23" s="178"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="54" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C24" s="54">
         <f>C18*2+C17*2</f>
         <v>7.7</v>
       </c>
-      <c r="D24" s="181" t="s">
+      <c r="D24" s="180" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="D25" s="179"/>
+      <c r="D25" s="178"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="D26" s="179"/>
+      <c r="D26" s="178"/>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="45" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="177"/>
+      <c r="D27" s="176"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="178" t="s">
+      <c r="B28" s="177" t="s">
+        <v>753</v>
+      </c>
+      <c r="C28" s="179" t="s">
+        <v>778</v>
+      </c>
+      <c r="D28" s="178" t="s">
         <v>754</v>
       </c>
-      <c r="C28" s="180" t="s">
-        <v>779</v>
-      </c>
-      <c r="D28" s="179" t="s">
+      <c r="E28" s="177" t="s">
         <v>755</v>
-      </c>
-      <c r="E28" s="178" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="54" t="s">
-        <v>767</v>
-      </c>
-      <c r="C29" s="182">
+        <v>766</v>
+      </c>
+      <c r="C29" s="181">
         <f>C23/C20</f>
         <v>0.94609929078014166</v>
       </c>
-      <c r="D29" s="181" t="s">
+      <c r="D29" s="180" t="s">
         <v>227</v>
       </c>
-      <c r="E29" s="179" t="s">
-        <v>782</v>
+      <c r="E29" s="178" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="54" t="s">
-        <v>776</v>
-      </c>
-      <c r="C30" s="182">
+        <v>775</v>
+      </c>
+      <c r="C30" s="181">
         <f>C24/C20</f>
         <v>2.1843971631205674</v>
       </c>
-      <c r="D30" s="181" t="s">
+      <c r="D30" s="180" t="s">
         <v>227</v>
       </c>
-      <c r="E30" s="179" t="s">
-        <v>783</v>
+      <c r="E30" s="178" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="C31" s="72"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="179"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="178"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="D32" s="179"/>
+      <c r="D32" s="178"/>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="45" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="177"/>
+      <c r="D33" s="176"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="178" t="s">
+      <c r="B34" s="177" t="s">
+        <v>753</v>
+      </c>
+      <c r="C34" s="179" t="s">
+        <v>778</v>
+      </c>
+      <c r="D34" s="178" t="s">
         <v>754</v>
       </c>
-      <c r="C34" s="180" t="s">
-        <v>779</v>
-      </c>
-      <c r="D34" s="179" t="s">
+      <c r="E34" s="177" t="s">
         <v>755</v>
-      </c>
-      <c r="E34" s="178" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C35" s="72">
         <f>1115/1000000*2700*1.1</f>
         <v>3.3115500000000009</v>
       </c>
-      <c r="D35" s="179" t="s">
-        <v>770</v>
+      <c r="D35" s="178" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>774</v>
-      </c>
-      <c r="C36" s="183">
+        <v>773</v>
+      </c>
+      <c r="C36" s="182">
         <f>150/1000000</f>
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="D36" s="179" t="s">
-        <v>785</v>
+      <c r="D36" s="178" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C37" s="72">
         <f>150/1000000*600</f>
         <v>0.09</v>
       </c>
-      <c r="D37" s="179" t="s">
-        <v>770</v>
+      <c r="D37" s="178" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="C38" s="3"/>
-      <c r="D38" s="179"/>
+      <c r="D38" s="178"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="D39" s="179"/>
+      <c r="D39" s="178"/>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="45" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="177"/>
+      <c r="D40" s="176"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="178" t="s">
+      <c r="B41" s="177" t="s">
+        <v>753</v>
+      </c>
+      <c r="C41" s="179" t="s">
+        <v>778</v>
+      </c>
+      <c r="D41" s="178" t="s">
         <v>754</v>
       </c>
-      <c r="C41" s="180" t="s">
-        <v>779</v>
-      </c>
-      <c r="D41" s="179" t="s">
+      <c r="E41" s="177" t="s">
         <v>755</v>
-      </c>
-      <c r="E41" s="178" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C42" s="72">
         <f>1115/1000000*2700*1.1</f>
         <v>3.3115500000000009</v>
       </c>
-      <c r="D42" s="179" t="s">
-        <v>770</v>
+      <c r="D42" s="178" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C43" s="72">
         <f>365/1000000*150</f>
         <v>5.475E-2</v>
       </c>
-      <c r="D43" s="179" t="s">
-        <v>770</v>
+      <c r="D43" s="178" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="44" spans="2:5">
-      <c r="D44" s="179"/>
+      <c r="D44" s="178"/>
     </row>
     <row r="45" spans="2:5">
       <c r="C45" s="3"/>
-      <c r="D45" s="179"/>
+      <c r="D45" s="178"/>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="45" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="177"/>
+      <c r="D46" s="176"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="178" t="s">
+      <c r="B47" s="177" t="s">
+        <v>753</v>
+      </c>
+      <c r="C47" s="179" t="s">
+        <v>778</v>
+      </c>
+      <c r="D47" s="178" t="s">
         <v>754</v>
       </c>
-      <c r="C47" s="180" t="s">
-        <v>779</v>
-      </c>
-      <c r="D47" s="179" t="s">
+      <c r="E47" s="177" t="s">
         <v>755</v>
-      </c>
-      <c r="E47" s="178" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C48" s="72">
         <f>1170/1000000*2700*1.1</f>
         <v>3.4749000000000008</v>
       </c>
-      <c r="D48" s="179" t="s">
-        <v>770</v>
+      <c r="D48" s="178" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" t="s">
-        <v>774</v>
-      </c>
-      <c r="C49" s="183">
+        <v>773</v>
+      </c>
+      <c r="C49" s="182">
         <f>150/1000000</f>
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="D49" s="179" t="s">
-        <v>785</v>
+      <c r="D49" s="178" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C50" s="72">
         <f>150/1000000*600</f>
         <v>0.09</v>
       </c>
-      <c r="D50" s="179" t="s">
-        <v>770</v>
+      <c r="D50" s="178" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="C51" s="3"/>
-      <c r="D51" s="179"/>
+      <c r="D51" s="178"/>
     </row>
     <row r="52" spans="2:5">
-      <c r="D52" s="179"/>
+      <c r="D52" s="178"/>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="45" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="177"/>
+      <c r="D53" s="176"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="178" t="s">
+      <c r="B54" s="177" t="s">
+        <v>753</v>
+      </c>
+      <c r="C54" s="179" t="s">
+        <v>778</v>
+      </c>
+      <c r="D54" s="178" t="s">
         <v>754</v>
       </c>
-      <c r="C54" s="180" t="s">
-        <v>779</v>
-      </c>
-      <c r="D54" s="179" t="s">
+      <c r="E54" s="177" t="s">
         <v>755</v>
-      </c>
-      <c r="E54" s="178" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C55" s="72">
         <f>1170/1000000*2700*1.1</f>
         <v>3.4749000000000008</v>
       </c>
-      <c r="D55" s="179" t="s">
-        <v>770</v>
+      <c r="D55" s="178" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C56" s="72">
         <f>450/1000000*150</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="D56" s="179" t="s">
-        <v>770</v>
+      <c r="D56" s="178" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="57" spans="2:5">
-      <c r="D57" s="179"/>
+      <c r="D57" s="178"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="D58" s="179"/>
+      <c r="D58" s="178"/>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="45" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="177"/>
+      <c r="D59" s="176"/>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="178" t="s">
+      <c r="B60" s="177" t="s">
+        <v>753</v>
+      </c>
+      <c r="C60" s="179" t="s">
+        <v>778</v>
+      </c>
+      <c r="D60" s="178" t="s">
         <v>754</v>
       </c>
-      <c r="C60" s="180" t="s">
-        <v>779</v>
-      </c>
-      <c r="D60" s="179" t="s">
+      <c r="E60" s="177" t="s">
         <v>755</v>
-      </c>
-      <c r="E60" s="178" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C61" s="72">
         <f>1275/1000000*2700*1.1</f>
         <v>3.7867500000000005</v>
       </c>
-      <c r="D61" s="179" t="s">
-        <v>770</v>
+      <c r="D61" s="178" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C62" s="72">
         <f>520/1000000*150</f>
         <v>7.8E-2</v>
       </c>
-      <c r="D62" s="179" t="s">
-        <v>770</v>
+      <c r="D62" s="178" t="s">
+        <v>769</v>
       </c>
     </row>
   </sheetData>
@@ -18155,7 +18132,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="45" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C2" s="75"/>
       <c r="D2" s="2"/>
@@ -18163,493 +18140,493 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="177" t="s">
+        <v>790</v>
+      </c>
+      <c r="C3" s="179" t="s">
+        <v>754</v>
+      </c>
+      <c r="D3" t="s">
+        <v>778</v>
+      </c>
+      <c r="E3" t="s">
         <v>791</v>
       </c>
-      <c r="C3" s="180" t="s">
+      <c r="F3" s="177" t="s">
         <v>755</v>
-      </c>
-      <c r="D3" t="s">
-        <v>779</v>
-      </c>
-      <c r="E3" t="s">
-        <v>792</v>
-      </c>
-      <c r="F3" s="178" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
+        <v>792</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>793</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>794</v>
       </c>
       <c r="D4">
         <v>2.5</v>
       </c>
       <c r="F4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
+        <v>795</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>796</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>797</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D6">
         <f>2*5</f>
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D7">
         <f>2*5</f>
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
+        <v>802</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
         <v>803</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
+        <v>804</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="177" t="s">
         <v>806</v>
       </c>
-      <c r="E9" s="178" t="s">
+      <c r="F9" t="s">
         <v>807</v>
-      </c>
-      <c r="F9" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="E10" s="177" t="s">
         <v>806</v>
       </c>
-      <c r="E10" s="178" t="s">
+      <c r="F10" t="s">
         <v>807</v>
-      </c>
-      <c r="F10" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="E11" s="177" t="s">
         <v>806</v>
       </c>
-      <c r="E11" s="178" t="s">
+      <c r="F11" t="s">
         <v>807</v>
-      </c>
-      <c r="F11" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D12">
         <v>-1</v>
       </c>
       <c r="F12" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
+        <v>812</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>813</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>814</v>
       </c>
       <c r="D13" s="3">
         <v>125</v>
       </c>
       <c r="F13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D14" s="3">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D16" s="3">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="184"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="186"/>
+      <c r="B17" s="183"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="185"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="184"/>
-      <c r="C18" s="184"/>
-      <c r="D18" s="185"/>
-      <c r="E18" s="186"/>
+      <c r="B18" s="183"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="185"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="184"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="185"/>
+      <c r="B19" s="183"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="184"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="185"/>
+      <c r="B20" s="183"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="184"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="184"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="184"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="184"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="185"/>
-      <c r="E23" s="185"/>
+      <c r="B23" s="183"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="184"/>
-      <c r="C24" s="184"/>
-      <c r="D24" s="185"/>
-      <c r="E24" s="184"/>
+      <c r="B24" s="183"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="183"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="184"/>
-      <c r="C25" s="184"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="184"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="183"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="184"/>
-      <c r="C26" s="184"/>
-      <c r="D26" s="185"/>
-      <c r="E26" s="184"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="183"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="187"/>
-      <c r="C27" s="184"/>
-      <c r="D27" s="185"/>
-      <c r="E27" s="184"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="183"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="183"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="186"/>
-      <c r="C28" s="188"/>
-      <c r="D28" s="185"/>
-      <c r="E28" s="186"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="185"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="184"/>
-      <c r="C29" s="189"/>
-      <c r="D29" s="185"/>
-      <c r="E29" s="185"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="188"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="184"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="184"/>
-      <c r="C30" s="189"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="184"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="188"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="184"/>
-      <c r="C32" s="184"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="184"/>
+      <c r="B32" s="183"/>
+      <c r="C32" s="183"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="183"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="187"/>
-      <c r="C33" s="184"/>
-      <c r="D33" s="185"/>
-      <c r="E33" s="184"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="183"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="186"/>
-      <c r="C34" s="188"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="186"/>
+      <c r="B34" s="185"/>
+      <c r="C34" s="187"/>
+      <c r="D34" s="184"/>
+      <c r="E34" s="185"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="184"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="185"/>
-      <c r="E35" s="184"/>
+      <c r="B35" s="183"/>
+      <c r="C35" s="188"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="183"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="184"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="185"/>
-      <c r="E36" s="184"/>
+      <c r="B36" s="183"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="183"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="184"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="185"/>
-      <c r="E37" s="184"/>
+      <c r="B37" s="183"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="183"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="184"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="185"/>
-      <c r="E38" s="184"/>
+      <c r="B38" s="183"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="184"/>
+      <c r="E38" s="183"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="184"/>
-      <c r="C39" s="184"/>
-      <c r="D39" s="185"/>
-      <c r="E39" s="184"/>
+      <c r="B39" s="183"/>
+      <c r="C39" s="183"/>
+      <c r="D39" s="184"/>
+      <c r="E39" s="183"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="187"/>
-      <c r="C40" s="184"/>
-      <c r="D40" s="185"/>
-      <c r="E40" s="184"/>
+      <c r="B40" s="186"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="184"/>
+      <c r="E40" s="183"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="186"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="185"/>
-      <c r="E41" s="186"/>
+      <c r="B41" s="185"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="184"/>
+      <c r="E41" s="185"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="184"/>
-      <c r="C42" s="189"/>
-      <c r="D42" s="185"/>
-      <c r="E42" s="184"/>
+      <c r="B42" s="183"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="183"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="184"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="185"/>
-      <c r="E43" s="184"/>
+      <c r="B43" s="183"/>
+      <c r="C43" s="188"/>
+      <c r="D43" s="184"/>
+      <c r="E43" s="183"/>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="184"/>
-      <c r="C44" s="184"/>
-      <c r="D44" s="185"/>
-      <c r="E44" s="184"/>
+      <c r="B44" s="183"/>
+      <c r="C44" s="183"/>
+      <c r="D44" s="184"/>
+      <c r="E44" s="183"/>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="184"/>
-      <c r="C45" s="191"/>
-      <c r="D45" s="185"/>
-      <c r="E45" s="184"/>
+      <c r="B45" s="183"/>
+      <c r="C45" s="190"/>
+      <c r="D45" s="184"/>
+      <c r="E45" s="183"/>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="187"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="185"/>
-      <c r="E46" s="184"/>
+      <c r="B46" s="186"/>
+      <c r="C46" s="183"/>
+      <c r="D46" s="184"/>
+      <c r="E46" s="183"/>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="186"/>
-      <c r="C47" s="188"/>
-      <c r="D47" s="185"/>
-      <c r="E47" s="186"/>
+      <c r="B47" s="185"/>
+      <c r="C47" s="187"/>
+      <c r="D47" s="184"/>
+      <c r="E47" s="185"/>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="184"/>
-      <c r="C48" s="189"/>
-      <c r="D48" s="185"/>
-      <c r="E48" s="184"/>
+      <c r="B48" s="183"/>
+      <c r="C48" s="188"/>
+      <c r="D48" s="184"/>
+      <c r="E48" s="183"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="184"/>
-      <c r="C49" s="190"/>
-      <c r="D49" s="185"/>
-      <c r="E49" s="184"/>
+      <c r="B49" s="183"/>
+      <c r="C49" s="189"/>
+      <c r="D49" s="184"/>
+      <c r="E49" s="183"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="184"/>
-      <c r="C50" s="189"/>
-      <c r="D50" s="185"/>
-      <c r="E50" s="184"/>
+      <c r="B50" s="183"/>
+      <c r="C50" s="188"/>
+      <c r="D50" s="184"/>
+      <c r="E50" s="183"/>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="184"/>
-      <c r="C51" s="191"/>
-      <c r="D51" s="185"/>
-      <c r="E51" s="184"/>
+      <c r="B51" s="183"/>
+      <c r="C51" s="190"/>
+      <c r="D51" s="184"/>
+      <c r="E51" s="183"/>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="184"/>
-      <c r="C52" s="184"/>
-      <c r="D52" s="185"/>
-      <c r="E52" s="184"/>
+      <c r="B52" s="183"/>
+      <c r="C52" s="183"/>
+      <c r="D52" s="184"/>
+      <c r="E52" s="183"/>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="187"/>
-      <c r="C53" s="184"/>
-      <c r="D53" s="185"/>
-      <c r="E53" s="184"/>
+      <c r="B53" s="186"/>
+      <c r="C53" s="183"/>
+      <c r="D53" s="184"/>
+      <c r="E53" s="183"/>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="186"/>
-      <c r="C54" s="188"/>
-      <c r="D54" s="185"/>
-      <c r="E54" s="186"/>
+      <c r="B54" s="185"/>
+      <c r="C54" s="187"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="185"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="184"/>
-      <c r="C55" s="189"/>
-      <c r="D55" s="185"/>
-      <c r="E55" s="184"/>
+      <c r="B55" s="183"/>
+      <c r="C55" s="188"/>
+      <c r="D55" s="184"/>
+      <c r="E55" s="183"/>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="184"/>
-      <c r="C56" s="189"/>
-      <c r="D56" s="185"/>
-      <c r="E56" s="184"/>
+      <c r="B56" s="183"/>
+      <c r="C56" s="188"/>
+      <c r="D56" s="184"/>
+      <c r="E56" s="183"/>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="184"/>
-      <c r="C57" s="184"/>
-      <c r="D57" s="185"/>
-      <c r="E57" s="184"/>
+      <c r="B57" s="183"/>
+      <c r="C57" s="183"/>
+      <c r="D57" s="184"/>
+      <c r="E57" s="183"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="184"/>
-      <c r="C58" s="184"/>
-      <c r="D58" s="185"/>
-      <c r="E58" s="184"/>
+      <c r="B58" s="183"/>
+      <c r="C58" s="183"/>
+      <c r="D58" s="184"/>
+      <c r="E58" s="183"/>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="187"/>
-      <c r="C59" s="184"/>
-      <c r="D59" s="185"/>
-      <c r="E59" s="184"/>
+      <c r="B59" s="186"/>
+      <c r="C59" s="183"/>
+      <c r="D59" s="184"/>
+      <c r="E59" s="183"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="186"/>
-      <c r="C60" s="188"/>
-      <c r="D60" s="185"/>
-      <c r="E60" s="186"/>
+      <c r="B60" s="185"/>
+      <c r="C60" s="187"/>
+      <c r="D60" s="184"/>
+      <c r="E60" s="185"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="184"/>
-      <c r="C61" s="189"/>
-      <c r="D61" s="185"/>
-      <c r="E61" s="184"/>
+      <c r="B61" s="183"/>
+      <c r="C61" s="188"/>
+      <c r="D61" s="184"/>
+      <c r="E61" s="183"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="184"/>
-      <c r="C62" s="189"/>
-      <c r="D62" s="185"/>
-      <c r="E62" s="184"/>
+      <c r="B62" s="183"/>
+      <c r="C62" s="188"/>
+      <c r="D62" s="184"/>
+      <c r="E62" s="183"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="B63" s="184"/>
-      <c r="C63" s="184"/>
-      <c r="D63" s="184"/>
-      <c r="E63" s="184"/>
+      <c r="B63" s="183"/>
+      <c r="C63" s="183"/>
+      <c r="D63" s="183"/>
+      <c r="E63" s="183"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="B64" s="184"/>
-      <c r="C64" s="184"/>
-      <c r="D64" s="184"/>
-      <c r="E64" s="184"/>
+      <c r="B64" s="183"/>
+      <c r="C64" s="183"/>
+      <c r="D64" s="183"/>
+      <c r="E64" s="183"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18673,256 +18650,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="H1" s="229" t="s">
+      <c r="H1" s="228" t="s">
+        <v>947</v>
+      </c>
+      <c r="I1" s="229">
+        <v>77</v>
+      </c>
+      <c r="J1" s="228"/>
+      <c r="K1" s="229">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="H2" s="228" t="s">
         <v>948</v>
       </c>
-      <c r="I1" s="230">
-        <v>77</v>
-      </c>
-      <c r="J1" s="229"/>
-      <c r="K1" s="230">
-        <v>66</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="I2" s="229">
+        <v>20</v>
+      </c>
+      <c r="J2" s="228"/>
+      <c r="K2" s="229">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="H3" s="228"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="229"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="217" t="s">
+        <v>875</v>
+      </c>
+      <c r="F4" t="s">
+        <v>950</v>
+      </c>
+      <c r="H4" s="228" t="s">
+        <v>943</v>
+      </c>
+      <c r="I4" s="229" t="s">
+        <v>946</v>
+      </c>
+      <c r="J4" s="228" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="H2" s="229" t="s">
-        <v>949</v>
-      </c>
-      <c r="I2" s="230">
-        <v>20</v>
-      </c>
-      <c r="J2" s="229"/>
-      <c r="K2" s="230">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="H3" s="229"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="230"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="218" t="s">
-        <v>876</v>
-      </c>
-      <c r="F4" t="s">
-        <v>951</v>
-      </c>
-      <c r="H4" s="229" t="s">
-        <v>944</v>
-      </c>
-      <c r="I4" s="230" t="s">
-        <v>947</v>
-      </c>
-      <c r="J4" s="229" t="s">
+      <c r="K4" s="229" t="s">
         <v>946</v>
-      </c>
-      <c r="K4" s="230" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="29" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>909</v>
-      </c>
-      <c r="H5" s="229">
+        <v>908</v>
+      </c>
+      <c r="H5" s="228">
         <v>149.1</v>
       </c>
-      <c r="I5" s="231">
+      <c r="I5" s="230">
         <f t="shared" ref="I5:I10" si="0">H5/3.6</f>
         <v>41.416666666666664</v>
       </c>
-      <c r="J5" s="229">
+      <c r="J5" s="228">
         <v>95.7</v>
       </c>
-      <c r="K5" s="231">
+      <c r="K5" s="230">
         <f>J5/3.6</f>
         <v>26.583333333333332</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="29" t="s">
-        <v>900</v>
-      </c>
-      <c r="B6" s="221" t="s">
-        <v>896</v>
-      </c>
-      <c r="C6" s="219"/>
-      <c r="H6" s="232">
+        <v>899</v>
+      </c>
+      <c r="B6" s="220" t="s">
+        <v>895</v>
+      </c>
+      <c r="C6" s="218"/>
+      <c r="H6" s="231">
         <v>206</v>
       </c>
-      <c r="I6" s="233">
+      <c r="I6" s="232">
         <f t="shared" si="0"/>
         <v>57.222222222222221</v>
       </c>
-      <c r="J6" s="232">
+      <c r="J6" s="231">
         <v>110</v>
       </c>
-      <c r="K6" s="233">
+      <c r="K6" s="232">
         <f>J6/3.6</f>
         <v>30.555555555555554</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="222" t="s">
-        <v>898</v>
-      </c>
-      <c r="C7" s="219"/>
-      <c r="H7" s="234">
+      <c r="B7" s="221" t="s">
+        <v>897</v>
+      </c>
+      <c r="C7" s="218"/>
+      <c r="H7" s="233">
         <v>250</v>
       </c>
-      <c r="I7" s="236">
+      <c r="I7" s="235">
         <f t="shared" si="0"/>
         <v>69.444444444444443</v>
       </c>
-      <c r="J7" s="234"/>
-      <c r="K7" s="235"/>
+      <c r="J7" s="233"/>
+      <c r="K7" s="234"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="29" t="s">
-        <v>902</v>
-      </c>
-      <c r="B8" s="221" t="s">
-        <v>883</v>
-      </c>
-      <c r="C8" s="219"/>
-      <c r="H8" s="232">
+        <v>901</v>
+      </c>
+      <c r="B8" s="220" t="s">
+        <v>882</v>
+      </c>
+      <c r="C8" s="218"/>
+      <c r="H8" s="231">
         <v>282</v>
       </c>
-      <c r="I8" s="233">
+      <c r="I8" s="232">
         <f t="shared" si="0"/>
         <v>78.333333333333329</v>
       </c>
-      <c r="J8" s="232">
+      <c r="J8" s="231">
         <v>180</v>
       </c>
-      <c r="K8" s="233">
+      <c r="K8" s="232">
         <f t="shared" ref="K8" si="1">J8/3.6</f>
         <v>50</v>
       </c>
       <c r="L8" s="67" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="B9" s="222" t="s">
-        <v>885</v>
-      </c>
-      <c r="C9" s="219"/>
-      <c r="H9" s="229">
+      <c r="B9" s="221" t="s">
+        <v>884</v>
+      </c>
+      <c r="C9" s="218"/>
+      <c r="H9" s="228">
         <v>153</v>
       </c>
-      <c r="I9" s="231">
+      <c r="I9" s="230">
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
-      <c r="J9" s="229">
+      <c r="J9" s="228">
         <v>180</v>
       </c>
-      <c r="K9" s="231">
+      <c r="K9" s="230">
         <f>J9/3.6</f>
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="178" t="s">
-        <v>888</v>
-      </c>
-      <c r="H10" s="229">
+      <c r="B10" s="177" t="s">
+        <v>887</v>
+      </c>
+      <c r="H10" s="228">
         <v>280</v>
       </c>
-      <c r="I10" s="231">
+      <c r="I10" s="230">
         <f t="shared" si="0"/>
         <v>77.777777777777771</v>
       </c>
-      <c r="J10" s="229">
+      <c r="J10" s="228">
         <v>347</v>
       </c>
-      <c r="K10" s="231">
+      <c r="K10" s="230">
         <f>J10/3.6</f>
         <v>96.388888888888886</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="29" t="s">
-        <v>905</v>
-      </c>
-      <c r="B11" s="178" t="s">
-        <v>884</v>
-      </c>
-      <c r="H11" s="229"/>
-      <c r="I11" s="230"/>
-      <c r="J11" s="229"/>
-      <c r="K11" s="230"/>
+        <v>904</v>
+      </c>
+      <c r="B11" s="177" t="s">
+        <v>883</v>
+      </c>
+      <c r="H11" s="228"/>
+      <c r="I11" s="229"/>
+      <c r="J11" s="228"/>
+      <c r="K11" s="229"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="178" t="s">
+      <c r="B12" s="177" t="s">
+        <v>885</v>
+      </c>
+      <c r="H12" s="228"/>
+      <c r="I12" s="229"/>
+      <c r="J12" s="228"/>
+      <c r="K12" s="229"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="177" t="s">
         <v>886</v>
       </c>
-      <c r="H12" s="229"/>
-      <c r="I12" s="230"/>
-      <c r="J12" s="229"/>
-      <c r="K12" s="230"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" s="178" t="s">
-        <v>887</v>
-      </c>
-      <c r="H13" s="229"/>
-      <c r="I13" s="230"/>
-      <c r="J13" s="229"/>
-      <c r="K13" s="230"/>
+      <c r="H13" s="228"/>
+      <c r="I13" s="229"/>
+      <c r="J13" s="228"/>
+      <c r="K13" s="229"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="178" t="s">
-        <v>889</v>
-      </c>
-      <c r="H14" s="229"/>
-      <c r="I14" s="230"/>
-      <c r="J14" s="229"/>
-      <c r="K14" s="230"/>
+      <c r="B14" s="177" t="s">
+        <v>888</v>
+      </c>
+      <c r="H14" s="228"/>
+      <c r="I14" s="229"/>
+      <c r="J14" s="228"/>
+      <c r="K14" s="229"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="178" t="s">
+      <c r="B15" s="177" t="s">
+        <v>891</v>
+      </c>
+      <c r="H15" s="228"/>
+      <c r="I15" s="229"/>
+      <c r="J15" s="228"/>
+      <c r="K15" s="229"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="177" t="s">
         <v>892</v>
       </c>
-      <c r="H15" s="229"/>
-      <c r="I15" s="230"/>
-      <c r="J15" s="229"/>
-      <c r="K15" s="230"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="178" t="s">
-        <v>893</v>
-      </c>
-      <c r="H16" s="229"/>
-      <c r="I16" s="230"/>
-      <c r="J16" s="229"/>
-      <c r="K16" s="230"/>
+      <c r="H16" s="228"/>
+      <c r="I16" s="229"/>
+      <c r="J16" s="228"/>
+      <c r="K16" s="229"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="29" t="s">
-        <v>904</v>
-      </c>
-      <c r="B17" s="222" t="s">
-        <v>890</v>
-      </c>
-      <c r="H17" s="232">
+        <v>903</v>
+      </c>
+      <c r="B17" s="221" t="s">
+        <v>889</v>
+      </c>
+      <c r="H17" s="231">
         <v>162</v>
       </c>
-      <c r="I17" s="233">
+      <c r="I17" s="232">
         <f>H17/3.6</f>
         <v>45</v>
       </c>
-      <c r="J17" s="232"/>
-      <c r="K17" s="233">
+      <c r="J17" s="231"/>
+      <c r="K17" s="232">
         <f>J17/3.6</f>
         <v>0</v>
       </c>
@@ -18931,126 +18908,126 @@
       <c r="A18" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="B18" s="222" t="s">
-        <v>891</v>
-      </c>
-      <c r="H18" s="229">
+      <c r="B18" s="221" t="s">
+        <v>890</v>
+      </c>
+      <c r="H18" s="228">
         <v>134</v>
       </c>
-      <c r="I18" s="231">
+      <c r="I18" s="230">
         <f>H18/3.6</f>
         <v>37.222222222222221</v>
       </c>
-      <c r="J18" s="229"/>
-      <c r="K18" s="231">
+      <c r="J18" s="228"/>
+      <c r="K18" s="230">
         <f>J18/3.6</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="29" t="s">
-        <v>908</v>
-      </c>
-      <c r="B19" s="222" t="s">
-        <v>897</v>
-      </c>
-      <c r="H19" s="229"/>
-      <c r="I19" s="230"/>
-      <c r="J19" s="229"/>
-      <c r="K19" s="230"/>
+        <v>907</v>
+      </c>
+      <c r="B19" s="221" t="s">
+        <v>896</v>
+      </c>
+      <c r="H19" s="228"/>
+      <c r="I19" s="229"/>
+      <c r="J19" s="228"/>
+      <c r="K19" s="229"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="B20" s="178" t="s">
-        <v>899</v>
-      </c>
-      <c r="H20" s="229"/>
-      <c r="I20" s="230"/>
-      <c r="J20" s="229"/>
-      <c r="K20" s="230"/>
+      <c r="B20" s="177" t="s">
+        <v>898</v>
+      </c>
+      <c r="H20" s="228"/>
+      <c r="I20" s="229"/>
+      <c r="J20" s="228"/>
+      <c r="K20" s="229"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="29" t="s">
-        <v>901</v>
-      </c>
-      <c r="B21" s="178" t="s">
-        <v>894</v>
-      </c>
-      <c r="H21" s="229"/>
-      <c r="I21" s="230"/>
-      <c r="J21" s="229"/>
-      <c r="K21" s="230"/>
+        <v>900</v>
+      </c>
+      <c r="B21" s="177" t="s">
+        <v>893</v>
+      </c>
+      <c r="H21" s="228"/>
+      <c r="I21" s="229"/>
+      <c r="J21" s="228"/>
+      <c r="K21" s="229"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="29" t="s">
-        <v>907</v>
-      </c>
-      <c r="B22" s="178" t="s">
-        <v>895</v>
-      </c>
-      <c r="H22" s="229"/>
-      <c r="I22" s="230"/>
-      <c r="J22" s="229"/>
-      <c r="K22" s="230"/>
+        <v>906</v>
+      </c>
+      <c r="B22" s="177" t="s">
+        <v>894</v>
+      </c>
+      <c r="H22" s="228"/>
+      <c r="I22" s="229"/>
+      <c r="J22" s="228"/>
+      <c r="K22" s="229"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="29" t="s">
-        <v>906</v>
-      </c>
-      <c r="B23" s="178" t="s">
+        <v>905</v>
+      </c>
+      <c r="B23" s="177" t="s">
+        <v>880</v>
+      </c>
+      <c r="H23" s="228"/>
+      <c r="I23" s="229"/>
+      <c r="J23" s="228"/>
+      <c r="K23" s="229"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" s="177" t="s">
         <v>881</v>
       </c>
-      <c r="H23" s="229"/>
-      <c r="I23" s="230"/>
-      <c r="J23" s="229"/>
-      <c r="K23" s="230"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="B24" s="178" t="s">
-        <v>882</v>
-      </c>
-      <c r="H24" s="229"/>
-      <c r="I24" s="230"/>
-      <c r="J24" s="229"/>
-      <c r="K24" s="230"/>
+      <c r="H24" s="228"/>
+      <c r="I24" s="229"/>
+      <c r="J24" s="228"/>
+      <c r="K24" s="229"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="29" t="s">
-        <v>903</v>
-      </c>
-      <c r="B25" s="178" t="s">
+        <v>902</v>
+      </c>
+      <c r="B25" s="177" t="s">
+        <v>876</v>
+      </c>
+      <c r="H25" s="228"/>
+      <c r="I25" s="229"/>
+      <c r="J25" s="228"/>
+      <c r="K25" s="229"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" s="177" t="s">
         <v>877</v>
       </c>
-      <c r="H25" s="229"/>
-      <c r="I25" s="230"/>
-      <c r="J25" s="229"/>
-      <c r="K25" s="230"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="B26" s="178" t="s">
+      <c r="H26" s="228"/>
+      <c r="I26" s="229"/>
+      <c r="J26" s="228"/>
+      <c r="K26" s="229"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="B27" s="177" t="s">
         <v>878</v>
       </c>
-      <c r="H26" s="229"/>
-      <c r="I26" s="230"/>
-      <c r="J26" s="229"/>
-      <c r="K26" s="230"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="B27" s="178" t="s">
+      <c r="H27" s="228"/>
+      <c r="I27" s="229"/>
+      <c r="J27" s="228"/>
+      <c r="K27" s="229"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="B28" s="177" t="s">
         <v>879</v>
       </c>
-      <c r="H27" s="229"/>
-      <c r="I27" s="230"/>
-      <c r="J27" s="229"/>
-      <c r="K27" s="230"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="B28" s="178" t="s">
-        <v>880</v>
-      </c>
-      <c r="H28" s="229"/>
-      <c r="I28" s="230"/>
-      <c r="J28" s="229"/>
-      <c r="K28" s="230"/>
+      <c r="H28" s="228"/>
+      <c r="I28" s="229"/>
+      <c r="J28" s="228"/>
+      <c r="K28" s="229"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19080,10 +19057,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="241" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="242"/>
+      <c r="C4" s="241"/>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="11" t="s">
@@ -19094,10 +19071,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="242" t="s">
+      <c r="B8" s="241" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="242"/>
+      <c r="C8" s="241"/>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="11" t="s">
@@ -19122,10 +19099,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="17"/>
-      <c r="B16" s="243" t="s">
+      <c r="B16" s="242" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="243"/>
+      <c r="C16" s="242"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="11" t="s">
@@ -19133,10 +19110,10 @@
       </c>
     </row>
     <row r="20" spans="2:3" ht="138" customHeight="1">
-      <c r="B20" s="244" t="s">
+      <c r="B20" s="243" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="244"/>
+      <c r="C20" s="243"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="18" t="s">
@@ -19212,10 +19189,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="17"/>
-      <c r="B33" s="243" t="s">
+      <c r="B33" s="242" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="243"/>
+      <c r="C33" s="242"/>
     </row>
     <row r="34" spans="1:3">
       <c r="C34" s="16" t="s">
@@ -28513,10 +28490,10 @@
     </row>
     <row r="2" spans="2:6" s="11" customFormat="1"/>
     <row r="3" spans="2:6" s="11" customFormat="1">
-      <c r="B3" s="242" t="s">
+      <c r="B3" s="241" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="242"/>
+      <c r="C3" s="241"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
@@ -28537,10 +28514,10 @@
     </row>
     <row r="5" spans="2:6" s="11" customFormat="1"/>
     <row r="6" spans="2:6" s="11" customFormat="1">
-      <c r="B6" s="242" t="s">
+      <c r="B6" s="241" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="242"/>
+      <c r="C6" s="241"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
@@ -28564,10 +28541,10 @@
     </row>
     <row r="8" spans="2:6" s="11" customFormat="1"/>
     <row r="9" spans="2:6" s="11" customFormat="1">
-      <c r="B9" s="242" t="s">
+      <c r="B9" s="241" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="242"/>
+      <c r="C9" s="241"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
@@ -29443,7 +29420,7 @@
       </c>
     </row>
     <row r="89" spans="2:5">
-      <c r="B89" s="244" t="s">
+      <c r="B89" s="243" t="s">
         <v>159</v>
       </c>
       <c r="C89" t="s">
@@ -29457,7 +29434,7 @@
       </c>
     </row>
     <row r="90" spans="2:5">
-      <c r="B90" s="244"/>
+      <c r="B90" s="243"/>
       <c r="C90" t="s">
         <v>147</v>
       </c>
@@ -29469,7 +29446,7 @@
       </c>
     </row>
     <row r="91" spans="2:5">
-      <c r="B91" s="244"/>
+      <c r="B91" s="243"/>
       <c r="C91" t="s">
         <v>148</v>
       </c>
@@ -29481,7 +29458,7 @@
       </c>
     </row>
     <row r="92" spans="2:5">
-      <c r="B92" s="244"/>
+      <c r="B92" s="243"/>
       <c r="C92" t="s">
         <v>149</v>
       </c>
@@ -31788,13 +31765,13 @@
       </c>
     </row>
     <row r="4" spans="1:32">
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="246" t="s">
         <v>497</v>
       </c>
-      <c r="C4" s="247" t="s">
-        <v>847</v>
-      </c>
-      <c r="D4" s="247"/>
+      <c r="C4" s="246" t="s">
+        <v>846</v>
+      </c>
+      <c r="D4" s="246"/>
       <c r="E4" s="103" t="s">
         <v>448</v>
       </c>
@@ -31804,10 +31781,10 @@
       <c r="G4" s="103" t="s">
         <v>480</v>
       </c>
-      <c r="H4" s="245" t="s">
+      <c r="H4" s="244" t="s">
         <v>498</v>
       </c>
-      <c r="I4" s="245" t="s">
+      <c r="I4" s="244" t="s">
         <v>499</v>
       </c>
       <c r="J4"/>
@@ -31839,12 +31816,12 @@
       <c r="A5" s="134" t="s">
         <v>553</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="177" t="s">
+      <c r="B5" s="247"/>
+      <c r="C5" s="176" t="s">
         <v>418</v>
       </c>
-      <c r="D5" s="177" t="s">
-        <v>848</v>
+      <c r="D5" s="176" t="s">
+        <v>847</v>
       </c>
       <c r="E5" s="101" t="s">
         <v>449</v>
@@ -31855,8 +31832,8 @@
       <c r="G5" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="246"/>
-      <c r="I5" s="246"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -31904,8 +31881,8 @@
       <c r="B6" s="113" t="s">
         <v>503</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="197"/>
+      <c r="C6" s="193"/>
+      <c r="D6" s="196"/>
       <c r="E6" s="107"/>
       <c r="F6" s="107"/>
       <c r="G6" s="107"/>
@@ -32099,8 +32076,8 @@
       <c r="B10" s="113" t="s">
         <v>502</v>
       </c>
-      <c r="C10" s="194"/>
-      <c r="D10" s="197"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="196"/>
       <c r="E10" s="122"/>
       <c r="F10" s="122"/>
       <c r="G10" s="122"/>
@@ -32147,7 +32124,7 @@
         <v>470</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E11" s="121">
         <v>2.706</v>
@@ -32190,7 +32167,7 @@
         <v>471</v>
       </c>
       <c r="C12" s="124" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D12" s="124"/>
       <c r="E12" s="125">
@@ -32305,16 +32282,16 @@
       </c>
     </row>
     <row r="14" spans="1:32">
-      <c r="B14" s="206" t="s">
+      <c r="B14" s="205" t="s">
         <v>501</v>
       </c>
-      <c r="C14" s="207"/>
-      <c r="D14" s="208"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="210"/>
-      <c r="I14" s="210"/>
+      <c r="C14" s="206"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="208"/>
+      <c r="F14" s="208"/>
+      <c r="G14" s="208"/>
+      <c r="H14" s="209"/>
+      <c r="I14" s="209"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
@@ -32366,13 +32343,13 @@
         <v>559</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>861</v>
-      </c>
-      <c r="C15" s="195" t="s">
-        <v>842</v>
-      </c>
-      <c r="D15" s="195" t="s">
-        <v>846</v>
+        <v>860</v>
+      </c>
+      <c r="C15" s="194" t="s">
+        <v>841</v>
+      </c>
+      <c r="D15" s="194" t="s">
+        <v>845</v>
       </c>
       <c r="E15" s="109">
         <v>1.1000000000000001</v>
@@ -32383,7 +32360,7 @@
       <c r="G15" s="109">
         <v>0.82</v>
       </c>
-      <c r="H15" s="199" t="s">
+      <c r="H15" s="198" t="s">
         <v>488</v>
       </c>
       <c r="I15" s="104" t="s">
@@ -32444,13 +32421,13 @@
         <v>560</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>860</v>
-      </c>
-      <c r="C16" s="196" t="s">
-        <v>843</v>
-      </c>
-      <c r="D16" s="196" t="s">
-        <v>846</v>
+        <v>859</v>
+      </c>
+      <c r="C16" s="195" t="s">
+        <v>842</v>
+      </c>
+      <c r="D16" s="195" t="s">
+        <v>845</v>
       </c>
       <c r="E16" s="110">
         <v>1</v>
@@ -32461,7 +32438,7 @@
       <c r="G16" s="110">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H16" s="200" t="s">
+      <c r="H16" s="199" t="s">
         <v>491</v>
       </c>
       <c r="I16" s="105" t="s">
@@ -32518,13 +32495,13 @@
         <v>561</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>860</v>
-      </c>
-      <c r="C17" s="196" t="s">
-        <v>844</v>
-      </c>
-      <c r="D17" s="196" t="s">
-        <v>846</v>
+        <v>859</v>
+      </c>
+      <c r="C17" s="195" t="s">
+        <v>843</v>
+      </c>
+      <c r="D17" s="195" t="s">
+        <v>845</v>
       </c>
       <c r="E17" s="110">
         <v>1.1000000000000001</v>
@@ -32535,7 +32512,7 @@
       <c r="G17" s="110">
         <v>0.74</v>
       </c>
-      <c r="H17" s="200" t="s">
+      <c r="H17" s="199" t="s">
         <v>487</v>
       </c>
       <c r="I17" s="105" t="s">
@@ -32592,13 +32569,13 @@
         <v>562</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>859</v>
-      </c>
-      <c r="C18" s="196" t="s">
-        <v>840</v>
-      </c>
-      <c r="D18" s="196" t="s">
-        <v>846</v>
+        <v>858</v>
+      </c>
+      <c r="C18" s="195" t="s">
+        <v>839</v>
+      </c>
+      <c r="D18" s="195" t="s">
+        <v>845</v>
       </c>
       <c r="E18" s="110">
         <v>1</v>
@@ -32609,7 +32586,7 @@
       <c r="G18" s="110">
         <v>0.4</v>
       </c>
-      <c r="H18" s="200" t="s">
+      <c r="H18" s="199" t="s">
         <v>490</v>
       </c>
       <c r="I18" s="105" t="s">
@@ -32666,13 +32643,13 @@
         <v>563</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>860</v>
-      </c>
-      <c r="C19" s="196" t="s">
+        <v>859</v>
+      </c>
+      <c r="C19" s="195" t="s">
+        <v>844</v>
+      </c>
+      <c r="D19" s="195" t="s">
         <v>845</v>
-      </c>
-      <c r="D19" s="196" t="s">
-        <v>846</v>
       </c>
       <c r="E19" s="110">
         <v>1</v>
@@ -32683,7 +32660,7 @@
       <c r="G19" s="110">
         <v>0.62</v>
       </c>
-      <c r="H19" s="200" t="s">
+      <c r="H19" s="199" t="s">
         <v>489</v>
       </c>
       <c r="I19" s="105" t="s">
@@ -32740,13 +32717,13 @@
         <v>564</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C20" s="124" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D20" s="124" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E20" s="111">
         <v>1</v>
@@ -32757,7 +32734,7 @@
       <c r="G20" s="111">
         <v>0.72</v>
       </c>
-      <c r="H20" s="201" t="s">
+      <c r="H20" s="200" t="s">
         <v>486</v>
       </c>
       <c r="I20" s="106" t="s">
@@ -32841,16 +32818,16 @@
       <c r="AF21" s="73"/>
     </row>
     <row r="22" spans="1:32">
-      <c r="B22" s="206" t="s">
+      <c r="B22" s="205" t="s">
         <v>494</v>
       </c>
-      <c r="C22" s="207"/>
-      <c r="D22" s="208"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="209"/>
-      <c r="H22" s="210"/>
-      <c r="I22" s="210"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="208"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="209"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
@@ -32901,13 +32878,13 @@
         <v>565</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>863</v>
-      </c>
-      <c r="C23" s="195" t="s">
-        <v>853</v>
-      </c>
-      <c r="D23" s="195" t="s">
-        <v>846</v>
+        <v>862</v>
+      </c>
+      <c r="C23" s="194" t="s">
+        <v>852</v>
+      </c>
+      <c r="D23" s="194" t="s">
+        <v>845</v>
       </c>
       <c r="E23" s="109">
         <v>0.6</v>
@@ -32918,7 +32895,7 @@
       <c r="G23" s="109">
         <v>0.75</v>
       </c>
-      <c r="H23" s="212" t="s">
+      <c r="H23" s="211" t="s">
         <v>488</v>
       </c>
       <c r="I23" s="104" t="s">
@@ -32962,13 +32939,13 @@
         <v>566</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>863</v>
-      </c>
-      <c r="C24" s="196" t="s">
-        <v>854</v>
-      </c>
-      <c r="D24" s="196" t="s">
-        <v>846</v>
+        <v>862</v>
+      </c>
+      <c r="C24" s="195" t="s">
+        <v>853</v>
+      </c>
+      <c r="D24" s="195" t="s">
+        <v>845</v>
       </c>
       <c r="E24" s="110">
         <v>0.7</v>
@@ -32979,7 +32956,7 @@
       <c r="G24" s="110">
         <v>0.52</v>
       </c>
-      <c r="H24" s="211" t="s">
+      <c r="H24" s="210" t="s">
         <v>491</v>
       </c>
       <c r="I24" s="105" t="s">
@@ -33032,13 +33009,13 @@
         <v>567</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>863</v>
-      </c>
-      <c r="C25" s="196" t="s">
-        <v>855</v>
-      </c>
-      <c r="D25" s="196" t="s">
-        <v>846</v>
+        <v>862</v>
+      </c>
+      <c r="C25" s="195" t="s">
+        <v>854</v>
+      </c>
+      <c r="D25" s="195" t="s">
+        <v>845</v>
       </c>
       <c r="E25" s="110">
         <v>0.7</v>
@@ -33049,7 +33026,7 @@
       <c r="G25" s="110">
         <v>0.64</v>
       </c>
-      <c r="H25" s="211" t="s">
+      <c r="H25" s="210" t="s">
         <v>487</v>
       </c>
       <c r="I25" s="105" t="s">
@@ -33105,13 +33082,13 @@
         <v>568</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>863</v>
-      </c>
-      <c r="C26" s="196" t="s">
-        <v>856</v>
-      </c>
-      <c r="D26" s="196" t="s">
-        <v>846</v>
+        <v>862</v>
+      </c>
+      <c r="C26" s="195" t="s">
+        <v>855</v>
+      </c>
+      <c r="D26" s="195" t="s">
+        <v>845</v>
       </c>
       <c r="E26" s="110">
         <v>0.6</v>
@@ -33122,7 +33099,7 @@
       <c r="G26" s="110">
         <v>0.33</v>
       </c>
-      <c r="H26" s="211" t="s">
+      <c r="H26" s="210" t="s">
         <v>490</v>
       </c>
       <c r="I26" s="105" t="s">
@@ -33178,13 +33155,13 @@
         <v>569</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>862</v>
-      </c>
-      <c r="C27" s="196" t="s">
-        <v>852</v>
-      </c>
-      <c r="D27" s="196" t="s">
-        <v>846</v>
+        <v>861</v>
+      </c>
+      <c r="C27" s="195" t="s">
+        <v>851</v>
+      </c>
+      <c r="D27" s="195" t="s">
+        <v>845</v>
       </c>
       <c r="E27" s="110">
         <v>0.6</v>
@@ -33195,7 +33172,7 @@
       <c r="G27" s="110">
         <v>0.46</v>
       </c>
-      <c r="H27" s="211" t="s">
+      <c r="H27" s="210" t="s">
         <v>489</v>
       </c>
       <c r="I27" s="105" t="s">
@@ -33252,13 +33229,13 @@
         <v>570</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C28" s="124" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D28" s="124" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E28" s="111">
         <v>0.6</v>
@@ -33269,7 +33246,7 @@
       <c r="G28" s="111">
         <v>0.64</v>
       </c>
-      <c r="H28" s="198" t="s">
+      <c r="H28" s="197" t="s">
         <v>486</v>
       </c>
       <c r="I28" s="106" t="s">
@@ -33308,8 +33285,8 @@
     </row>
     <row r="29" spans="1:32">
       <c r="B29" s="60"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="196"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="195"/>
       <c r="E29" s="110"/>
       <c r="F29" s="110"/>
       <c r="G29" s="110"/>
@@ -33331,10 +33308,10 @@
     </row>
     <row r="30" spans="1:32">
       <c r="B30" s="113" t="s">
-        <v>857</v>
-      </c>
-      <c r="C30" s="194"/>
-      <c r="D30" s="197"/>
+        <v>856</v>
+      </c>
+      <c r="C30" s="193"/>
+      <c r="D30" s="196"/>
       <c r="E30" s="120"/>
       <c r="F30" s="120"/>
       <c r="G30" s="120"/>
@@ -33387,30 +33364,30 @@
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="134" t="s">
-        <v>858</v>
-      </c>
-      <c r="B31" s="202" t="s">
+        <v>857</v>
+      </c>
+      <c r="B31" s="201" t="s">
+        <v>863</v>
+      </c>
+      <c r="C31" s="202" t="s">
+        <v>844</v>
+      </c>
+      <c r="D31" s="202" t="s">
         <v>864</v>
       </c>
-      <c r="C31" s="203" t="s">
-        <v>845</v>
-      </c>
-      <c r="D31" s="203" t="s">
-        <v>865</v>
-      </c>
-      <c r="E31" s="204">
+      <c r="E31" s="203">
         <v>0.7</v>
       </c>
-      <c r="F31" s="204">
+      <c r="F31" s="203">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G31" s="204">
+      <c r="G31" s="203">
         <v>0.62</v>
       </c>
-      <c r="H31" s="205" t="s">
+      <c r="H31" s="204" t="s">
         <v>489</v>
       </c>
-      <c r="I31" s="205" t="s">
+      <c r="I31" s="204" t="s">
         <v>2</v>
       </c>
       <c r="J31"/>
@@ -33494,8 +33471,8 @@
       <c r="B33" s="113" t="s">
         <v>571</v>
       </c>
-      <c r="C33" s="194"/>
-      <c r="D33" s="197"/>
+      <c r="C33" s="193"/>
+      <c r="D33" s="196"/>
       <c r="E33" s="120"/>
       <c r="F33" s="120"/>
       <c r="G33" s="120"/>
@@ -33551,13 +33528,13 @@
         <v>572</v>
       </c>
       <c r="B34" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C34" s="62" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D34" s="62" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E34" s="123">
         <v>0.5</v>
@@ -33625,13 +33602,13 @@
         <v>573</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C35" s="124" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D35" s="124" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E35" s="111">
         <v>0.45</v>
@@ -33727,10 +33704,10 @@
     </row>
     <row r="37" spans="1:32">
       <c r="B37" s="113" t="s">
-        <v>871</v>
-      </c>
-      <c r="C37" s="194"/>
-      <c r="D37" s="197"/>
+        <v>870</v>
+      </c>
+      <c r="C37" s="193"/>
+      <c r="D37" s="196"/>
       <c r="E37" s="120"/>
       <c r="F37" s="120"/>
       <c r="G37" s="120"/>
@@ -33772,10 +33749,10 @@
     </row>
     <row r="38" spans="1:32">
       <c r="A38" s="134" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B38" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E38" s="123">
         <v>0.75</v>
@@ -33852,10 +33829,10 @@
     </row>
     <row r="40" spans="1:32">
       <c r="B40" s="113" t="s">
-        <v>874</v>
-      </c>
-      <c r="C40" s="194"/>
-      <c r="D40" s="197"/>
+        <v>873</v>
+      </c>
+      <c r="C40" s="193"/>
+      <c r="D40" s="196"/>
       <c r="E40" s="120"/>
       <c r="F40" s="120"/>
       <c r="G40" s="120"/>
@@ -33897,10 +33874,10 @@
     </row>
     <row r="41" spans="1:32">
       <c r="A41" s="134" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B41" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E41" s="123">
         <v>0.6</v>
@@ -33979,8 +33956,8 @@
       <c r="B43" s="113" t="s">
         <v>554</v>
       </c>
-      <c r="C43" s="194"/>
-      <c r="D43" s="197"/>
+      <c r="C43" s="193"/>
+      <c r="D43" s="196"/>
       <c r="E43" s="120"/>
       <c r="F43" s="120"/>
       <c r="G43" s="120"/>
@@ -34022,7 +33999,7 @@
     </row>
     <row r="44" spans="1:32">
       <c r="A44" s="134" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B44" t="s">
         <v>576</v>
@@ -36460,10 +36437,10 @@
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="2:12" s="11" customFormat="1">
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="241" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="242"/>
+      <c r="C4" s="241"/>
       <c r="D4" s="27"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -36563,10 +36540,10 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="242" t="s">
+      <c r="B15" s="241" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="242"/>
+      <c r="C15" s="241"/>
       <c r="D15" s="27"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -36589,7 +36566,7 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="249" t="s">
+      <c r="B17" s="248" t="s">
         <v>34</v>
       </c>
       <c r="C17" t="s">
@@ -36606,7 +36583,7 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="249"/>
+      <c r="B18" s="248"/>
       <c r="C18" t="s">
         <v>211</v>
       </c>
@@ -36618,7 +36595,7 @@
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="249"/>
+      <c r="B19" s="248"/>
       <c r="C19" t="s">
         <v>212</v>
       </c>
@@ -36780,10 +36757,10 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="242" t="s">
+      <c r="B36" s="241" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="242"/>
+      <c r="C36" s="241"/>
       <c r="D36" s="27"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -37027,10 +37004,10 @@
       </c>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="242" t="s">
+      <c r="B62" s="241" t="s">
         <v>224</v>
       </c>
-      <c r="C62" s="242"/>
+      <c r="C62" s="241"/>
       <c r="D62" s="27"/>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
@@ -37130,10 +37107,10 @@
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="2:6" s="11" customFormat="1">
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="241" t="s">
         <v>231</v>
       </c>
-      <c r="C4" s="242"/>
+      <c r="C4" s="241"/>
       <c r="D4" s="27"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -37203,10 +37180,10 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="242" t="s">
-        <v>940</v>
-      </c>
-      <c r="C14" s="242"/>
+      <c r="B14" s="241" t="s">
+        <v>939</v>
+      </c>
+      <c r="C14" s="241"/>
       <c r="D14" s="27"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -37216,15 +37193,15 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
+        <v>940</v>
+      </c>
+      <c r="D15" t="s">
         <v>941</v>
-      </c>
-      <c r="D15" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="C16" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D16" s="32">
         <v>2.9999999999999997E-4</v>
@@ -37270,10 +37247,10 @@
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="2:6" s="11" customFormat="1">
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="241" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="242"/>
+      <c r="C4" s="241"/>
       <c r="D4" s="27"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -37349,10 +37326,10 @@
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:6" s="11" customFormat="1">
-      <c r="B3" s="242" t="s">
+      <c r="B3" s="241" t="s">
         <v>426</v>
       </c>
-      <c r="C3" s="242"/>
+      <c r="C3" s="241"/>
       <c r="D3" s="35"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
@@ -37441,7 +37418,7 @@
         <v>429</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -37449,7 +37426,7 @@
         <v>431</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -37457,7 +37434,7 @@
         <v>433</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -37491,10 +37468,10 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>428</v>
       </c>
-      <c r="C20" s="242"/>
+      <c r="C20" s="241"/>
       <c r="D20" s="35" t="s">
         <v>418</v>
       </c>
@@ -37508,7 +37485,7 @@
         <v>513</v>
       </c>
       <c r="C21" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D21" s="3">
         <v>0.1</v>
@@ -37519,10 +37496,10 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C22" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D22" s="3">
         <v>2.4E-2</v>
@@ -37533,7 +37510,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="C23" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D23" s="3">
         <v>0.12</v>
@@ -37544,7 +37521,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="C24" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D24" s="3">
         <v>5.5</v>
@@ -37563,7 +37540,7 @@
     </row>
     <row r="26" spans="2:6">
       <c r="C26" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D26" s="3">
         <v>0.7</v>
@@ -37571,7 +37548,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="C27" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D27" s="3">
         <v>0.7</v>
@@ -37579,7 +37556,7 @@
     </row>
     <row r="28" spans="2:6">
       <c r="C28" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D28" s="3">
         <v>0.9</v>
@@ -37587,10 +37564,10 @@
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="29" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D30" s="3">
         <v>0.1</v>
@@ -37601,10 +37578,10 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C31" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D31" s="3">
         <v>2.4E-2</v>
@@ -37615,7 +37592,7 @@
     </row>
     <row r="32" spans="2:6">
       <c r="C32" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D32" s="3">
         <v>0.12</v>
@@ -37626,7 +37603,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="C33" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D33" s="3">
         <v>1.5</v>
@@ -37649,7 +37626,7 @@
     </row>
     <row r="35" spans="2:9">
       <c r="C35" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D35" s="3">
         <v>0.7</v>
@@ -37659,7 +37636,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="C36" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D36" s="3">
         <v>0.7</v>
@@ -37669,7 +37646,7 @@
     </row>
     <row r="37" spans="2:9">
       <c r="C37" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D37" s="3">
         <v>0.9</v>
@@ -37683,10 +37660,10 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="29" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C39" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D39" s="3">
         <v>0.1</v>
@@ -37699,10 +37676,10 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C40" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D40" s="3">
         <v>2.4E-2</v>
@@ -37715,7 +37692,7 @@
     </row>
     <row r="41" spans="2:9">
       <c r="C41" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D41" s="3">
         <v>0.12</v>
@@ -37728,7 +37705,7 @@
     </row>
     <row r="42" spans="2:9">
       <c r="C42" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D42" s="3">
         <v>1.56</v>
@@ -37749,7 +37726,7 @@
     </row>
     <row r="44" spans="2:9">
       <c r="C44" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D44" s="3">
         <v>0.7</v>
@@ -37759,7 +37736,7 @@
     </row>
     <row r="45" spans="2:9">
       <c r="C45" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D45" s="3">
         <v>0.7</v>
@@ -37769,7 +37746,7 @@
     </row>
     <row r="46" spans="2:9">
       <c r="C46" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D46" s="3">
         <v>0.9</v>
@@ -37783,10 +37760,10 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="29" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C48" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D48" s="3">
         <v>0.1</v>
@@ -37799,10 +37776,10 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C49" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D49" s="3">
         <v>2.4E-2</v>
@@ -37815,7 +37792,7 @@
     </row>
     <row r="50" spans="2:9">
       <c r="C50" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D50" s="3">
         <v>0.12</v>
@@ -37828,7 +37805,7 @@
     </row>
     <row r="51" spans="2:9">
       <c r="C51" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
@@ -37849,7 +37826,7 @@
     </row>
     <row r="53" spans="2:9">
       <c r="C53" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D53" s="3">
         <v>0.7</v>
@@ -37859,7 +37836,7 @@
     </row>
     <row r="54" spans="2:9">
       <c r="C54" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D54" s="3">
         <v>0.7</v>
@@ -37869,7 +37846,7 @@
     </row>
     <row r="55" spans="2:9">
       <c r="C55" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D55" s="3">
         <v>0.9</v>
